--- a/3HL_Neurons_Network_Results_KFold_CV.xlsx
+++ b/3HL_Neurons_Network_Results_KFold_CV.xlsx
@@ -499,22 +499,22 @@
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3731778253567966</v>
+        <v>0.3732362371036614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1220693496252138</v>
+        <v>0.1127601462678578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2938440504847731</v>
+        <v>0.2942229976599902</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1289907672443711</v>
+        <v>0.1152255565058842</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9724413308009145</v>
+        <v>0.9725937746345747</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02070213950715583</v>
+        <v>0.0196988913551497</v>
       </c>
     </row>
     <row r="3">
@@ -531,22 +531,22 @@
         <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2945312538080674</v>
+        <v>0.2884157816929769</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03800877554994027</v>
+        <v>0.0104062946595773</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2165920769809341</v>
+        <v>0.2189292534761421</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03567061155204908</v>
+        <v>0.01172167398035862</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9849524988559398</v>
+        <v>0.9856936645500702</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004215695548682657</v>
+        <v>0.003055080880274374</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +563,22 @@
         <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>0.296722682614098</v>
+        <v>0.3074222819191639</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08044517574668639</v>
+        <v>0.05500855621040427</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2294980503553471</v>
+        <v>0.2303241536646229</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08409383938623181</v>
+        <v>0.04360251991888993</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9841439836133615</v>
+        <v>0.9835087680843294</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008638893990991011</v>
+        <v>0.006642264026013489</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +595,22 @@
         <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3966823153084665</v>
+        <v>0.3684932019994838</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08163546873548465</v>
+        <v>0.04210876046752845</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3182751933934443</v>
+        <v>0.2900689223086224</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0867108309144501</v>
+        <v>0.05613262318360846</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9719637984095953</v>
+        <v>0.9761911421690757</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01157857546029552</v>
+        <v>0.008487832704461358</v>
       </c>
     </row>
     <row r="6">
@@ -627,22 +627,22 @@
         <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2903714752470081</v>
+        <v>0.3538899071789632</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04277266104906147</v>
+        <v>0.0368945691671936</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2210122159021974</v>
+        <v>0.2889536453961455</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04717322115702205</v>
+        <v>0.0385963923028643</v>
       </c>
       <c r="I6" t="n">
-        <v>0.985456194413139</v>
+        <v>0.9786900109028039</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004665117065824255</v>
+        <v>0.004241954823990293</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4238880559561474</v>
+        <v>0.3760634481031036</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1295298132242009</v>
+        <v>0.1219050232659632</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3187482330275369</v>
+        <v>0.2807038389480992</v>
       </c>
       <c r="H7" t="n">
-        <v>0.115135557624183</v>
+        <v>0.1197342536926801</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9686059336032784</v>
+        <v>0.9728247436520325</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01568877294831295</v>
+        <v>0.01763351904930789</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +691,22 @@
         <v>80</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3205915739519752</v>
+        <v>0.3746351921504279</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05304707445366191</v>
+        <v>0.1218509931868218</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2329304160303311</v>
+        <v>0.2861411748289615</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04863986022170461</v>
+        <v>0.1078304613430984</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9819076504184758</v>
+        <v>0.9735515362756397</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006777661558089823</v>
+        <v>0.01919720753430394</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +723,22 @@
         <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3277950940799408</v>
+        <v>0.3044198620060206</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05611500431476877</v>
+        <v>0.03454979649312109</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2577303825528509</v>
+        <v>0.214999762426365</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06195525593475269</v>
+        <v>0.02124021707867901</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9817543368736137</v>
+        <v>0.9842129214442643</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004682803712059696</v>
+        <v>0.003265396822772532</v>
       </c>
     </row>
     <row r="10">
@@ -755,22 +755,22 @@
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4560758105047439</v>
+        <v>0.2984882702124846</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1821543241465718</v>
+        <v>0.04780078588725652</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3753300016423286</v>
+        <v>0.2102317758678631</v>
       </c>
       <c r="H10" t="n">
-        <v>0.186278057789827</v>
+        <v>0.04481698548743067</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9597639620344334</v>
+        <v>0.9844107825835969</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03117615913583688</v>
+        <v>0.005294573105537064</v>
       </c>
     </row>
     <row r="11">
@@ -787,22 +787,22 @@
         <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3710080956784877</v>
+        <v>0.2877986661900757</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08454124335395469</v>
+        <v>0.04096465959572575</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2789600645446341</v>
+        <v>0.2199860614805509</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06852767208638628</v>
+        <v>0.04409726278429531</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9764040418935178</v>
+        <v>0.9858870861368432</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008648110439948582</v>
+        <v>0.003496096124701256</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +819,22 @@
         <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>0.290331201917455</v>
+        <v>0.2615474258055973</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04838500372641036</v>
+        <v>0.02226977862346911</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2201131475843443</v>
+        <v>0.1815415809054493</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05387793476546939</v>
+        <v>0.02441421611159432</v>
       </c>
       <c r="I12" t="n">
-        <v>0.985546348266179</v>
+        <v>0.9881597269425677</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004421647949030875</v>
+        <v>0.003237483342126217</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +851,22 @@
         <v>60</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3384225678455431</v>
+        <v>0.3516217383487419</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1262365082786049</v>
+        <v>0.04299532806300008</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2595162515373238</v>
+        <v>0.2718378337765902</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1291616722226109</v>
+        <v>0.0342039810995436</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9775137711772522</v>
+        <v>0.9791056913933062</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01927932927933853</v>
+        <v>0.003709420285356868</v>
       </c>
     </row>
     <row r="14">
@@ -883,22 +883,22 @@
         <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3161899110216001</v>
+        <v>0.3396735922927762</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08763982505257314</v>
+        <v>0.05914084930537344</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2293907016895941</v>
+        <v>0.2601744752946766</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08358125328594192</v>
+        <v>0.05571874399332072</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9815205977945135</v>
+        <v>0.978916384896675</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01232868962030743</v>
+        <v>0.009778325081055871</v>
       </c>
     </row>
     <row r="15">
@@ -915,22 +915,22 @@
         <v>80</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3250933399107289</v>
+        <v>0.3393026513973899</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07102787147903963</v>
+        <v>0.04579129552500518</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2460004039924266</v>
+        <v>0.2586594501723537</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05842960775177913</v>
+        <v>0.04428530453295974</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9820055251825834</v>
+        <v>0.9801004395018051</v>
       </c>
       <c r="J15" t="n">
-        <v>0.006468232975560189</v>
+        <v>0.005885195242942517</v>
       </c>
     </row>
     <row r="16">
@@ -947,22 +947,22 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3542173677876508</v>
+        <v>0.346869302575861</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07571284797787711</v>
+        <v>0.1102404838579891</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2663120434044109</v>
+        <v>0.2501508411322664</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07706226061397778</v>
+        <v>0.08965967780780641</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9780443544800106</v>
+        <v>0.9773478623724186</v>
       </c>
       <c r="J16" t="n">
-        <v>0.008031010198535315</v>
+        <v>0.01618398308311343</v>
       </c>
     </row>
     <row r="17">
@@ -979,22 +979,22 @@
         <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>0.345701202384918</v>
+        <v>0.2759883159803275</v>
       </c>
       <c r="F17" t="n">
-        <v>0.116463460462925</v>
+        <v>0.03032849599616827</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2588617777876642</v>
+        <v>0.2049970097962952</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1260453341104585</v>
+        <v>0.02286937307005318</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9751473502620556</v>
+        <v>0.9871074115508117</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0231164504460569</v>
+        <v>0.002310908345659917</v>
       </c>
     </row>
     <row r="18">
@@ -1011,22 +1011,22 @@
         <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3024896456098424</v>
+        <v>0.3704667869891561</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04123633872484405</v>
+        <v>0.1080971676505556</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2202909008506374</v>
+        <v>0.3002242016222806</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03446668371151327</v>
+        <v>0.1233592975845972</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9837404872996111</v>
+        <v>0.9725388101906871</v>
       </c>
       <c r="J18" t="n">
-        <v>0.006822203380874348</v>
+        <v>0.02300575031987205</v>
       </c>
     </row>
     <row r="19">
@@ -1043,22 +1043,22 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>0.284103740295403</v>
+        <v>0.3174646010570081</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01952447799436827</v>
+        <v>0.03014845901891573</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2060771122616817</v>
+        <v>0.2394355455833628</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0287223393439362</v>
+        <v>0.03374336608700357</v>
       </c>
       <c r="I19" t="n">
-        <v>0.985989806366997</v>
+        <v>0.9828018940835352</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003801325910810722</v>
+        <v>0.00357387604033982</v>
       </c>
     </row>
     <row r="20">
@@ -1075,22 +1075,22 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3639399740100763</v>
+        <v>0.3485608171141411</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1152094034957312</v>
+        <v>0.09042967430051815</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2919502545254677</v>
+        <v>0.273420723251585</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1098191329053036</v>
+        <v>0.09059563778072766</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9758929428117911</v>
+        <v>0.9766637941480776</v>
       </c>
       <c r="J20" t="n">
-        <v>0.013901682437127</v>
+        <v>0.01411352150190464</v>
       </c>
     </row>
     <row r="21">
@@ -1107,22 +1107,22 @@
         <v>70</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2969517036524104</v>
+        <v>0.3206980861198881</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04192782552166127</v>
+        <v>0.06600362045771192</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2063382115850162</v>
+        <v>0.2528183981330724</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0396164673319257</v>
+        <v>0.06390774391629944</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9840875499875809</v>
+        <v>0.9819115790919535</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006822224632238191</v>
+        <v>0.008123561214188391</v>
       </c>
     </row>
     <row r="22">
@@ -1139,22 +1139,22 @@
         <v>80</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3372708171383978</v>
+        <v>0.3321225200368564</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08493117417767335</v>
+        <v>0.05253682485756953</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2594023133479051</v>
+        <v>0.2542525206675401</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1046344645616342</v>
+        <v>0.05739891012416543</v>
       </c>
       <c r="I22" t="n">
-        <v>0.980063669689056</v>
+        <v>0.9809869606976598</v>
       </c>
       <c r="J22" t="n">
-        <v>0.009316227814992873</v>
+        <v>0.005544996028532602</v>
       </c>
     </row>
     <row r="23">
@@ -1171,22 +1171,22 @@
         <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3270787750864782</v>
+        <v>0.3466617578439278</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0823799484224754</v>
+        <v>0.1185422834466136</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2390189424945823</v>
+        <v>0.2692422519273621</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08088075030981964</v>
+        <v>0.1166902795489766</v>
       </c>
       <c r="I23" t="n">
-        <v>0.979921616914077</v>
+        <v>0.977664170361183</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01223826121314793</v>
+        <v>0.01521332991114806</v>
       </c>
     </row>
     <row r="24">
@@ -1203,22 +1203,22 @@
         <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3613449265281965</v>
+        <v>0.3058454824255841</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08605804896545645</v>
+        <v>0.05691965044413925</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2636960977699633</v>
+        <v>0.2300643601530566</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03803906110693862</v>
+        <v>0.04946889793034125</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9774899253535259</v>
+        <v>0.984178872698109</v>
       </c>
       <c r="J24" t="n">
-        <v>0.009570541888644493</v>
+        <v>0.004672133787832409</v>
       </c>
     </row>
     <row r="25">
@@ -1235,22 +1235,22 @@
         <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2873278029908169</v>
+        <v>0.3678144095474474</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03512932379595732</v>
+        <v>0.1830377646423425</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2140027337431781</v>
+        <v>0.2791958968016457</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04147139495047978</v>
+        <v>0.1482180258917475</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9854658471803706</v>
+        <v>0.9726526187914519</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005541181996652788</v>
+        <v>0.02778817460100839</v>
       </c>
     </row>
     <row r="26">
@@ -1267,22 +1267,22 @@
         <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3157805859263406</v>
+        <v>0.3457032043100204</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05521378190335591</v>
+        <v>0.04150482504614898</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2367240616026864</v>
+        <v>0.2740743470238772</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05092167825990956</v>
+        <v>0.05733920714363087</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9828085847335764</v>
+        <v>0.9789046951231588</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005261187586875321</v>
+        <v>0.007764044126330926</v>
       </c>
     </row>
     <row r="27">
@@ -1299,22 +1299,22 @@
         <v>60</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3535238492057645</v>
+        <v>0.3471845028522346</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1038042619433968</v>
+        <v>0.05626715556526283</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2720338058702883</v>
+        <v>0.2732014103383772</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1192491961171333</v>
+        <v>0.06590267233012943</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9763177760929322</v>
+        <v>0.9794920451453845</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0153264466387508</v>
+        <v>0.005100163461242965</v>
       </c>
     </row>
     <row r="28">
@@ -1331,22 +1331,22 @@
         <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3143204097320613</v>
+        <v>0.3355161416853489</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03934465225428925</v>
+        <v>0.1045469108132096</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2339993655965184</v>
+        <v>0.2569120095276242</v>
       </c>
       <c r="H28" t="n">
-        <v>0.030450659644536</v>
+        <v>0.1092929428019633</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9828016296040818</v>
+        <v>0.9801154197276499</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005503040756798579</v>
+        <v>0.01090959770884352</v>
       </c>
     </row>
     <row r="29">
@@ -1363,22 +1363,22 @@
         <v>80</v>
       </c>
       <c r="E29" t="n">
-        <v>0.371692282879905</v>
+        <v>0.3250192882226127</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05450453674565337</v>
+        <v>0.05836054165774385</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2957505042305022</v>
+        <v>0.2521880316013503</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04833169310799015</v>
+        <v>0.06505069851532719</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9763213407411945</v>
+        <v>0.9814929581589793</v>
       </c>
       <c r="J29" t="n">
-        <v>0.006205041070205608</v>
+        <v>0.006916208168803861</v>
       </c>
     </row>
     <row r="30">
@@ -1395,22 +1395,22 @@
         <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3323144623575139</v>
+        <v>0.3475694437337028</v>
       </c>
       <c r="F30" t="n">
-        <v>0.112650327410338</v>
+        <v>0.1235198695767454</v>
       </c>
       <c r="G30" t="n">
-        <v>0.254886613067027</v>
+        <v>0.2605079512881244</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1249859820909364</v>
+        <v>0.1078776129887096</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9799438451483194</v>
+        <v>0.9778410025145965</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01280029783444768</v>
+        <v>0.0158233590194992</v>
       </c>
     </row>
     <row r="31">
@@ -1427,22 +1427,22 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3714728755023553</v>
+        <v>0.3487035483541944</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1077608275707136</v>
+        <v>0.1220766952045882</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2815277223028879</v>
+        <v>0.2725743123600552</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1077364069417489</v>
+        <v>0.1262619211823165</v>
       </c>
       <c r="I31" t="n">
-        <v>0.973053530937676</v>
+        <v>0.9779465774674746</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01760634569070256</v>
+        <v>0.01534795763897828</v>
       </c>
     </row>
     <row r="32">
@@ -1459,22 +1459,22 @@
         <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3179836498657466</v>
+        <v>0.3114436246356318</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07015464660460816</v>
+        <v>0.06435294318317174</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2347677814059383</v>
+        <v>0.2414132095101659</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05742364101218782</v>
+        <v>0.05931323337411249</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9820719758886414</v>
+        <v>0.9833938231473285</v>
       </c>
       <c r="J32" t="n">
-        <v>0.007454965846121544</v>
+        <v>0.005961296135640468</v>
       </c>
     </row>
     <row r="33">
@@ -1491,22 +1491,22 @@
         <v>50</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3412369320496903</v>
+        <v>0.2942992464700575</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1116847914671038</v>
+        <v>0.02153682242462824</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2440644321374885</v>
+        <v>0.2192567003270973</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07515844473971336</v>
+        <v>0.03038187767543039</v>
       </c>
       <c r="I33" t="n">
-        <v>0.979472062390864</v>
+        <v>0.9854542562959441</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01182456721868144</v>
+        <v>0.0008112809585270999</v>
       </c>
     </row>
     <row r="34">
@@ -1523,22 +1523,22 @@
         <v>60</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3198930525846529</v>
+        <v>0.352173159380735</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04796082235803602</v>
+        <v>0.03708654808956748</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2420588804994975</v>
+        <v>0.2623839791680542</v>
       </c>
       <c r="H34" t="n">
-        <v>0.07059730870666361</v>
+        <v>0.04208999858931688</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9819327684896688</v>
+        <v>0.9788056635979366</v>
       </c>
       <c r="J34" t="n">
-        <v>0.006985679586437352</v>
+        <v>0.004663907961188184</v>
       </c>
     </row>
     <row r="35">
@@ -1555,22 +1555,22 @@
         <v>70</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3745757936563304</v>
+        <v>0.319609516722753</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1285758997544616</v>
+        <v>0.06411165815388345</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2948109251560441</v>
+        <v>0.2558093115075294</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1292915938865231</v>
+        <v>0.06708345288353298</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9713600662192491</v>
+        <v>0.9818626831151589</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02439035522461665</v>
+        <v>0.007233873998006728</v>
       </c>
     </row>
     <row r="36">
@@ -1587,22 +1587,22 @@
         <v>80</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3207623832376831</v>
+        <v>0.3177839568946649</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06479259463607302</v>
+        <v>0.04362236642202863</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2350685083491282</v>
+        <v>0.2401898310103629</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0669466390117559</v>
+        <v>0.04023995049720275</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9820361653379196</v>
+        <v>0.9829333573680934</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00717566893342378</v>
+        <v>0.003723342567655833</v>
       </c>
     </row>
     <row r="37">
@@ -1619,22 +1619,22 @@
         <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3073265859105069</v>
+        <v>0.2858716538252638</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05699730607990241</v>
+        <v>0.03275580109317625</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2233460680898176</v>
+        <v>0.2077455226705155</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05481386767503203</v>
+        <v>0.03475510244753913</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9830229018029122</v>
+        <v>0.9858418085338891</v>
       </c>
       <c r="J37" t="n">
-        <v>0.007920353966941884</v>
+        <v>0.003981643050506491</v>
       </c>
     </row>
     <row r="38">
@@ -1651,22 +1651,22 @@
         <v>30</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3833447850436124</v>
+        <v>0.5299655526537558</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07243243647167241</v>
+        <v>0.1446431439724151</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3124290167772422</v>
+        <v>0.4483390108688399</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07078258095868327</v>
+        <v>0.1439802356767456</v>
       </c>
       <c r="I38" t="n">
-        <v>0.974115820627774</v>
+        <v>0.9481951511821108</v>
       </c>
       <c r="J38" t="n">
-        <v>0.009859007386953923</v>
+        <v>0.02576875745800693</v>
       </c>
     </row>
     <row r="39">
@@ -1683,22 +1683,22 @@
         <v>40</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2966839853756039</v>
+        <v>0.3226991890326329</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06956151907553992</v>
+        <v>0.03835691360822694</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2143128383860487</v>
+        <v>0.2635006536852714</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06080752130545668</v>
+        <v>0.03404000797587133</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9848606522969729</v>
+        <v>0.982213842341394</v>
       </c>
       <c r="J39" t="n">
-        <v>0.005930331922657654</v>
+        <v>0.003911239641606375</v>
       </c>
     </row>
     <row r="40">
@@ -1715,22 +1715,22 @@
         <v>50</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3065920788936044</v>
+        <v>0.3399544041547118</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05303855762454209</v>
+        <v>0.04709671308083697</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2183116042085204</v>
+        <v>0.255942080042676</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04859405210783951</v>
+        <v>0.04520462035915308</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9833064773367608</v>
+        <v>0.9800392854164061</v>
       </c>
       <c r="J40" t="n">
-        <v>0.006261507612234935</v>
+        <v>0.005897110496697255</v>
       </c>
     </row>
     <row r="41">
@@ -1747,22 +1747,22 @@
         <v>60</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3128667074471855</v>
+        <v>0.3465807483390293</v>
       </c>
       <c r="F41" t="n">
-        <v>0.09108348834919698</v>
+        <v>0.03696941109840508</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2285886767703993</v>
+        <v>0.2782164396127971</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07193191947305254</v>
+        <v>0.03867715662786794</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9822051458574439</v>
+        <v>0.979165070068496</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01038003595104046</v>
+        <v>0.005772737370344021</v>
       </c>
     </row>
     <row r="42">
@@ -1779,22 +1779,22 @@
         <v>70</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3186308855521028</v>
+        <v>0.3465797727223016</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04433521886676218</v>
+        <v>0.08032826847629342</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2472677524999126</v>
+        <v>0.2656512659102879</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04854543158661106</v>
+        <v>0.06692967444392017</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9818910901103994</v>
+        <v>0.9790942848007116</v>
       </c>
       <c r="J42" t="n">
-        <v>0.006859840821486586</v>
+        <v>0.008532910796864595</v>
       </c>
     </row>
     <row r="43">
@@ -1811,22 +1811,22 @@
         <v>80</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3018424327155566</v>
+        <v>0.3834928987973822</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05011896236555426</v>
+        <v>0.08610703108462349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2262530588604243</v>
+        <v>0.2759280883755248</v>
       </c>
       <c r="H43" t="n">
-        <v>0.06277086785956741</v>
+        <v>0.06584184825228324</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9837527944586457</v>
+        <v>0.9745737675254725</v>
       </c>
       <c r="J43" t="n">
-        <v>0.006883954740975437</v>
+        <v>0.009265125061806294</v>
       </c>
     </row>
     <row r="44">
@@ -1843,22 +1843,22 @@
         <v>20</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3650327772309171</v>
+        <v>0.325350578300633</v>
       </c>
       <c r="F44" t="n">
-        <v>0.112825919241849</v>
+        <v>0.1272536845520144</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2995158434067374</v>
+        <v>0.2517971466677998</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1197091257298564</v>
+        <v>0.1306996461125116</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9744450879857391</v>
+        <v>0.9790756272499195</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01672015088608803</v>
+        <v>0.01907499740586329</v>
       </c>
     </row>
     <row r="45">
@@ -1875,22 +1875,22 @@
         <v>30</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3430828767286879</v>
+        <v>0.3133803351892488</v>
       </c>
       <c r="F45" t="n">
-        <v>0.110930770519002</v>
+        <v>0.0600655683844209</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2679834679972199</v>
+        <v>0.2378656593441424</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1157917739214152</v>
+        <v>0.05042014505196048</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9778415701392709</v>
+        <v>0.983298388425243</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01641805680052739</v>
+        <v>0.005140002324317904</v>
       </c>
     </row>
     <row r="46">
@@ -1907,22 +1907,22 @@
         <v>40</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3653599884877773</v>
+        <v>0.3649355951237431</v>
       </c>
       <c r="F46" t="n">
-        <v>0.110658897126075</v>
+        <v>0.07808204197622777</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2851655926976561</v>
+        <v>0.2805957179025721</v>
       </c>
       <c r="H46" t="n">
-        <v>0.09651756382753876</v>
+        <v>0.09487767961395586</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9750324286834353</v>
+        <v>0.9751003722424972</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0177322777601398</v>
+        <v>0.01305182495270541</v>
       </c>
     </row>
     <row r="47">
@@ -1939,22 +1939,22 @@
         <v>50</v>
       </c>
       <c r="E47" t="n">
-        <v>0.367377606461066</v>
+        <v>0.293249464362983</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0469721733573335</v>
+        <v>0.05009757355136627</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2840466785435116</v>
+        <v>0.2194630877550188</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06218199264618539</v>
+        <v>0.04378012885042122</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9763023704280464</v>
+        <v>0.985278093911042</v>
       </c>
       <c r="J47" t="n">
-        <v>0.008036596118891846</v>
+        <v>0.004741927943516008</v>
       </c>
     </row>
     <row r="48">
@@ -1971,22 +1971,22 @@
         <v>60</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3405037148188254</v>
+        <v>0.3503371975807595</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1595906385142134</v>
+        <v>0.04873947357207303</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2674530825601562</v>
+        <v>0.2717022757428962</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1585004236655277</v>
+        <v>0.03119525692248034</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9753878848865648</v>
+        <v>0.9793816497266306</v>
       </c>
       <c r="J48" t="n">
-        <v>0.02669332601939484</v>
+        <v>0.003617764701761838</v>
       </c>
     </row>
     <row r="49">
@@ -2003,22 +2003,22 @@
         <v>70</v>
       </c>
       <c r="E49" t="n">
-        <v>0.310236850787978</v>
+        <v>0.3197555136184452</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05485522331390819</v>
+        <v>0.05878638626605543</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2336977822412711</v>
+        <v>0.2424757281299735</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04093439941617646</v>
+        <v>0.06022420358634029</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9834064038626019</v>
+        <v>0.9819403557522224</v>
       </c>
       <c r="J49" t="n">
-        <v>0.005461897369033397</v>
+        <v>0.007126480974161765</v>
       </c>
     </row>
     <row r="50">
@@ -2035,22 +2035,22 @@
         <v>80</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3637189030338396</v>
+        <v>0.3196573946099166</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08994258051831455</v>
+        <v>0.05989458434965972</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2817927564472458</v>
+        <v>0.241767129038592</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09246400620617252</v>
+        <v>0.05618745330026286</v>
       </c>
       <c r="I50" t="n">
-        <v>0.976044712504345</v>
+        <v>0.9821546455408103</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01207407423944796</v>
+        <v>0.005981424107492319</v>
       </c>
     </row>
     <row r="51">
@@ -2067,22 +2067,22 @@
         <v>20</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2934334507745427</v>
+        <v>0.3223349648396248</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05965933160679913</v>
+        <v>0.09084058457582245</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2199987383071561</v>
+        <v>0.2472008815585156</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0647692400092751</v>
+        <v>0.08227580719989595</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9854689020212855</v>
+        <v>0.9815255404119047</v>
       </c>
       <c r="J51" t="n">
-        <v>0.004297820425905743</v>
+        <v>0.009736907725794998</v>
       </c>
     </row>
     <row r="52">
@@ -2099,22 +2099,22 @@
         <v>30</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3477941620218686</v>
+        <v>0.3556884901383237</v>
       </c>
       <c r="F52" t="n">
-        <v>0.06232852854464541</v>
+        <v>0.06364546867188389</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2712779407423945</v>
+        <v>0.2675872555888713</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08295068462106225</v>
+        <v>0.05246081052760249</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9778900270249162</v>
+        <v>0.9776887942328918</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0103242028665467</v>
+        <v>0.009629296095302851</v>
       </c>
     </row>
     <row r="53">
@@ -2131,22 +2131,22 @@
         <v>40</v>
       </c>
       <c r="E53" t="n">
-        <v>0.352625707619148</v>
+        <v>0.3467265388632522</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08869426283387916</v>
+        <v>0.0979930419825875</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2792529874333457</v>
+        <v>0.2754152476057685</v>
       </c>
       <c r="H53" t="n">
-        <v>0.09370760282677153</v>
+        <v>0.1066524739751238</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9769058104272705</v>
+        <v>0.9783825702089162</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01410417576090783</v>
+        <v>0.01172667329772696</v>
       </c>
     </row>
     <row r="54">
@@ -2163,22 +2163,22 @@
         <v>50</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3046478249750807</v>
+        <v>0.2899777063381784</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04775329501151204</v>
+        <v>0.01880037376205269</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2355651807229237</v>
+        <v>0.2110351135641458</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0597731846559111</v>
+        <v>0.01864127884924327</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9842511394130702</v>
+        <v>0.9857091064554862</v>
       </c>
       <c r="J54" t="n">
-        <v>0.003852755304912409</v>
+        <v>0.002232555683511154</v>
       </c>
     </row>
     <row r="55">
@@ -2195,22 +2195,22 @@
         <v>60</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3005843060005787</v>
+        <v>0.3102061259103367</v>
       </c>
       <c r="F55" t="n">
-        <v>0.08562645327488823</v>
+        <v>0.05538319678026399</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2289019593524976</v>
+        <v>0.2251000847101437</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08643823449916721</v>
+        <v>0.04347299422221682</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9840800918534161</v>
+        <v>0.9821784551884223</v>
       </c>
       <c r="J55" t="n">
-        <v>0.008161775093499348</v>
+        <v>0.009958499866374149</v>
       </c>
     </row>
     <row r="56">
@@ -2227,22 +2227,22 @@
         <v>70</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3478602377713931</v>
+        <v>0.4620022176251363</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0970403746908199</v>
+        <v>0.1460665672173871</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2650664121659944</v>
+        <v>0.3751909628881258</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1040803710584869</v>
+        <v>0.1193283613335917</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9774593777773768</v>
+        <v>0.9609622673201225</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01345838758235168</v>
+        <v>0.02326446076599778</v>
       </c>
     </row>
     <row r="57">
@@ -2259,22 +2259,22 @@
         <v>80</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3149750985252095</v>
+        <v>0.3285504111749488</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08631505717882658</v>
+        <v>0.1006951731536285</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2181571572131589</v>
+        <v>0.2596867366557793</v>
       </c>
       <c r="H57" t="n">
-        <v>0.06798234552369668</v>
+        <v>0.09310027899130963</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9823834174293482</v>
+        <v>0.9806823974585785</v>
       </c>
       <c r="J57" t="n">
-        <v>0.009352506320532373</v>
+        <v>0.01184045914814547</v>
       </c>
     </row>
     <row r="58">
@@ -2291,22 +2291,22 @@
         <v>20</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4157685063726229</v>
+        <v>0.3838613393841006</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1379431018335849</v>
+        <v>0.1432091277602325</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3477970540624175</v>
+        <v>0.3040876416904313</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1388203209421309</v>
+        <v>0.1290731748584138</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9684002528215192</v>
+        <v>0.9720262022706727</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0170049492043003</v>
+        <v>0.01955380781411779</v>
       </c>
     </row>
     <row r="59">
@@ -2323,22 +2323,22 @@
         <v>30</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2883771435583372</v>
+        <v>0.2840970916664481</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04050523851595036</v>
+        <v>0.03980317495177191</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2110871526931682</v>
+        <v>0.2069452771948243</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0392574123741738</v>
+        <v>0.04195421669418747</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9860726605995616</v>
+        <v>0.9855242827242204</v>
       </c>
       <c r="J59" t="n">
-        <v>0.002308827519776685</v>
+        <v>0.006651825063425629</v>
       </c>
     </row>
     <row r="60">
@@ -2355,22 +2355,22 @@
         <v>40</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3480305329920197</v>
+        <v>0.3203886282352426</v>
       </c>
       <c r="F60" t="n">
-        <v>0.08021076759563144</v>
+        <v>0.06369613070322186</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2625140747773489</v>
+        <v>0.2379793239041446</v>
       </c>
       <c r="H60" t="n">
-        <v>0.07418209835945301</v>
+        <v>0.05451791291694195</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9788696680980011</v>
+        <v>0.9818708487501974</v>
       </c>
       <c r="J60" t="n">
-        <v>0.008440832630919569</v>
+        <v>0.008083480547656164</v>
       </c>
     </row>
     <row r="61">
@@ -2387,22 +2387,22 @@
         <v>50</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3700603301468749</v>
+        <v>0.3729365907441106</v>
       </c>
       <c r="F61" t="n">
-        <v>0.08656792517814461</v>
+        <v>0.08734848776053032</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2913067433486979</v>
+        <v>0.2930849159608147</v>
       </c>
       <c r="H61" t="n">
-        <v>0.07599657251506652</v>
+        <v>0.08256643137363545</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9753598096179873</v>
+        <v>0.9755286582676927</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0117716963972505</v>
+        <v>0.01016747992129008</v>
       </c>
     </row>
     <row r="62">
@@ -2419,22 +2419,22 @@
         <v>60</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2855727412592383</v>
+        <v>0.2627469314346582</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0373405651738818</v>
+        <v>0.01657645957729947</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2057548440846142</v>
+        <v>0.1904970016365721</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0372051189520695</v>
+        <v>0.02073477654495753</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9858858385425823</v>
+        <v>0.9881539241338715</v>
       </c>
       <c r="J62" t="n">
-        <v>0.004167781315207895</v>
+        <v>0.002437013227429361</v>
       </c>
     </row>
     <row r="63">
@@ -2451,22 +2451,22 @@
         <v>70</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3078242405090539</v>
+        <v>0.3325900612302406</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0525866006982873</v>
+        <v>0.1424072164822185</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2359937751040459</v>
+        <v>0.2491846927314909</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0550521252522846</v>
+        <v>0.1249257471775632</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9825713234999102</v>
+        <v>0.9787407816829482</v>
       </c>
       <c r="J63" t="n">
-        <v>0.009196705825963644</v>
+        <v>0.01879004551837008</v>
       </c>
     </row>
     <row r="64">
@@ -2483,22 +2483,22 @@
         <v>80</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2771320880769769</v>
+        <v>0.3057055972929107</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04442031390534663</v>
+        <v>0.04137880257934329</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2032597299921532</v>
+        <v>0.2204030319848978</v>
       </c>
       <c r="H64" t="n">
-        <v>0.03555024708792266</v>
+        <v>0.03389950673397055</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9870558646694192</v>
+        <v>0.9835323659310189</v>
       </c>
       <c r="J64" t="n">
-        <v>0.003000315911769292</v>
+        <v>0.005443422257012198</v>
       </c>
     </row>
     <row r="65">
@@ -2515,22 +2515,22 @@
         <v>20</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3408637225103048</v>
+        <v>0.3416321279507422</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04887478768974268</v>
+        <v>0.07590818112681655</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2578957499596947</v>
+        <v>0.273451502560621</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04759134205714893</v>
+        <v>0.08248770039782238</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9802710450201509</v>
+        <v>0.9787879698414276</v>
       </c>
       <c r="J65" t="n">
-        <v>0.004993745472330053</v>
+        <v>0.01032291237900546</v>
       </c>
     </row>
     <row r="66">
@@ -2547,22 +2547,22 @@
         <v>30</v>
       </c>
       <c r="E66" t="n">
-        <v>0.307946090032343</v>
+        <v>0.3941845873399947</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04594415852066518</v>
+        <v>0.1211087054333325</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2320398048557238</v>
+        <v>0.3171012743171476</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04944139553729573</v>
+        <v>0.1208867836396965</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9838363092034108</v>
+        <v>0.9731180351827302</v>
       </c>
       <c r="J66" t="n">
-        <v>0.004169953246677641</v>
+        <v>0.01321349868583226</v>
       </c>
     </row>
     <row r="67">
@@ -2579,22 +2579,22 @@
         <v>40</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3070903135569559</v>
+        <v>0.3134982448701464</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01906218628271396</v>
+        <v>0.03697399141227692</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2340404033321571</v>
+        <v>0.2235363713041324</v>
       </c>
       <c r="H67" t="n">
-        <v>0.01262413932795572</v>
+        <v>0.02912049387193527</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9837568791526697</v>
+        <v>0.9833789474657474</v>
       </c>
       <c r="J67" t="n">
-        <v>0.003940413194705054</v>
+        <v>0.003155887010197321</v>
       </c>
     </row>
     <row r="68">
@@ -2611,22 +2611,22 @@
         <v>50</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2975294093206878</v>
+        <v>0.3667536500785018</v>
       </c>
       <c r="F68" t="n">
-        <v>0.03545238403454027</v>
+        <v>0.1154622599073277</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2164056747585001</v>
+        <v>0.3122217972826491</v>
       </c>
       <c r="H68" t="n">
-        <v>0.03396793982328726</v>
+        <v>0.1309179814601723</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9851073851000063</v>
+        <v>0.9746326148074212</v>
       </c>
       <c r="J68" t="n">
-        <v>0.002337600442199116</v>
+        <v>0.01552764960159053</v>
       </c>
     </row>
     <row r="69">
@@ -2643,22 +2643,22 @@
         <v>60</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3448091751895874</v>
+        <v>0.3497688041640089</v>
       </c>
       <c r="F69" t="n">
-        <v>0.08175475302186257</v>
+        <v>0.085220226132438</v>
       </c>
       <c r="G69" t="n">
-        <v>0.275780647760292</v>
+        <v>0.2505234960756474</v>
       </c>
       <c r="H69" t="n">
-        <v>0.08911370404567982</v>
+        <v>0.06783157831343062</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9783150163139803</v>
+        <v>0.9785296739613013</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0111447465377174</v>
+        <v>0.009209540692196387</v>
       </c>
     </row>
     <row r="70">
@@ -2675,22 +2675,22 @@
         <v>70</v>
       </c>
       <c r="E70" t="n">
-        <v>0.261690673467425</v>
+        <v>0.2974792980196296</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02989886668868187</v>
+        <v>0.03649200515667717</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1832710001692701</v>
+        <v>0.2243473548523323</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02688373880256725</v>
+        <v>0.03049160204826961</v>
       </c>
       <c r="I70" t="n">
-        <v>0.988418655810035</v>
+        <v>0.9850806865330345</v>
       </c>
       <c r="J70" t="n">
-        <v>0.001939583711825965</v>
+        <v>0.002735075438429538</v>
       </c>
     </row>
     <row r="71">
@@ -2707,22 +2707,22 @@
         <v>80</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3986051495707326</v>
+        <v>0.3584103340894257</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2225310213950745</v>
+        <v>0.06245905086500231</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2956886138847943</v>
+        <v>0.2816157001575461</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1628854677611416</v>
+        <v>0.06635339303956438</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9673218484814197</v>
+        <v>0.9781144532409554</v>
       </c>
       <c r="J71" t="n">
-        <v>0.03531770849854032</v>
+        <v>0.006081407938983772</v>
       </c>
     </row>
     <row r="72">
@@ -2739,22 +2739,22 @@
         <v>20</v>
       </c>
       <c r="E72" t="n">
-        <v>0.305121306192824</v>
+        <v>0.3157178037821955</v>
       </c>
       <c r="F72" t="n">
-        <v>0.03189984938473146</v>
+        <v>0.07888683262078709</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2250417480606265</v>
+        <v>0.2546520606283715</v>
       </c>
       <c r="H72" t="n">
-        <v>0.02441280847341085</v>
+        <v>0.08762400037534936</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9840353030965628</v>
+        <v>0.9821081206179691</v>
       </c>
       <c r="J72" t="n">
-        <v>0.003361577444164684</v>
+        <v>0.01012073258590964</v>
       </c>
     </row>
     <row r="73">
@@ -2771,22 +2771,22 @@
         <v>30</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3234988916681972</v>
+        <v>0.2837098484084196</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07813333881213418</v>
+        <v>0.01309204120690279</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2459761157332541</v>
+        <v>0.208311330408423</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0815992383582432</v>
+        <v>0.0248293803856168</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9818318486846767</v>
+        <v>0.9861382980579327</v>
       </c>
       <c r="J73" t="n">
-        <v>0.007560797259821037</v>
+        <v>0.003058924362125737</v>
       </c>
     </row>
     <row r="74">
@@ -2803,22 +2803,22 @@
         <v>40</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4217316371006218</v>
+        <v>0.3306221533203674</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1230939657880595</v>
+        <v>0.04237348467767834</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3324240689501798</v>
+        <v>0.252056180639634</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1096209114721501</v>
+        <v>0.04866984902677942</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9688530838345457</v>
+        <v>0.9816966791865788</v>
       </c>
       <c r="J74" t="n">
-        <v>0.01552713891469437</v>
+        <v>0.00261357846501082</v>
       </c>
     </row>
     <row r="75">
@@ -2835,22 +2835,22 @@
         <v>50</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3715837245498711</v>
+        <v>0.2799178671504191</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07858010423994857</v>
+        <v>0.05466800085466817</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2958688273838297</v>
+        <v>0.199435696995013</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07563111895964868</v>
+        <v>0.04595122081106046</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9764276655669717</v>
+        <v>0.9867716475524025</v>
       </c>
       <c r="J75" t="n">
-        <v>0.008106157659019009</v>
+        <v>0.003950495525149445</v>
       </c>
     </row>
     <row r="76">
@@ -2867,22 +2867,22 @@
         <v>60</v>
       </c>
       <c r="E76" t="n">
-        <v>0.268988722155895</v>
+        <v>0.3879490308697378</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02973316356249796</v>
+        <v>0.07700924934707705</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2006609727099339</v>
+        <v>0.2919721490132056</v>
       </c>
       <c r="H76" t="n">
-        <v>0.02600087178865768</v>
+        <v>0.0707011398275951</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9873650796906721</v>
+        <v>0.9731617624042259</v>
       </c>
       <c r="J76" t="n">
-        <v>0.004000896444720919</v>
+        <v>0.01168161420958592</v>
       </c>
     </row>
     <row r="77">
@@ -2899,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3409229256197134</v>
+        <v>0.3018168360994374</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04221331060628452</v>
+        <v>0.0320866324347849</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2525184024521449</v>
+        <v>0.2179588668000399</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0278941146456997</v>
+        <v>0.0310084865998704</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9804958471912247</v>
+        <v>0.9842149114832595</v>
       </c>
       <c r="J77" t="n">
-        <v>0.002968504828220825</v>
+        <v>0.004004599537778508</v>
       </c>
     </row>
     <row r="78">
@@ -2931,22 +2931,22 @@
         <v>80</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3245540925050747</v>
+        <v>0.32883200989372</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06567966410609781</v>
+        <v>0.05789946399707917</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2525780479135081</v>
+        <v>0.2564820498640744</v>
       </c>
       <c r="H78" t="n">
-        <v>0.07547397351547289</v>
+        <v>0.06016242230855583</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9820696942154445</v>
+        <v>0.9815238120187686</v>
       </c>
       <c r="J78" t="n">
-        <v>0.006025010182722444</v>
+        <v>0.00537423490606949</v>
       </c>
     </row>
     <row r="79">
@@ -2963,22 +2963,22 @@
         <v>20</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3205656466791775</v>
+        <v>0.3116161979249399</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08412195011644422</v>
+        <v>0.06250107372440933</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2451123821862144</v>
+        <v>0.2439975019321274</v>
       </c>
       <c r="H79" t="n">
-        <v>0.08834149827345124</v>
+        <v>0.05288288146296076</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9818249796958295</v>
+        <v>0.9835756049982217</v>
       </c>
       <c r="J79" t="n">
-        <v>0.009111568943954885</v>
+        <v>0.004770175065873716</v>
       </c>
     </row>
     <row r="80">
@@ -2995,22 +2995,22 @@
         <v>30</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3615112172716394</v>
+        <v>0.3158425651091126</v>
       </c>
       <c r="F80" t="n">
-        <v>0.05674793994365688</v>
+        <v>0.0800497952051096</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2831944877918088</v>
+        <v>0.2346871308711186</v>
       </c>
       <c r="H80" t="n">
-        <v>0.05187003939355158</v>
+        <v>0.09041560012955545</v>
       </c>
       <c r="I80" t="n">
-        <v>0.977546869372499</v>
+        <v>0.9824521470702543</v>
       </c>
       <c r="J80" t="n">
-        <v>0.006166245945515315</v>
+        <v>0.008398524909136791</v>
       </c>
     </row>
     <row r="81">
@@ -3027,22 +3027,22 @@
         <v>40</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2780264839011419</v>
+        <v>0.3047236618928505</v>
       </c>
       <c r="F81" t="n">
-        <v>0.03886125530336034</v>
+        <v>0.04318546027296679</v>
       </c>
       <c r="G81" t="n">
-        <v>0.207534694744474</v>
+        <v>0.2387556170479162</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03982397670377386</v>
+        <v>0.04837987489729378</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9869052873553675</v>
+        <v>0.9843315334079449</v>
       </c>
       <c r="J81" t="n">
-        <v>0.002806592845374632</v>
+        <v>0.003262640867144186</v>
       </c>
     </row>
     <row r="82">
@@ -3059,22 +3059,22 @@
         <v>50</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3212087210652372</v>
+        <v>0.2775977863833048</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07586475504758121</v>
+        <v>0.03664986522816253</v>
       </c>
       <c r="G82" t="n">
-        <v>0.229265704060733</v>
+        <v>0.2077325068172288</v>
       </c>
       <c r="H82" t="n">
-        <v>0.05401642248676408</v>
+        <v>0.02975249976735068</v>
       </c>
       <c r="I82" t="n">
-        <v>0.982218597941384</v>
+        <v>0.9868532110181729</v>
       </c>
       <c r="J82" t="n">
-        <v>0.007608395632496787</v>
+        <v>0.003095782873498548</v>
       </c>
     </row>
     <row r="83">
@@ -3091,22 +3091,22 @@
         <v>60</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2885172061245888</v>
+        <v>0.3272143766606408</v>
       </c>
       <c r="F83" t="n">
-        <v>0.05143871063778693</v>
+        <v>0.06148282110653906</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2131449746576815</v>
+        <v>0.2635796969319301</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0625755509079071</v>
+        <v>0.07278893302847186</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9859656494769903</v>
+        <v>0.9802366062721669</v>
       </c>
       <c r="J83" t="n">
-        <v>0.003629362049282027</v>
+        <v>0.01079351229245287</v>
       </c>
     </row>
     <row r="84">
@@ -3123,22 +3123,22 @@
         <v>70</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2775078808990465</v>
+        <v>0.266254586657104</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03052373680328781</v>
+        <v>0.01259185448333452</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2012628269430207</v>
+        <v>0.1812445502858544</v>
       </c>
       <c r="H84" t="n">
-        <v>0.02547393487706964</v>
+        <v>0.01406879989338154</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9870948332648597</v>
+        <v>0.9877902990604628</v>
       </c>
       <c r="J84" t="n">
-        <v>0.00151414118604416</v>
+        <v>0.002696306909373153</v>
       </c>
     </row>
     <row r="85">
@@ -3155,22 +3155,22 @@
         <v>80</v>
       </c>
       <c r="E85" t="n">
-        <v>0.285182607741747</v>
+        <v>0.358035101090927</v>
       </c>
       <c r="F85" t="n">
-        <v>0.04792110014980459</v>
+        <v>0.03620290831485073</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1994880324983148</v>
+        <v>0.2755742258805275</v>
       </c>
       <c r="H85" t="n">
-        <v>0.02730613164594073</v>
+        <v>0.04688183129206732</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9861014422479408</v>
+        <v>0.9774071571962543</v>
       </c>
       <c r="J85" t="n">
-        <v>0.003981452528106447</v>
+        <v>0.007903705750936289</v>
       </c>
     </row>
     <row r="86">
@@ -3187,22 +3187,22 @@
         <v>20</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3112691596105907</v>
+        <v>0.3125201966507618</v>
       </c>
       <c r="F86" t="n">
-        <v>0.05893705641479585</v>
+        <v>0.04694952679368226</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2229129358133681</v>
+        <v>0.2293696604584559</v>
       </c>
       <c r="H86" t="n">
-        <v>0.04889759048560836</v>
+        <v>0.0427741294746749</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9832045293112625</v>
+        <v>0.983633166996578</v>
       </c>
       <c r="J86" t="n">
-        <v>0.005983744902991741</v>
+        <v>0.003034838974802243</v>
       </c>
     </row>
     <row r="87">
@@ -3219,22 +3219,22 @@
         <v>30</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3634579821718775</v>
+        <v>0.3362481475736702</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1249652943545108</v>
+        <v>0.08599353823932833</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2726899496370445</v>
+        <v>0.2668865090443978</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1006317682371989</v>
+        <v>0.08709549083284572</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9762381953971435</v>
+        <v>0.9801633237616298</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01573593111259604</v>
+        <v>0.00993346689538854</v>
       </c>
     </row>
     <row r="88">
@@ -3251,22 +3251,22 @@
         <v>40</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3554603783233753</v>
+        <v>0.2765256175949808</v>
       </c>
       <c r="F88" t="n">
-        <v>0.02192297963785941</v>
+        <v>0.0217816710726881</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2836093622395</v>
+        <v>0.2080253380847911</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0194746499460828</v>
+        <v>0.01640996138031869</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9786441791512338</v>
+        <v>0.9868926372060438</v>
       </c>
       <c r="J88" t="n">
-        <v>0.002349924813437988</v>
+        <v>0.002882645880130662</v>
       </c>
     </row>
     <row r="89">
@@ -3283,22 +3283,22 @@
         <v>50</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2909174211152677</v>
+        <v>0.30643330407119</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03313687708445214</v>
+        <v>0.06744147857019483</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2143625802090927</v>
+        <v>0.2354604352019417</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0257178487671734</v>
+        <v>0.06569040383217907</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9855067488949677</v>
+        <v>0.983769295675673</v>
       </c>
       <c r="J89" t="n">
-        <v>0.003338802970474193</v>
+        <v>0.006060555467465751</v>
       </c>
     </row>
     <row r="90">
@@ -3315,22 +3315,22 @@
         <v>60</v>
       </c>
       <c r="E90" t="n">
-        <v>0.316509184931269</v>
+        <v>0.3566457534650538</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04921601931872403</v>
+        <v>0.0861793606602291</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2299556189266613</v>
+        <v>0.276059994992335</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0554777068206817</v>
+        <v>0.08376881868262635</v>
       </c>
       <c r="I90" t="n">
-        <v>0.98316517113055</v>
+        <v>0.9777659674621451</v>
       </c>
       <c r="J90" t="n">
-        <v>0.003517414855654049</v>
+        <v>0.009074617356905694</v>
       </c>
     </row>
     <row r="91">
@@ -3347,22 +3347,22 @@
         <v>70</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3812836300642098</v>
+        <v>0.3589204066007127</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1260218609348285</v>
+        <v>0.1240267035243499</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3020028360000535</v>
+        <v>0.27913192928299</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1155040349147753</v>
+        <v>0.1202685478193013</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9737755586494522</v>
+        <v>0.976144697701477</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01496470351661381</v>
+        <v>0.01650082548331512</v>
       </c>
     </row>
     <row r="92">
@@ -3379,22 +3379,22 @@
         <v>80</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3375668521506865</v>
+        <v>0.3693807987671204</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1311792593627026</v>
+        <v>0.06353140503730148</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2653151684238839</v>
+        <v>0.2996403521873737</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1395276590302093</v>
+        <v>0.08612871050793304</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9788615734094318</v>
+        <v>0.9752137684702618</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01573529272560419</v>
+        <v>0.01185521186094882</v>
       </c>
     </row>
     <row r="93">
@@ -3411,22 +3411,22 @@
         <v>20</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2970367585771259</v>
+        <v>0.2909339802870795</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0626403990869448</v>
+        <v>0.04409270624741506</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2120303986895565</v>
+        <v>0.2154205126194367</v>
       </c>
       <c r="H93" t="n">
-        <v>0.05433157909241731</v>
+        <v>0.03705565661642693</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9845998508713529</v>
+        <v>0.9857981209422031</v>
       </c>
       <c r="J93" t="n">
-        <v>0.006144357139346242</v>
+        <v>0.002649113098931607</v>
       </c>
     </row>
     <row r="94">
@@ -3443,22 +3443,22 @@
         <v>30</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3361013806635672</v>
+        <v>0.2753639313724143</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1002712132339545</v>
+        <v>0.04536058842426114</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2679739941452268</v>
+        <v>0.1944137986269723</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1119820264631105</v>
+        <v>0.03395695654862204</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9798534555158891</v>
+        <v>0.9870801794218694</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01202157966999525</v>
+        <v>0.003521410980248905</v>
       </c>
     </row>
     <row r="95">
@@ -3475,22 +3475,22 @@
         <v>40</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4030203592652234</v>
+        <v>0.3041259398586423</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07701514476391262</v>
+        <v>0.04809974731269311</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3307812917277475</v>
+        <v>0.2260516258502135</v>
       </c>
       <c r="H95" t="n">
-        <v>0.08069774006919997</v>
+        <v>0.05426974733247474</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9703287620875098</v>
+        <v>0.983433438993281</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01467048672892797</v>
+        <v>0.007579327522778564</v>
       </c>
     </row>
     <row r="96">
@@ -3507,22 +3507,22 @@
         <v>50</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2969224596184068</v>
+        <v>0.4178065413529423</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04079895823159092</v>
+        <v>0.1384378883939825</v>
       </c>
       <c r="G96" t="n">
-        <v>0.2324182739032618</v>
+        <v>0.3394537774597576</v>
       </c>
       <c r="H96" t="n">
-        <v>0.03987169584811216</v>
+        <v>0.1471641901974955</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9851502895052656</v>
+        <v>0.968985502288265</v>
       </c>
       <c r="J96" t="n">
-        <v>0.002859095035129379</v>
+        <v>0.01955003467163898</v>
       </c>
     </row>
     <row r="97">
@@ -3539,22 +3539,22 @@
         <v>60</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3033379478392543</v>
+        <v>0.3762146670766704</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03099085564851122</v>
+        <v>0.07808200113777203</v>
       </c>
       <c r="G97" t="n">
-        <v>0.2282346689676553</v>
+        <v>0.3034269898167186</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03413960427459701</v>
+        <v>0.0871445257630911</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9839312548084888</v>
+        <v>0.9744868412974794</v>
       </c>
       <c r="J97" t="n">
-        <v>0.004693267055790045</v>
+        <v>0.01077003168790584</v>
       </c>
     </row>
     <row r="98">
@@ -3571,22 +3571,22 @@
         <v>70</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2893829527050564</v>
+        <v>0.3517197766966745</v>
       </c>
       <c r="F98" t="n">
-        <v>0.05325070532754859</v>
+        <v>0.1009568536606705</v>
       </c>
       <c r="G98" t="n">
-        <v>0.2173629266625756</v>
+        <v>0.25712875808804</v>
       </c>
       <c r="H98" t="n">
-        <v>0.05224354831114466</v>
+        <v>0.1000594328156331</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9857631973535078</v>
+        <v>0.9784611090938803</v>
       </c>
       <c r="J98" t="n">
-        <v>0.004271835253906834</v>
+        <v>0.01126662433614406</v>
       </c>
     </row>
     <row r="99">
@@ -3603,22 +3603,22 @@
         <v>80</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2956303658265359</v>
+        <v>0.389023338954644</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02206256046261355</v>
+        <v>0.128538851088092</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2268017407568975</v>
+        <v>0.316758401065348</v>
       </c>
       <c r="H99" t="n">
-        <v>0.03060070040348474</v>
+        <v>0.1299983150865928</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9848901376834419</v>
+        <v>0.9690295556467763</v>
       </c>
       <c r="J99" t="n">
-        <v>0.003905841743034029</v>
+        <v>0.02693381462621229</v>
       </c>
     </row>
     <row r="100">
@@ -3635,22 +3635,22 @@
         <v>20</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2857692068635783</v>
+        <v>0.3371740822420811</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07724467593334927</v>
+        <v>0.0810302699003044</v>
       </c>
       <c r="G100" t="n">
-        <v>0.2018194332636918</v>
+        <v>0.2626000603027632</v>
       </c>
       <c r="H100" t="n">
-        <v>0.07337597808346186</v>
+        <v>0.06954203727075338</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9859205633716732</v>
+        <v>0.9803602405184625</v>
       </c>
       <c r="J100" t="n">
-        <v>0.006629415158447502</v>
+        <v>0.008123693567747765</v>
       </c>
     </row>
     <row r="101">
@@ -3667,22 +3667,22 @@
         <v>30</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2780681065808097</v>
+        <v>0.2743613386814329</v>
       </c>
       <c r="F101" t="n">
-        <v>0.03518542888939778</v>
+        <v>0.04225491626070809</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1963578343600876</v>
+        <v>0.1945358556571475</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0366434417814303</v>
+        <v>0.03917868265391069</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9867425706336164</v>
+        <v>0.986982660511327</v>
       </c>
       <c r="J101" t="n">
-        <v>0.003673684593753626</v>
+        <v>0.004337647858886978</v>
       </c>
     </row>
     <row r="102">
@@ -3699,22 +3699,22 @@
         <v>40</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3342144348865738</v>
+        <v>0.3232985700630242</v>
       </c>
       <c r="F102" t="n">
-        <v>0.07734178768625671</v>
+        <v>0.05234842399922143</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2518759691629932</v>
+        <v>0.2517032739850639</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0724997086087517</v>
+        <v>0.05785035824847055</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9806402272754637</v>
+        <v>0.982117752049928</v>
       </c>
       <c r="J102" t="n">
-        <v>0.007647891754142653</v>
+        <v>0.005199630390236004</v>
       </c>
     </row>
     <row r="103">
@@ -3731,22 +3731,22 @@
         <v>50</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2720097530289662</v>
+        <v>0.3502104036364116</v>
       </c>
       <c r="F103" t="n">
-        <v>0.03180721092139605</v>
+        <v>0.08203366047291386</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1965520656863558</v>
+        <v>0.2792135704027008</v>
       </c>
       <c r="H103" t="n">
-        <v>0.02972427239311764</v>
+        <v>0.07228580504823678</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9875764829029301</v>
+        <v>0.9785783462857619</v>
       </c>
       <c r="J103" t="n">
-        <v>0.001756623512280312</v>
+        <v>0.008295345465863019</v>
       </c>
     </row>
     <row r="104">
@@ -3763,22 +3763,22 @@
         <v>60</v>
       </c>
       <c r="E104" t="n">
-        <v>0.344350033753611</v>
+        <v>0.3348671519229119</v>
       </c>
       <c r="F104" t="n">
-        <v>0.04830952618149888</v>
+        <v>0.06311289667652739</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2575290395156064</v>
+        <v>0.2542757802571989</v>
       </c>
       <c r="H104" t="n">
-        <v>0.07309411999793344</v>
+        <v>0.05910311543352618</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9791330527015367</v>
+        <v>0.9802343872115514</v>
       </c>
       <c r="J104" t="n">
-        <v>0.006880262451376434</v>
+        <v>0.007433207419685693</v>
       </c>
     </row>
     <row r="105">
@@ -3795,22 +3795,22 @@
         <v>70</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3384219397609469</v>
+        <v>0.3146135578589624</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0753691616362257</v>
+        <v>0.0894363125233623</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2612605484385826</v>
+        <v>0.216836033208943</v>
       </c>
       <c r="H105" t="n">
-        <v>0.08682311255551917</v>
+        <v>0.0613190523851898</v>
       </c>
       <c r="I105" t="n">
-        <v>0.978936390128025</v>
+        <v>0.9828000571681667</v>
       </c>
       <c r="J105" t="n">
-        <v>0.01175955588266403</v>
+        <v>0.00829942448814858</v>
       </c>
     </row>
     <row r="106">
@@ -3827,22 +3827,22 @@
         <v>80</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4336444013449116</v>
+        <v>0.3505013505318246</v>
       </c>
       <c r="F106" t="n">
-        <v>0.2235890725541636</v>
+        <v>0.06530033699913801</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3675635178482847</v>
+        <v>0.2717275401757884</v>
       </c>
       <c r="H106" t="n">
-        <v>0.2221445591750008</v>
+        <v>0.04503124261517887</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9617720899009669</v>
+        <v>0.9792339479202008</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03717906124236963</v>
+        <v>0.006055363138449258</v>
       </c>
     </row>
     <row r="107">
@@ -3859,22 +3859,22 @@
         <v>20</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3416448927145625</v>
+        <v>0.3175541034901307</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0650718007769512</v>
+        <v>0.05820171456245785</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2638429305860199</v>
+        <v>0.2428078963670613</v>
       </c>
       <c r="H107" t="n">
-        <v>0.07113138470623508</v>
+        <v>0.0752075782325573</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9796684960580423</v>
+        <v>0.9826191523801807</v>
       </c>
       <c r="J107" t="n">
-        <v>0.00729343049225699</v>
+        <v>0.005656914019862568</v>
       </c>
     </row>
     <row r="108">
@@ -3891,22 +3891,22 @@
         <v>30</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3646251457243133</v>
+        <v>0.385857339632197</v>
       </c>
       <c r="F108" t="n">
-        <v>0.08758744329475915</v>
+        <v>0.2028438081206064</v>
       </c>
       <c r="G108" t="n">
-        <v>0.3039579866891309</v>
+        <v>0.3045539518223491</v>
       </c>
       <c r="H108" t="n">
-        <v>0.08629726841053455</v>
+        <v>0.2049362841080067</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9772570033016093</v>
+        <v>0.9666860390130706</v>
       </c>
       <c r="J108" t="n">
-        <v>0.008694458596759623</v>
+        <v>0.039143623089473</v>
       </c>
     </row>
     <row r="109">
@@ -3923,22 +3923,22 @@
         <v>40</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3555364255924727</v>
+        <v>0.287510192545002</v>
       </c>
       <c r="F109" t="n">
-        <v>0.07725897212637492</v>
+        <v>0.01007048248769929</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2704380015113613</v>
+        <v>0.2070217871429107</v>
       </c>
       <c r="H109" t="n">
-        <v>0.07211479084415252</v>
+        <v>0.009920119001159673</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9778657032528171</v>
+        <v>0.985977923822308</v>
       </c>
       <c r="J109" t="n">
-        <v>0.008448567945922449</v>
+        <v>0.001698179193326485</v>
       </c>
     </row>
     <row r="110">
@@ -3955,22 +3955,22 @@
         <v>50</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3304358514675731</v>
+        <v>0.2849235920013192</v>
       </c>
       <c r="F110" t="n">
-        <v>0.07144567519388315</v>
+        <v>0.04074642121064544</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2633887645329896</v>
+        <v>0.2164912175984139</v>
       </c>
       <c r="H110" t="n">
-        <v>0.08626956934964471</v>
+        <v>0.0334848653593504</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9810413291071221</v>
+        <v>0.9861169840256225</v>
       </c>
       <c r="J110" t="n">
-        <v>0.007812177423638284</v>
+        <v>0.00348956605096229</v>
       </c>
     </row>
     <row r="111">
@@ -3987,22 +3987,22 @@
         <v>60</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3345391301414822</v>
+        <v>0.3197516763922901</v>
       </c>
       <c r="F111" t="n">
-        <v>0.04431525223794381</v>
+        <v>0.03964063786197295</v>
       </c>
       <c r="G111" t="n">
-        <v>0.25726446307057</v>
+        <v>0.2477382518301924</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0454052296313688</v>
+        <v>0.04509849025240309</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9802813675690419</v>
+        <v>0.9822523385740747</v>
       </c>
       <c r="J111" t="n">
-        <v>0.007007578705640495</v>
+        <v>0.004898305609862147</v>
       </c>
     </row>
     <row r="112">
@@ -4019,22 +4019,22 @@
         <v>70</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3515070905431586</v>
+        <v>0.3507204857854812</v>
       </c>
       <c r="F112" t="n">
-        <v>0.07520545191750765</v>
+        <v>0.1308897893772332</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2612261258567852</v>
+        <v>0.2781359391591302</v>
       </c>
       <c r="H112" t="n">
-        <v>0.05800439218235409</v>
+        <v>0.1222907165017773</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9783024002435333</v>
+        <v>0.9776258973387423</v>
       </c>
       <c r="J112" t="n">
-        <v>0.009114750018463558</v>
+        <v>0.01621392182457522</v>
       </c>
     </row>
     <row r="113">
@@ -4051,22 +4051,22 @@
         <v>80</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3013352707172418</v>
+        <v>0.3956214228171196</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03694811816217194</v>
+        <v>0.08704276150176178</v>
       </c>
       <c r="G113" t="n">
-        <v>0.2230417589882884</v>
+        <v>0.3163586094463124</v>
       </c>
       <c r="H113" t="n">
-        <v>0.03415416417968365</v>
+        <v>0.08846411269141209</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9844160290377918</v>
+        <v>0.9729209647634656</v>
       </c>
       <c r="J113" t="n">
-        <v>0.003739450500753067</v>
+        <v>0.009736079626321661</v>
       </c>
     </row>
     <row r="114">
@@ -4083,22 +4083,22 @@
         <v>20</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4866655093450265</v>
+        <v>0.3638966744631283</v>
       </c>
       <c r="F114" t="n">
-        <v>0.247675574934383</v>
+        <v>0.09112612618893329</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4230806093981987</v>
+        <v>0.3019489815475868</v>
       </c>
       <c r="H114" t="n">
-        <v>0.2613774826588177</v>
+        <v>0.1028831415281732</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9502406596062087</v>
+        <v>0.9746930641364402</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0454266493757999</v>
+        <v>0.0174145987958149</v>
       </c>
     </row>
     <row r="115">
@@ -4115,22 +4115,22 @@
         <v>30</v>
       </c>
       <c r="E115" t="n">
-        <v>0.347051458068066</v>
+        <v>0.3196237016662078</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1412897170840235</v>
+        <v>0.08676179179017618</v>
       </c>
       <c r="G115" t="n">
-        <v>0.2709728399222971</v>
+        <v>0.2425297201915986</v>
       </c>
       <c r="H115" t="n">
-        <v>0.1385685777121384</v>
+        <v>0.08464873450146024</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9777606931432784</v>
+        <v>0.9816387181584212</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01691371656556717</v>
+        <v>0.009957765487348315</v>
       </c>
     </row>
     <row r="116">
@@ -4147,22 +4147,22 @@
         <v>40</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3753518514516397</v>
+        <v>0.3260146630516261</v>
       </c>
       <c r="F116" t="n">
-        <v>0.06701522211024068</v>
+        <v>0.1094947240721069</v>
       </c>
       <c r="G116" t="n">
-        <v>0.3042918068024729</v>
+        <v>0.2556468222401124</v>
       </c>
       <c r="H116" t="n">
-        <v>0.07149034681534343</v>
+        <v>0.105186889665729</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9761840531401861</v>
+        <v>0.980831145405755</v>
       </c>
       <c r="J116" t="n">
-        <v>0.006449489150885706</v>
+        <v>0.01244361413787135</v>
       </c>
     </row>
     <row r="117">
@@ -4179,22 +4179,22 @@
         <v>50</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3009779362603786</v>
+        <v>0.3169941387631782</v>
       </c>
       <c r="F117" t="n">
-        <v>0.05869405692406548</v>
+        <v>0.03251749919838975</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2178009332387457</v>
+        <v>0.2299468916214695</v>
       </c>
       <c r="H117" t="n">
-        <v>0.04537844562944287</v>
+        <v>0.03333553212110835</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9842782239380685</v>
+        <v>0.9829808712146534</v>
       </c>
       <c r="J117" t="n">
-        <v>0.00575309052021015</v>
+        <v>0.002948635884124673</v>
       </c>
     </row>
     <row r="118">
@@ -4211,22 +4211,22 @@
         <v>60</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4303115423272675</v>
+        <v>0.2862653486116289</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2399714593089088</v>
+        <v>0.04821037199860733</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3599204580961398</v>
+        <v>0.2063474095709844</v>
       </c>
       <c r="H118" t="n">
-        <v>0.253986494179181</v>
+        <v>0.0439644076274318</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9622130490926601</v>
+        <v>0.9860909281949797</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04068678412848564</v>
+        <v>0.003707272728298149</v>
       </c>
     </row>
     <row r="119">
@@ -4243,22 +4243,22 @@
         <v>70</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2971207564950659</v>
+        <v>0.3471686111496426</v>
       </c>
       <c r="F119" t="n">
-        <v>0.05239434695604281</v>
+        <v>0.07260781008448854</v>
       </c>
       <c r="G119" t="n">
-        <v>0.231227717149884</v>
+        <v>0.2477033256619415</v>
       </c>
       <c r="H119" t="n">
-        <v>0.04169197274316866</v>
+        <v>0.06115451339977084</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9851898443223673</v>
+        <v>0.9788716012008974</v>
       </c>
       <c r="J119" t="n">
-        <v>0.00339684757846111</v>
+        <v>0.00817903457181955</v>
       </c>
     </row>
     <row r="120">
@@ -4275,22 +4275,22 @@
         <v>80</v>
       </c>
       <c r="E120" t="n">
-        <v>0.345295601940968</v>
+        <v>0.2974347385636753</v>
       </c>
       <c r="F120" t="n">
-        <v>0.04296718105438281</v>
+        <v>0.02511360958908106</v>
       </c>
       <c r="G120" t="n">
-        <v>0.2626148466656268</v>
+        <v>0.2137343195885747</v>
       </c>
       <c r="H120" t="n">
-        <v>0.06008499976048656</v>
+        <v>0.02628946172776407</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9787099875815326</v>
+        <v>0.9845323615773468</v>
       </c>
       <c r="J120" t="n">
-        <v>0.008768465344935989</v>
+        <v>0.00493686103999034</v>
       </c>
     </row>
     <row r="121">
@@ -4307,22 +4307,22 @@
         <v>20</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3670580991076122</v>
+        <v>0.3955462856207733</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1386100671135491</v>
+        <v>0.1523559586225126</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2846335296440761</v>
+        <v>0.2984098447916007</v>
       </c>
       <c r="H121" t="n">
-        <v>0.1217113711089938</v>
+        <v>0.1351657157584327</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9751686133291504</v>
+        <v>0.9705830247459041</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01832286312321927</v>
+        <v>0.02276120197778667</v>
       </c>
     </row>
     <row r="122">
@@ -4339,22 +4339,22 @@
         <v>30</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3608329146386414</v>
+        <v>0.3064456937981582</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1119136267941222</v>
+        <v>0.05541140207341521</v>
       </c>
       <c r="G122" t="n">
-        <v>0.2902416586979884</v>
+        <v>0.2426350100011394</v>
       </c>
       <c r="H122" t="n">
-        <v>0.1086938572463514</v>
+        <v>0.05898921607881964</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9771131573220359</v>
+        <v>0.9841276875418868</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0121251629681356</v>
+        <v>0.004218263926396599</v>
       </c>
     </row>
     <row r="123">
@@ -4371,22 +4371,22 @@
         <v>40</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3377440451078853</v>
+        <v>0.2973626576846327</v>
       </c>
       <c r="F123" t="n">
-        <v>0.04290252725656682</v>
+        <v>0.05347301484706098</v>
       </c>
       <c r="G123" t="n">
-        <v>0.2648586607667306</v>
+        <v>0.2248030890260612</v>
       </c>
       <c r="H123" t="n">
-        <v>0.04440390403399201</v>
+        <v>0.06191148502140549</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9798290432859387</v>
+        <v>0.9851018541740038</v>
       </c>
       <c r="J123" t="n">
-        <v>0.007891568257142531</v>
+        <v>0.003816294124205176</v>
       </c>
     </row>
     <row r="124">
@@ -4403,22 +4403,22 @@
         <v>50</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3077418275159372</v>
+        <v>0.3420934692307259</v>
       </c>
       <c r="F124" t="n">
-        <v>0.07343001263455247</v>
+        <v>0.04501451841754991</v>
       </c>
       <c r="G124" t="n">
-        <v>0.2409547975606809</v>
+        <v>0.2651351756877606</v>
       </c>
       <c r="H124" t="n">
-        <v>0.08120134727380761</v>
+        <v>0.05485509576614208</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9837187672405069</v>
+        <v>0.9797143762395978</v>
       </c>
       <c r="J124" t="n">
-        <v>0.006846106342999801</v>
+        <v>0.005248514460185206</v>
       </c>
     </row>
     <row r="125">
@@ -4435,22 +4435,22 @@
         <v>60</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3254544479653197</v>
+        <v>0.2677003900434595</v>
       </c>
       <c r="F125" t="n">
-        <v>0.06804571518817067</v>
+        <v>0.01720727231302698</v>
       </c>
       <c r="G125" t="n">
-        <v>0.2359053923289622</v>
+        <v>0.1837641226345783</v>
       </c>
       <c r="H125" t="n">
-        <v>0.07340196479359902</v>
+        <v>0.01086870392730738</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9800255279550816</v>
+        <v>0.9877739020032956</v>
       </c>
       <c r="J125" t="n">
-        <v>0.01273168107860117</v>
+        <v>0.002142829802957773</v>
       </c>
     </row>
     <row r="126">
@@ -4467,22 +4467,22 @@
         <v>70</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3079067302160156</v>
+        <v>0.3430184406608757</v>
       </c>
       <c r="F126" t="n">
-        <v>0.08190095406440472</v>
+        <v>0.1025912457650109</v>
       </c>
       <c r="G126" t="n">
-        <v>0.2431263889193077</v>
+        <v>0.2675470302709296</v>
       </c>
       <c r="H126" t="n">
-        <v>0.08857361790263679</v>
+        <v>0.1199835542232288</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9833845037962957</v>
+        <v>0.9786338511966612</v>
       </c>
       <c r="J126" t="n">
-        <v>0.008535010259437066</v>
+        <v>0.01288818565238852</v>
       </c>
     </row>
     <row r="127">
@@ -4499,22 +4499,22 @@
         <v>80</v>
       </c>
       <c r="E127" t="n">
-        <v>0.409612484126568</v>
+        <v>0.3104913256554722</v>
       </c>
       <c r="F127" t="n">
-        <v>0.201052347179618</v>
+        <v>0.02609967644743712</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3113548542691899</v>
+        <v>0.2345672064081325</v>
       </c>
       <c r="H127" t="n">
-        <v>0.159389966462362</v>
+        <v>0.02137563376842424</v>
       </c>
       <c r="I127" t="n">
-        <v>0.966399576364444</v>
+        <v>0.9836035603737846</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03414224934960409</v>
+        <v>0.002804491163874613</v>
       </c>
     </row>
     <row r="128">
@@ -4531,22 +4531,22 @@
         <v>20</v>
       </c>
       <c r="E128" t="n">
-        <v>0.311073945629602</v>
+        <v>0.2973054953575139</v>
       </c>
       <c r="F128" t="n">
-        <v>0.07689007408926654</v>
+        <v>0.05066065120826752</v>
       </c>
       <c r="G128" t="n">
-        <v>0.2310889885156594</v>
+        <v>0.2282897203669887</v>
       </c>
       <c r="H128" t="n">
-        <v>0.06516596605395851</v>
+        <v>0.05336614944840811</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9820284693168931</v>
+        <v>0.985143581229924</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0105247109742237</v>
+        <v>0.003505973085405056</v>
       </c>
     </row>
     <row r="129">
@@ -4563,22 +4563,22 @@
         <v>30</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3494685629160664</v>
+        <v>0.3004047685317423</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1058863453798287</v>
+        <v>0.06694370124214442</v>
       </c>
       <c r="G129" t="n">
-        <v>0.2793770157342538</v>
+        <v>0.2283999667324777</v>
       </c>
       <c r="H129" t="n">
-        <v>0.102904181736569</v>
+        <v>0.0619605598336256</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9752882792281501</v>
+        <v>0.9845905098429304</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02128445531951126</v>
+        <v>0.00584637658018696</v>
       </c>
     </row>
     <row r="130">
@@ -4595,22 +4595,22 @@
         <v>40</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2876585057792488</v>
+        <v>0.3090731028333724</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0802708877378905</v>
+        <v>0.03907332459918435</v>
       </c>
       <c r="G130" t="n">
-        <v>0.216774022114091</v>
+        <v>0.2305132353316378</v>
       </c>
       <c r="H130" t="n">
-        <v>0.08753429347178429</v>
+        <v>0.0270113276506235</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9853587011068512</v>
+        <v>0.9838784145449366</v>
       </c>
       <c r="J130" t="n">
-        <v>0.007538312710011773</v>
+        <v>0.003125712194299122</v>
       </c>
     </row>
     <row r="131">
@@ -4627,22 +4627,22 @@
         <v>50</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2827947996166402</v>
+        <v>0.398464367843837</v>
       </c>
       <c r="F131" t="n">
-        <v>0.04048932820030395</v>
+        <v>0.1658476219135155</v>
       </c>
       <c r="G131" t="n">
-        <v>0.2115826936533627</v>
+        <v>0.322145517735105</v>
       </c>
       <c r="H131" t="n">
-        <v>0.04204293958163324</v>
+        <v>0.1559588599920535</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9865213688674451</v>
+        <v>0.9694313260874651</v>
       </c>
       <c r="J131" t="n">
-        <v>0.002705378579293064</v>
+        <v>0.02581993640859115</v>
       </c>
     </row>
     <row r="132">
@@ -4659,22 +4659,22 @@
         <v>60</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2730676037234672</v>
+        <v>0.3091659980525018</v>
       </c>
       <c r="F132" t="n">
-        <v>0.03760934254029487</v>
+        <v>0.02878854032836606</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1863209313736058</v>
+        <v>0.2403733638306501</v>
       </c>
       <c r="H132" t="n">
-        <v>0.029065926101927</v>
+        <v>0.0317302188677353</v>
       </c>
       <c r="I132" t="n">
-        <v>0.987296104311928</v>
+        <v>0.9837681149144055</v>
       </c>
       <c r="J132" t="n">
-        <v>0.002956558871855969</v>
+        <v>0.002806572111006155</v>
       </c>
     </row>
     <row r="133">
@@ -4691,22 +4691,22 @@
         <v>70</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2952560292455034</v>
+        <v>0.3102885858816458</v>
       </c>
       <c r="F133" t="n">
-        <v>0.05099550410344413</v>
+        <v>0.0764757200387666</v>
       </c>
       <c r="G133" t="n">
-        <v>0.210976181929941</v>
+        <v>0.2285425283132251</v>
       </c>
       <c r="H133" t="n">
-        <v>0.04726243467445897</v>
+        <v>0.05746478247158513</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9840905507977056</v>
+        <v>0.9834400958548445</v>
       </c>
       <c r="J133" t="n">
-        <v>0.007455660993806803</v>
+        <v>0.006625826310058324</v>
       </c>
     </row>
     <row r="134">
@@ -4723,22 +4723,22 @@
         <v>80</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3355608672923562</v>
+        <v>0.3228152904413588</v>
       </c>
       <c r="F134" t="n">
-        <v>0.04464175407143517</v>
+        <v>0.05669945816708479</v>
       </c>
       <c r="G134" t="n">
-        <v>0.2611766051257252</v>
+        <v>0.2422358764137411</v>
       </c>
       <c r="H134" t="n">
-        <v>0.04053597769187795</v>
+        <v>0.04396551931706456</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9806214563508963</v>
+        <v>0.9817730424674199</v>
       </c>
       <c r="J134" t="n">
-        <v>0.005039423987747624</v>
+        <v>0.006722386472433142</v>
       </c>
     </row>
     <row r="135">
@@ -4755,22 +4755,22 @@
         <v>20</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3334388354587767</v>
+        <v>0.2927691999941638</v>
       </c>
       <c r="F135" t="n">
-        <v>0.05022477292442135</v>
+        <v>0.02850195310635371</v>
       </c>
       <c r="G135" t="n">
-        <v>0.249325927191037</v>
+        <v>0.2187602677505979</v>
       </c>
       <c r="H135" t="n">
-        <v>0.04371322602797307</v>
+        <v>0.02908531940811872</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9801248193933146</v>
+        <v>0.9855870335076903</v>
       </c>
       <c r="J135" t="n">
-        <v>0.007985358242066703</v>
+        <v>0.001717053206552222</v>
       </c>
     </row>
     <row r="136">
@@ -4787,22 +4787,22 @@
         <v>30</v>
       </c>
       <c r="E136" t="n">
-        <v>0.29009702201377</v>
+        <v>0.3225179294850925</v>
       </c>
       <c r="F136" t="n">
-        <v>0.06464969090782027</v>
+        <v>0.1018264159442518</v>
       </c>
       <c r="G136" t="n">
-        <v>0.2122810330012414</v>
+        <v>0.2541722367672048</v>
       </c>
       <c r="H136" t="n">
-        <v>0.06071602775010659</v>
+        <v>0.1130127288757591</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9852107740043078</v>
+        <v>0.9814828597182682</v>
       </c>
       <c r="J136" t="n">
-        <v>0.006183865881063743</v>
+        <v>0.01148482424926394</v>
       </c>
     </row>
     <row r="137">
@@ -4819,22 +4819,22 @@
         <v>40</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3329681779998447</v>
+        <v>0.3455923799701978</v>
       </c>
       <c r="F137" t="n">
-        <v>0.02644211756269764</v>
+        <v>0.07532459836061497</v>
       </c>
       <c r="G137" t="n">
-        <v>0.2612128712579349</v>
+        <v>0.2701251008323174</v>
       </c>
       <c r="H137" t="n">
-        <v>0.03224127771798074</v>
+        <v>0.07302512906211329</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9807531504845537</v>
+        <v>0.9791273522124652</v>
       </c>
       <c r="J137" t="n">
-        <v>0.00503562247005369</v>
+        <v>0.008396692348897328</v>
       </c>
     </row>
     <row r="138">
@@ -4851,22 +4851,22 @@
         <v>50</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2767304305015474</v>
+        <v>0.3378387365937437</v>
       </c>
       <c r="F138" t="n">
-        <v>0.04283019580738299</v>
+        <v>0.06348522782240587</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1977411551184079</v>
+        <v>0.2494805951386659</v>
       </c>
       <c r="H138" t="n">
-        <v>0.04687990099968786</v>
+        <v>0.0468283571015029</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9869786733240418</v>
+        <v>0.9794757897046544</v>
       </c>
       <c r="J138" t="n">
-        <v>0.003546666002341836</v>
+        <v>0.009316295113052108</v>
       </c>
     </row>
     <row r="139">
@@ -4883,22 +4883,22 @@
         <v>60</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3114825501295455</v>
+        <v>0.3843881317719496</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0623431451668786</v>
+        <v>0.1636893499164329</v>
       </c>
       <c r="G139" t="n">
-        <v>0.2177071854822573</v>
+        <v>0.3108076333384511</v>
       </c>
       <c r="H139" t="n">
-        <v>0.03819415295966448</v>
+        <v>0.1731824739672863</v>
       </c>
       <c r="I139" t="n">
-        <v>0.9833804282979333</v>
+        <v>0.9713489594218874</v>
       </c>
       <c r="J139" t="n">
-        <v>0.005356949604200617</v>
+        <v>0.02419774699429793</v>
       </c>
     </row>
     <row r="140">
@@ -4915,22 +4915,22 @@
         <v>70</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3166450669054642</v>
+        <v>0.3029739414217226</v>
       </c>
       <c r="F140" t="n">
-        <v>0.03620088557941251</v>
+        <v>0.01202364968227392</v>
       </c>
       <c r="G140" t="n">
-        <v>0.2455096394922858</v>
+        <v>0.2204409777188947</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03981426058419635</v>
+        <v>0.009326205892481079</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9830608915627341</v>
+        <v>0.9845134042328123</v>
       </c>
       <c r="J140" t="n">
-        <v>0.002839987625613871</v>
+        <v>0.001071581933564117</v>
       </c>
     </row>
     <row r="141">
@@ -4947,22 +4947,22 @@
         <v>80</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3127431130158027</v>
+        <v>0.3790299528364341</v>
       </c>
       <c r="F141" t="n">
-        <v>0.07915438813540675</v>
+        <v>0.03817059491024306</v>
       </c>
       <c r="G141" t="n">
-        <v>0.2433105779885318</v>
+        <v>0.3109488219398668</v>
       </c>
       <c r="H141" t="n">
-        <v>0.09548299914644208</v>
+        <v>0.05017660478514352</v>
       </c>
       <c r="I141" t="n">
-        <v>0.9809866556416518</v>
+        <v>0.9757380477370766</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01426877639931668</v>
+        <v>0.003623154334089506</v>
       </c>
     </row>
     <row r="142">
@@ -4979,22 +4979,22 @@
         <v>20</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3127234322575467</v>
+        <v>0.3586047134328941</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1029326659285641</v>
+        <v>0.06757213155716485</v>
       </c>
       <c r="G142" t="n">
-        <v>0.2248454544809785</v>
+        <v>0.2684951193958526</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1076645930929311</v>
+        <v>0.06523516088632815</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9799582719127844</v>
+        <v>0.9767505451938086</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0182155635553528</v>
+        <v>0.01000284084970217</v>
       </c>
     </row>
     <row r="143">
@@ -5011,22 +5011,22 @@
         <v>30</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3192001914098649</v>
+        <v>0.3519783530328413</v>
       </c>
       <c r="F143" t="n">
-        <v>0.06045117803224761</v>
+        <v>0.03574100270550122</v>
       </c>
       <c r="G143" t="n">
-        <v>0.2389354713721488</v>
+        <v>0.2752695226650077</v>
       </c>
       <c r="H143" t="n">
-        <v>0.05282707636276961</v>
+        <v>0.04254212815060988</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9828966678775416</v>
+        <v>0.979112197126503</v>
       </c>
       <c r="J143" t="n">
-        <v>0.004268224282151882</v>
+        <v>0.002943800907222497</v>
       </c>
     </row>
     <row r="144">
@@ -5043,22 +5043,22 @@
         <v>40</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3687838458610887</v>
+        <v>0.3685475241227659</v>
       </c>
       <c r="F144" t="n">
-        <v>0.06134175544605297</v>
+        <v>0.1047668750210323</v>
       </c>
       <c r="G144" t="n">
-        <v>0.2972349782615544</v>
+        <v>0.2974032120118228</v>
       </c>
       <c r="H144" t="n">
-        <v>0.07352268409690806</v>
+        <v>0.114718411625182</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9761172599521005</v>
+        <v>0.9750289414792908</v>
       </c>
       <c r="J144" t="n">
-        <v>0.008187040411001054</v>
+        <v>0.01386303647788644</v>
       </c>
     </row>
     <row r="145">
@@ -5075,22 +5075,22 @@
         <v>50</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3195373089633544</v>
+        <v>0.4016108373808727</v>
       </c>
       <c r="F145" t="n">
-        <v>0.09304263774211041</v>
+        <v>0.05842231525299314</v>
       </c>
       <c r="G145" t="n">
-        <v>0.2490386178469996</v>
+        <v>0.3377844821793762</v>
       </c>
       <c r="H145" t="n">
-        <v>0.09378522291098627</v>
+        <v>0.04224614118969056</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9822507955117862</v>
+        <v>0.9727831791085866</v>
       </c>
       <c r="J145" t="n">
-        <v>0.008927336171142223</v>
+        <v>0.005914082802036463</v>
       </c>
     </row>
     <row r="146">
@@ -5107,22 +5107,22 @@
         <v>60</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3453002153931639</v>
+        <v>0.3064722748131647</v>
       </c>
       <c r="F146" t="n">
-        <v>0.07642337454820783</v>
+        <v>0.03021982346776908</v>
       </c>
       <c r="G146" t="n">
-        <v>0.2843303646883041</v>
+        <v>0.2282384645282982</v>
       </c>
       <c r="H146" t="n">
-        <v>0.08993917685376303</v>
+        <v>0.01481886531493348</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9776121067328225</v>
+        <v>0.983949092292398</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01350558835253671</v>
+        <v>0.003306813671812037</v>
       </c>
     </row>
     <row r="147">
@@ -5139,22 +5139,22 @@
         <v>70</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4032678788150837</v>
+        <v>0.3092951127295501</v>
       </c>
       <c r="F147" t="n">
-        <v>0.04919401723685069</v>
+        <v>0.04334475903619377</v>
       </c>
       <c r="G147" t="n">
-        <v>0.3349098114229248</v>
+        <v>0.2186605141076582</v>
       </c>
       <c r="H147" t="n">
-        <v>0.04656288281167162</v>
+        <v>0.05071949852280058</v>
       </c>
       <c r="I147" t="n">
-        <v>0.97133119287568</v>
+        <v>0.9830411527629513</v>
       </c>
       <c r="J147" t="n">
-        <v>0.009596745024114801</v>
+        <v>0.006629673494494991</v>
       </c>
     </row>
     <row r="148">
@@ -5171,22 +5171,22 @@
         <v>80</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3983098234407401</v>
+        <v>0.3525530180270562</v>
       </c>
       <c r="F148" t="n">
-        <v>0.169485786884799</v>
+        <v>0.1498970139078548</v>
       </c>
       <c r="G148" t="n">
-        <v>0.3076727684055145</v>
+        <v>0.2642501873027799</v>
       </c>
       <c r="H148" t="n">
-        <v>0.1298661062563357</v>
+        <v>0.1399625502152915</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9691513723674809</v>
+        <v>0.9746244282776528</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02620984755184575</v>
+        <v>0.02516793829194834</v>
       </c>
     </row>
     <row r="149">
@@ -5203,22 +5203,22 @@
         <v>20</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3462525905598713</v>
+        <v>0.3118709014049417</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1031762863594118</v>
+        <v>0.05340216207638011</v>
       </c>
       <c r="G149" t="n">
-        <v>0.2741066390778409</v>
+        <v>0.2445304504108034</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09813366982764626</v>
+        <v>0.05989696942279189</v>
       </c>
       <c r="I149" t="n">
-        <v>0.976712743105596</v>
+        <v>0.9829209101662524</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01631032177337321</v>
+        <v>0.006521718404883186</v>
       </c>
     </row>
     <row r="150">
@@ -5235,22 +5235,22 @@
         <v>30</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3421588198902704</v>
+        <v>0.2815689065352417</v>
       </c>
       <c r="F150" t="n">
-        <v>0.07415762661596292</v>
+        <v>0.03795745921416029</v>
       </c>
       <c r="G150" t="n">
-        <v>0.2634178288065542</v>
+        <v>0.2107348370944597</v>
       </c>
       <c r="H150" t="n">
-        <v>0.07538404856559525</v>
+        <v>0.03752600571275703</v>
       </c>
       <c r="I150" t="n">
-        <v>0.978966672507329</v>
+        <v>0.9862988632180144</v>
       </c>
       <c r="J150" t="n">
-        <v>0.009485503713484424</v>
+        <v>0.003724614252070844</v>
       </c>
     </row>
     <row r="151">
@@ -5267,22 +5267,22 @@
         <v>40</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3842221918129602</v>
+        <v>0.336184860957818</v>
       </c>
       <c r="F151" t="n">
-        <v>0.08976477232027252</v>
+        <v>0.07774095662471092</v>
       </c>
       <c r="G151" t="n">
-        <v>0.3213955516410024</v>
+        <v>0.2625609727602072</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1022926763318652</v>
+        <v>0.08083843808277838</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9743075674200172</v>
+        <v>0.9807273258123617</v>
       </c>
       <c r="J151" t="n">
-        <v>0.009399215998568067</v>
+        <v>0.007459841868660826</v>
       </c>
     </row>
     <row r="152">
@@ -5299,22 +5299,22 @@
         <v>50</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3209939710955659</v>
+        <v>0.2946086596453457</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1010329450397076</v>
+        <v>0.0577956205512675</v>
       </c>
       <c r="G152" t="n">
-        <v>0.2423700908294673</v>
+        <v>0.2171520623233814</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0816619589072987</v>
+        <v>0.0522748142010565</v>
       </c>
       <c r="I152" t="n">
-        <v>0.9816991663587554</v>
+        <v>0.9853829643116476</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01098564752093379</v>
+        <v>0.004144932124022994</v>
       </c>
     </row>
     <row r="153">
@@ -5331,22 +5331,22 @@
         <v>60</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3456181296118573</v>
+        <v>0.4021674487822936</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1090126946314579</v>
+        <v>0.07045457835813942</v>
       </c>
       <c r="G153" t="n">
-        <v>0.2740163606289138</v>
+        <v>0.3393352115999489</v>
       </c>
       <c r="H153" t="n">
-        <v>0.1133910889871112</v>
+        <v>0.08848556615991215</v>
       </c>
       <c r="I153" t="n">
-        <v>0.9786282436848683</v>
+        <v>0.9706110563287224</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01234163090420315</v>
+        <v>0.01338413643153868</v>
       </c>
     </row>
     <row r="154">
@@ -5363,22 +5363,22 @@
         <v>70</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3158158443743703</v>
+        <v>0.3702464762335362</v>
       </c>
       <c r="F154" t="n">
-        <v>0.06194317733136399</v>
+        <v>0.2369092723148191</v>
       </c>
       <c r="G154" t="n">
-        <v>0.2386059961718685</v>
+        <v>0.2996624736905728</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0606258719432641</v>
+        <v>0.2401770557219166</v>
       </c>
       <c r="I154" t="n">
-        <v>0.9831877049324509</v>
+        <v>0.9613052664569122</v>
       </c>
       <c r="J154" t="n">
-        <v>0.004742419623484527</v>
+        <v>0.05698749416522925</v>
       </c>
     </row>
     <row r="155">
@@ -5395,22 +5395,22 @@
         <v>80</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3797309608538543</v>
+        <v>0.3161776514229666</v>
       </c>
       <c r="F155" t="n">
-        <v>0.149048049318342</v>
+        <v>0.01749213677024052</v>
       </c>
       <c r="G155" t="n">
-        <v>0.301891840885861</v>
+        <v>0.2412031522982268</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1591080131867146</v>
+        <v>0.01944270649321804</v>
       </c>
       <c r="I155" t="n">
-        <v>0.9730821321867357</v>
+        <v>0.9830852996459969</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02030789479329781</v>
+        <v>0.001874558519383596</v>
       </c>
     </row>
     <row r="156">
@@ -5427,22 +5427,22 @@
         <v>20</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3571408102994296</v>
+        <v>0.3710809231262789</v>
       </c>
       <c r="F156" t="n">
-        <v>0.08360124801559991</v>
+        <v>0.1301145055393755</v>
       </c>
       <c r="G156" t="n">
-        <v>0.2714479599616723</v>
+        <v>0.3043309578079915</v>
       </c>
       <c r="H156" t="n">
-        <v>0.09213653696685492</v>
+        <v>0.1258767672756458</v>
       </c>
       <c r="I156" t="n">
-        <v>0.9761579796329263</v>
+        <v>0.9750081935168439</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01205525394453858</v>
+        <v>0.01761525634135926</v>
       </c>
     </row>
     <row r="157">
@@ -5459,22 +5459,22 @@
         <v>30</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3325639736397508</v>
+        <v>0.3163958578344881</v>
       </c>
       <c r="F157" t="n">
-        <v>0.02619577615581653</v>
+        <v>0.04558699546661783</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2638839160463652</v>
+        <v>0.2508624170499468</v>
       </c>
       <c r="H157" t="n">
-        <v>0.04630176680390907</v>
+        <v>0.05482582249883665</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9807374864448228</v>
+        <v>0.9827598175017668</v>
       </c>
       <c r="J157" t="n">
-        <v>0.005873850720535537</v>
+        <v>0.004912109179819798</v>
       </c>
     </row>
     <row r="158">
@@ -5491,22 +5491,22 @@
         <v>40</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3314149891338713</v>
+        <v>0.3704166555595838</v>
       </c>
       <c r="F158" t="n">
-        <v>0.05019496162113175</v>
+        <v>0.06142677003589678</v>
       </c>
       <c r="G158" t="n">
-        <v>0.2472178576604628</v>
+        <v>0.2865423200876244</v>
       </c>
       <c r="H158" t="n">
-        <v>0.05103989485461559</v>
+        <v>0.05856773078060605</v>
       </c>
       <c r="I158" t="n">
-        <v>0.9809429427340828</v>
+        <v>0.9766447653301711</v>
       </c>
       <c r="J158" t="n">
-        <v>0.005851267418525851</v>
+        <v>0.005974492593379869</v>
       </c>
     </row>
     <row r="159">
@@ -5523,22 +5523,22 @@
         <v>50</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3205325224613883</v>
+        <v>0.2828750114621449</v>
       </c>
       <c r="F159" t="n">
-        <v>0.03034091991685013</v>
+        <v>0.01876394543771222</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2434551017358966</v>
+        <v>0.2021562600156575</v>
       </c>
       <c r="H159" t="n">
-        <v>0.02588362619842292</v>
+        <v>0.01339122614129226</v>
       </c>
       <c r="I159" t="n">
-        <v>0.982786500981226</v>
+        <v>0.9864223664395683</v>
       </c>
       <c r="J159" t="n">
-        <v>0.001342816886802159</v>
+        <v>0.001981367090153972</v>
       </c>
     </row>
     <row r="160">
@@ -5555,22 +5555,22 @@
         <v>60</v>
       </c>
       <c r="E160" t="n">
-        <v>0.2780644157754137</v>
+        <v>0.3498115554736143</v>
       </c>
       <c r="F160" t="n">
-        <v>0.03899145544143173</v>
+        <v>0.0921940195704861</v>
       </c>
       <c r="G160" t="n">
-        <v>0.202483495632424</v>
+        <v>0.2771021246297176</v>
       </c>
       <c r="H160" t="n">
-        <v>0.02893940849403921</v>
+        <v>0.07813140004027197</v>
       </c>
       <c r="I160" t="n">
-        <v>0.9868591885303852</v>
+        <v>0.9786067057353609</v>
       </c>
       <c r="J160" t="n">
-        <v>0.00323333780487165</v>
+        <v>0.01011221759271822</v>
       </c>
     </row>
     <row r="161">
@@ -5587,22 +5587,22 @@
         <v>70</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3146581425137837</v>
+        <v>0.3031873548303075</v>
       </c>
       <c r="F161" t="n">
-        <v>0.08653154699189787</v>
+        <v>0.03490300424584771</v>
       </c>
       <c r="G161" t="n">
-        <v>0.2379101953560961</v>
+        <v>0.2279552192881282</v>
       </c>
       <c r="H161" t="n">
-        <v>0.08560325145280771</v>
+        <v>0.03805532181558037</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9803813398241848</v>
+        <v>0.9843889617635962</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01490175149578984</v>
+        <v>0.003091610045581445</v>
       </c>
     </row>
     <row r="162">
@@ -5619,22 +5619,22 @@
         <v>80</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3304601593353957</v>
+        <v>0.328867862689035</v>
       </c>
       <c r="F162" t="n">
-        <v>0.03853288078066866</v>
+        <v>0.0580102220982416</v>
       </c>
       <c r="G162" t="n">
-        <v>0.2431760983189252</v>
+        <v>0.2545285711886551</v>
       </c>
       <c r="H162" t="n">
-        <v>0.03895559295155145</v>
+        <v>0.06808470896301518</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9808785895337513</v>
+        <v>0.980399570154848</v>
       </c>
       <c r="J162" t="n">
-        <v>0.005942189888246913</v>
+        <v>0.009068230855654174</v>
       </c>
     </row>
     <row r="163">
@@ -5651,22 +5651,22 @@
         <v>20</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3029680524675563</v>
+        <v>0.3357213980725179</v>
       </c>
       <c r="F163" t="n">
-        <v>0.04943008762116485</v>
+        <v>0.043938986980087</v>
       </c>
       <c r="G163" t="n">
-        <v>0.2201260747937713</v>
+        <v>0.2496896273810852</v>
       </c>
       <c r="H163" t="n">
-        <v>0.04860439574350364</v>
+        <v>0.03142318812622833</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9837653801171475</v>
+        <v>0.9805958156018806</v>
       </c>
       <c r="J163" t="n">
-        <v>0.00599181297703844</v>
+        <v>0.005357670717232758</v>
       </c>
     </row>
     <row r="164">
@@ -5683,22 +5683,22 @@
         <v>30</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3391462920459684</v>
+        <v>0.3217126154701668</v>
       </c>
       <c r="F164" t="n">
-        <v>0.08856969734393982</v>
+        <v>0.1186689967521189</v>
       </c>
       <c r="G164" t="n">
-        <v>0.259147709851502</v>
+        <v>0.2549172673404123</v>
       </c>
       <c r="H164" t="n">
-        <v>0.07037069543392366</v>
+        <v>0.1348045249502878</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9787851992978667</v>
+        <v>0.9779452179518527</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01167444764854639</v>
+        <v>0.02217085602223481</v>
       </c>
     </row>
     <row r="165">
@@ -5715,22 +5715,22 @@
         <v>40</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3026941166736318</v>
+        <v>0.3722212001559863</v>
       </c>
       <c r="F165" t="n">
-        <v>0.04887246359541602</v>
+        <v>0.1459231470405461</v>
       </c>
       <c r="G165" t="n">
-        <v>0.2234002363367097</v>
+        <v>0.2977588360187248</v>
       </c>
       <c r="H165" t="n">
-        <v>0.05681075258953953</v>
+        <v>0.1569784955690078</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9845932057335182</v>
+        <v>0.9726914715317877</v>
       </c>
       <c r="J165" t="n">
-        <v>0.003495079593160943</v>
+        <v>0.02061207394030464</v>
       </c>
     </row>
     <row r="166">
@@ -5747,22 +5747,22 @@
         <v>50</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3266233280693626</v>
+        <v>0.3701736130585003</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0595961181243113</v>
+        <v>0.07185886349359974</v>
       </c>
       <c r="G166" t="n">
-        <v>0.2451739975318973</v>
+        <v>0.2767458212704122</v>
       </c>
       <c r="H166" t="n">
-        <v>0.06299436930121786</v>
+        <v>0.04048827362022096</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9814080518785839</v>
+        <v>0.9763813691644131</v>
       </c>
       <c r="J166" t="n">
-        <v>0.006632883521221392</v>
+        <v>0.008619216238171655</v>
       </c>
     </row>
     <row r="167">
@@ -5779,22 +5779,22 @@
         <v>60</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3142696733164838</v>
+        <v>0.2817730705307119</v>
       </c>
       <c r="F167" t="n">
-        <v>0.09181902281435046</v>
+        <v>0.03425411828011055</v>
       </c>
       <c r="G167" t="n">
-        <v>0.2334885793201827</v>
+        <v>0.210425354327773</v>
       </c>
       <c r="H167" t="n">
-        <v>0.08693379546098884</v>
+        <v>0.03060827597405619</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9825423843959324</v>
+        <v>0.9865867461153413</v>
       </c>
       <c r="J167" t="n">
-        <v>0.009881770449418095</v>
+        <v>0.002512148883396241</v>
       </c>
     </row>
     <row r="168">
@@ -5811,22 +5811,22 @@
         <v>70</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2996274827970398</v>
+        <v>0.314166888401634</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0420031642067198</v>
+        <v>0.06109230961247248</v>
       </c>
       <c r="G168" t="n">
-        <v>0.213571890493361</v>
+        <v>0.2407644771852847</v>
       </c>
       <c r="H168" t="n">
-        <v>0.04353267667447033</v>
+        <v>0.05300338369481102</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9840779850636128</v>
+        <v>0.9830776095080764</v>
       </c>
       <c r="J168" t="n">
-        <v>0.005580095125716521</v>
+        <v>0.0052716889729557</v>
       </c>
     </row>
     <row r="169">
@@ -5843,22 +5843,22 @@
         <v>80</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2766838994922166</v>
+        <v>0.337753322538114</v>
       </c>
       <c r="F169" t="n">
-        <v>0.03620650477668547</v>
+        <v>0.1142751790864627</v>
       </c>
       <c r="G169" t="n">
-        <v>0.2020569456439229</v>
+        <v>0.2605797707749821</v>
       </c>
       <c r="H169" t="n">
-        <v>0.04636651959312999</v>
+        <v>0.1157847948589735</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9868356946764107</v>
+        <v>0.9793584676926503</v>
       </c>
       <c r="J169" t="n">
-        <v>0.003589906348117849</v>
+        <v>0.01348920244392879</v>
       </c>
     </row>
     <row r="170">
@@ -5875,22 +5875,22 @@
         <v>20</v>
       </c>
       <c r="E170" t="n">
-        <v>0.3573947399297573</v>
+        <v>0.3139336432947034</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1122718317850144</v>
+        <v>0.04686472861382762</v>
       </c>
       <c r="G170" t="n">
-        <v>0.2789532979759734</v>
+        <v>0.2361607205306533</v>
       </c>
       <c r="H170" t="n">
-        <v>0.1013137688242262</v>
+        <v>0.05555264807642731</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9768312727424299</v>
+        <v>0.9828776213950249</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01370704233460445</v>
+        <v>0.005444880215759769</v>
       </c>
     </row>
     <row r="171">
@@ -5907,22 +5907,22 @@
         <v>30</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3800525306350679</v>
+        <v>0.3782380183779367</v>
       </c>
       <c r="F171" t="n">
-        <v>0.08324824692374198</v>
+        <v>0.120616070792986</v>
       </c>
       <c r="G171" t="n">
-        <v>0.3077076322076651</v>
+        <v>0.2885920040140904</v>
       </c>
       <c r="H171" t="n">
-        <v>0.09387946834116855</v>
+        <v>0.118467529700062</v>
       </c>
       <c r="I171" t="n">
-        <v>0.9750773397224931</v>
+        <v>0.973346926144637</v>
       </c>
       <c r="J171" t="n">
-        <v>0.008959994630937792</v>
+        <v>0.01671266137735743</v>
       </c>
     </row>
     <row r="172">
@@ -5939,22 +5939,22 @@
         <v>40</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3942173305863625</v>
+        <v>0.293851314488755</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1460112296343075</v>
+        <v>0.07439013039406785</v>
       </c>
       <c r="G172" t="n">
-        <v>0.3258670081490395</v>
+        <v>0.2225344398649103</v>
       </c>
       <c r="H172" t="n">
-        <v>0.1660189884578655</v>
+        <v>0.06955366110228384</v>
       </c>
       <c r="I172" t="n">
-        <v>0.9706352050378498</v>
+        <v>0.9838322812324124</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01959757987777934</v>
+        <v>0.009674284824837434</v>
       </c>
     </row>
     <row r="173">
@@ -5971,22 +5971,22 @@
         <v>50</v>
       </c>
       <c r="E173" t="n">
-        <v>0.2744903965182491</v>
+        <v>0.3562505643766279</v>
       </c>
       <c r="F173" t="n">
-        <v>0.03314146537265095</v>
+        <v>0.07627650621247742</v>
       </c>
       <c r="G173" t="n">
-        <v>0.2004906639662166</v>
+        <v>0.2885319903902851</v>
       </c>
       <c r="H173" t="n">
-        <v>0.03002846857946737</v>
+        <v>0.08451330537149518</v>
       </c>
       <c r="I173" t="n">
-        <v>0.9870247310393735</v>
+        <v>0.9770363207431212</v>
       </c>
       <c r="J173" t="n">
-        <v>0.003487861172750315</v>
+        <v>0.01016503837907348</v>
       </c>
     </row>
     <row r="174">
@@ -6003,22 +6003,22 @@
         <v>60</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3239931127101658</v>
+        <v>0.3715172163450706</v>
       </c>
       <c r="F174" t="n">
-        <v>0.07442668787988657</v>
+        <v>0.05562730420287952</v>
       </c>
       <c r="G174" t="n">
-        <v>0.2369634183906869</v>
+        <v>0.2966694391400723</v>
       </c>
       <c r="H174" t="n">
-        <v>0.06517015153424698</v>
+        <v>0.05818763059318004</v>
       </c>
       <c r="I174" t="n">
-        <v>0.980876784890075</v>
+        <v>0.9755455534999424</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01082745140615621</v>
+        <v>0.009095431127035399</v>
       </c>
     </row>
     <row r="175">
@@ -6035,22 +6035,22 @@
         <v>70</v>
       </c>
       <c r="E175" t="n">
-        <v>0.3634843719867448</v>
+        <v>0.2809695274028572</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1152012757496976</v>
+        <v>0.03198635902919832</v>
       </c>
       <c r="G175" t="n">
-        <v>0.2922651148863294</v>
+        <v>0.2010436948527502</v>
       </c>
       <c r="H175" t="n">
-        <v>0.1080522339802177</v>
+        <v>0.02949517444141702</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9762968915003173</v>
+        <v>0.9867864695518713</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01384167317606263</v>
+        <v>0.001511998174055526</v>
       </c>
     </row>
     <row r="176">
@@ -6067,22 +6067,22 @@
         <v>80</v>
       </c>
       <c r="E176" t="n">
-        <v>0.3431454122979481</v>
+        <v>0.361357020422913</v>
       </c>
       <c r="F176" t="n">
-        <v>0.06920003219812255</v>
+        <v>0.083493141896576</v>
       </c>
       <c r="G176" t="n">
-        <v>0.2663441646301327</v>
+        <v>0.2809997642081088</v>
       </c>
       <c r="H176" t="n">
-        <v>0.05887374019048975</v>
+        <v>0.07698353688194039</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9797258826072073</v>
+        <v>0.9759206306526929</v>
       </c>
       <c r="J176" t="n">
-        <v>0.007356354116503684</v>
+        <v>0.01323439617534487</v>
       </c>
     </row>
     <row r="177">
@@ -6099,22 +6099,22 @@
         <v>20</v>
       </c>
       <c r="E177" t="n">
-        <v>0.3209565891654485</v>
+        <v>0.3189872142344224</v>
       </c>
       <c r="F177" t="n">
-        <v>0.04570804983799498</v>
+        <v>0.08702329530087113</v>
       </c>
       <c r="G177" t="n">
-        <v>0.2370137707499903</v>
+        <v>0.2359534184486214</v>
       </c>
       <c r="H177" t="n">
-        <v>0.04182010388811194</v>
+        <v>0.08368801988538586</v>
       </c>
       <c r="I177" t="n">
-        <v>0.9821672709257377</v>
+        <v>0.9823279430930085</v>
       </c>
       <c r="J177" t="n">
-        <v>0.005161066639250267</v>
+        <v>0.00826505792436852</v>
       </c>
     </row>
     <row r="178">
@@ -6131,22 +6131,22 @@
         <v>30</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3529702139904224</v>
+        <v>0.2769203843904787</v>
       </c>
       <c r="F178" t="n">
-        <v>0.1213525234299922</v>
+        <v>0.04046052460793471</v>
       </c>
       <c r="G178" t="n">
-        <v>0.2756744190775018</v>
+        <v>0.206297610774496</v>
       </c>
       <c r="H178" t="n">
-        <v>0.1089951200077618</v>
+        <v>0.04714620984881663</v>
       </c>
       <c r="I178" t="n">
-        <v>0.9776868590565604</v>
+        <v>0.986987837788717</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01456813290674517</v>
+        <v>0.003103542780177594</v>
       </c>
     </row>
     <row r="179">
@@ -6163,22 +6163,22 @@
         <v>40</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2956863741946072</v>
+        <v>0.3563663261536696</v>
       </c>
       <c r="F179" t="n">
-        <v>0.04743655311442407</v>
+        <v>0.1245411442556005</v>
       </c>
       <c r="G179" t="n">
-        <v>0.2144460739521552</v>
+        <v>0.2840999157987719</v>
       </c>
       <c r="H179" t="n">
-        <v>0.04341950840627704</v>
+        <v>0.123249078986372</v>
       </c>
       <c r="I179" t="n">
-        <v>0.9848380527015216</v>
+        <v>0.9757563088109377</v>
       </c>
       <c r="J179" t="n">
-        <v>0.005291240668508878</v>
+        <v>0.01674775390167263</v>
       </c>
     </row>
     <row r="180">
@@ -6195,22 +6195,22 @@
         <v>50</v>
       </c>
       <c r="E180" t="n">
-        <v>0.3899376846088244</v>
+        <v>0.4393003763508909</v>
       </c>
       <c r="F180" t="n">
-        <v>0.07207427189744982</v>
+        <v>0.1267549958485933</v>
       </c>
       <c r="G180" t="n">
-        <v>0.3201139487289139</v>
+        <v>0.3617646873968247</v>
       </c>
       <c r="H180" t="n">
-        <v>0.08716695078811981</v>
+        <v>0.09875347694382945</v>
       </c>
       <c r="I180" t="n">
-        <v>0.9733900817471257</v>
+        <v>0.9622933722904639</v>
       </c>
       <c r="J180" t="n">
-        <v>0.009366618747691768</v>
+        <v>0.02838441387994569</v>
       </c>
     </row>
     <row r="181">
@@ -6227,22 +6227,22 @@
         <v>60</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3032336144142555</v>
+        <v>0.3592396305015338</v>
       </c>
       <c r="F181" t="n">
-        <v>0.09210449661705217</v>
+        <v>0.07413569024884174</v>
       </c>
       <c r="G181" t="n">
-        <v>0.2230794899186419</v>
+        <v>0.2816869027180858</v>
       </c>
       <c r="H181" t="n">
-        <v>0.09093264419704007</v>
+        <v>0.07217587423250665</v>
       </c>
       <c r="I181" t="n">
-        <v>0.9826356580976994</v>
+        <v>0.9766742454264852</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01263457988579657</v>
+        <v>0.01019311192611265</v>
       </c>
     </row>
     <row r="182">
@@ -6259,22 +6259,22 @@
         <v>70</v>
       </c>
       <c r="E182" t="n">
-        <v>0.3090599771068977</v>
+        <v>0.3622955437617882</v>
       </c>
       <c r="F182" t="n">
-        <v>0.04314287491191131</v>
+        <v>0.1117482290242644</v>
       </c>
       <c r="G182" t="n">
-        <v>0.2278093547813166</v>
+        <v>0.2844848225109781</v>
       </c>
       <c r="H182" t="n">
-        <v>0.03443981006176869</v>
+        <v>0.1131369445132716</v>
       </c>
       <c r="I182" t="n">
-        <v>0.9837383802427901</v>
+        <v>0.975594976602515</v>
       </c>
       <c r="J182" t="n">
-        <v>0.003632521125943661</v>
+        <v>0.01687956765733304</v>
       </c>
     </row>
     <row r="183">
@@ -6291,22 +6291,22 @@
         <v>80</v>
       </c>
       <c r="E183" t="n">
-        <v>0.2897353550633175</v>
+        <v>0.3215308757241662</v>
       </c>
       <c r="F183" t="n">
-        <v>0.03924366422993932</v>
+        <v>0.02884682967361308</v>
       </c>
       <c r="G183" t="n">
-        <v>0.2250452587111801</v>
+        <v>0.2397630307799518</v>
       </c>
       <c r="H183" t="n">
-        <v>0.04725341427989381</v>
+        <v>0.01493777516192853</v>
       </c>
       <c r="I183" t="n">
-        <v>0.9856550671360995</v>
+        <v>0.9820047483984498</v>
       </c>
       <c r="J183" t="n">
-        <v>0.003921086887516734</v>
+        <v>0.005354742691642555</v>
       </c>
     </row>
     <row r="184">
@@ -6323,22 +6323,22 @@
         <v>20</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3270372272888861</v>
+        <v>0.3402132962902079</v>
       </c>
       <c r="F184" t="n">
-        <v>0.09095768644286222</v>
+        <v>0.09466492093347642</v>
       </c>
       <c r="G184" t="n">
-        <v>0.2415998567357189</v>
+        <v>0.2640248367533868</v>
       </c>
       <c r="H184" t="n">
-        <v>0.07548564801525286</v>
+        <v>0.1030707589150748</v>
       </c>
       <c r="I184" t="n">
-        <v>0.9815611313944533</v>
+        <v>0.9770464181947578</v>
       </c>
       <c r="J184" t="n">
-        <v>0.008762934602819747</v>
+        <v>0.01851591363865301</v>
       </c>
     </row>
     <row r="185">
@@ -6355,22 +6355,22 @@
         <v>30</v>
       </c>
       <c r="E185" t="n">
-        <v>0.3881076647966415</v>
+        <v>0.2944159003959035</v>
       </c>
       <c r="F185" t="n">
-        <v>0.05557016043406696</v>
+        <v>0.04712023875197398</v>
       </c>
       <c r="G185" t="n">
-        <v>0.3059494820510532</v>
+        <v>0.2310144534948645</v>
       </c>
       <c r="H185" t="n">
-        <v>0.04778207705777329</v>
+        <v>0.0478492904056899</v>
       </c>
       <c r="I185" t="n">
-        <v>0.974293581921126</v>
+        <v>0.9854109091312244</v>
       </c>
       <c r="J185" t="n">
-        <v>0.006758207115322033</v>
+        <v>0.003339539620208685</v>
       </c>
     </row>
     <row r="186">
@@ -6387,22 +6387,22 @@
         <v>40</v>
       </c>
       <c r="E186" t="n">
-        <v>0.314190474933796</v>
+        <v>0.2737672896391693</v>
       </c>
       <c r="F186" t="n">
-        <v>0.09884656020660353</v>
+        <v>0.0207810223356553</v>
       </c>
       <c r="G186" t="n">
-        <v>0.2287109442912725</v>
+        <v>0.1941637111971881</v>
       </c>
       <c r="H186" t="n">
-        <v>0.08339455840264227</v>
+        <v>0.02230047554519715</v>
       </c>
       <c r="I186" t="n">
-        <v>0.9825827037274202</v>
+        <v>0.9869831145534548</v>
       </c>
       <c r="J186" t="n">
-        <v>0.009076996788892792</v>
+        <v>0.003464376182499945</v>
       </c>
     </row>
     <row r="187">
@@ -6419,22 +6419,22 @@
         <v>50</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3344006454856833</v>
+        <v>0.3029561946072553</v>
       </c>
       <c r="F187" t="n">
-        <v>0.05964672236821</v>
+        <v>0.02791858875389472</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2591877138611395</v>
+        <v>0.2164341835080951</v>
       </c>
       <c r="H187" t="n">
-        <v>0.06827833602495947</v>
+        <v>0.01910064809192149</v>
       </c>
       <c r="I187" t="n">
-        <v>0.9797165519597361</v>
+        <v>0.9844439895868125</v>
       </c>
       <c r="J187" t="n">
-        <v>0.009669873950417662</v>
+        <v>0.002583968935292283</v>
       </c>
     </row>
     <row r="188">
@@ -6451,22 +6451,22 @@
         <v>60</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3122182931793697</v>
+        <v>0.3580103708831316</v>
       </c>
       <c r="F188" t="n">
-        <v>0.06513447901108402</v>
+        <v>0.1796152651639367</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2390025222045307</v>
+        <v>0.26612039865212</v>
       </c>
       <c r="H188" t="n">
-        <v>0.05931709179030091</v>
+        <v>0.1494433868719057</v>
       </c>
       <c r="I188" t="n">
-        <v>0.9835674436265688</v>
+        <v>0.9747550482748901</v>
       </c>
       <c r="J188" t="n">
-        <v>0.004805833711117844</v>
+        <v>0.02523110760373724</v>
       </c>
     </row>
     <row r="189">
@@ -6483,22 +6483,22 @@
         <v>70</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3548607223661053</v>
+        <v>0.3322237778344529</v>
       </c>
       <c r="F189" t="n">
-        <v>0.03624245941469241</v>
+        <v>0.07437202467903041</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2784267151878101</v>
+        <v>0.2612985885759672</v>
       </c>
       <c r="H189" t="n">
-        <v>0.04774754573224658</v>
+        <v>0.08524281234029675</v>
       </c>
       <c r="I189" t="n">
-        <v>0.9782701390922014</v>
+        <v>0.9789467670191675</v>
       </c>
       <c r="J189" t="n">
-        <v>0.005398186351424106</v>
+        <v>0.01418381445163794</v>
       </c>
     </row>
     <row r="190">
@@ -6515,22 +6515,22 @@
         <v>80</v>
       </c>
       <c r="E190" t="n">
-        <v>0.315806359185751</v>
+        <v>0.3569706276309498</v>
       </c>
       <c r="F190" t="n">
-        <v>0.03306886496999565</v>
+        <v>0.08370819972040942</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2406590676043502</v>
+        <v>0.2706449020222516</v>
       </c>
       <c r="H190" t="n">
-        <v>0.02990044621020716</v>
+        <v>0.09042446173811376</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9831303545900079</v>
+        <v>0.9769756596045521</v>
       </c>
       <c r="J190" t="n">
-        <v>0.002884259797598003</v>
+        <v>0.01078385809672441</v>
       </c>
     </row>
     <row r="191">
@@ -6547,22 +6547,22 @@
         <v>20</v>
       </c>
       <c r="E191" t="n">
-        <v>0.3752370941516306</v>
+        <v>0.3476374284637295</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1347818866889444</v>
+        <v>0.04921512038317756</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2932232441596304</v>
+        <v>0.2783404976208141</v>
       </c>
       <c r="H191" t="n">
-        <v>0.1135220126004794</v>
+        <v>0.06117592946627495</v>
       </c>
       <c r="I191" t="n">
-        <v>0.9729176114833832</v>
+        <v>0.9791406677570524</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01934304601223052</v>
+        <v>0.006168911925937673</v>
       </c>
     </row>
     <row r="192">
@@ -6579,22 +6579,22 @@
         <v>30</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3073845453235631</v>
+        <v>0.2942878932303791</v>
       </c>
       <c r="F192" t="n">
-        <v>0.05815164169184048</v>
+        <v>0.06318553444011904</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2353266627154131</v>
+        <v>0.2180345572725742</v>
       </c>
       <c r="H192" t="n">
-        <v>0.07404362864745864</v>
+        <v>0.06492303988718057</v>
       </c>
       <c r="I192" t="n">
-        <v>0.983670879992407</v>
+        <v>0.985100041678743</v>
       </c>
       <c r="J192" t="n">
-        <v>0.005590611162229919</v>
+        <v>0.005583673570032611</v>
       </c>
     </row>
     <row r="193">
@@ -6611,22 +6611,22 @@
         <v>40</v>
       </c>
       <c r="E193" t="n">
-        <v>0.3105900657031542</v>
+        <v>0.3595648657240001</v>
       </c>
       <c r="F193" t="n">
-        <v>0.05784885199255102</v>
+        <v>0.08325756552315849</v>
       </c>
       <c r="G193" t="n">
-        <v>0.22895999858386</v>
+        <v>0.2906144482777199</v>
       </c>
       <c r="H193" t="n">
-        <v>0.05053667980874738</v>
+        <v>0.0925947932991668</v>
       </c>
       <c r="I193" t="n">
-        <v>0.9831341887168656</v>
+        <v>0.9753379942541279</v>
       </c>
       <c r="J193" t="n">
-        <v>0.006628886929788761</v>
+        <v>0.01612186998369184</v>
       </c>
     </row>
     <row r="194">
@@ -6643,22 +6643,22 @@
         <v>50</v>
       </c>
       <c r="E194" t="n">
-        <v>0.2771845572599074</v>
+        <v>0.3345658216841505</v>
       </c>
       <c r="F194" t="n">
-        <v>0.03407505142042022</v>
+        <v>0.1008940052180382</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2083969037571579</v>
+        <v>0.2680218822853097</v>
       </c>
       <c r="H194" t="n">
-        <v>0.03198772325259943</v>
+        <v>0.1006721991779762</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9869912627208256</v>
+        <v>0.9795308163956109</v>
       </c>
       <c r="J194" t="n">
-        <v>0.00248749617978296</v>
+        <v>0.01272174842511549</v>
       </c>
     </row>
     <row r="195">
@@ -6675,22 +6675,22 @@
         <v>60</v>
       </c>
       <c r="E195" t="n">
-        <v>0.278829650818717</v>
+        <v>0.3652060912143166</v>
       </c>
       <c r="F195" t="n">
-        <v>0.04959169739103399</v>
+        <v>0.09007459937099217</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2096336763934706</v>
+        <v>0.2992875121603024</v>
       </c>
       <c r="H195" t="n">
-        <v>0.05117364828652223</v>
+        <v>0.09883099851188344</v>
       </c>
       <c r="I195" t="n">
-        <v>0.9869462119803043</v>
+        <v>0.9765854945649964</v>
       </c>
       <c r="J195" t="n">
-        <v>0.003114594414780487</v>
+        <v>0.01071809119751387</v>
       </c>
     </row>
     <row r="196">
@@ -6707,22 +6707,22 @@
         <v>70</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2747821021606036</v>
+        <v>0.3389161543633916</v>
       </c>
       <c r="F196" t="n">
-        <v>0.04853711906724253</v>
+        <v>0.05077879467814523</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1973262565748619</v>
+        <v>0.2482143755786949</v>
       </c>
       <c r="H196" t="n">
-        <v>0.05067450254181322</v>
+        <v>0.03542113433163311</v>
       </c>
       <c r="I196" t="n">
-        <v>0.9860525309828004</v>
+        <v>0.9804831467060386</v>
       </c>
       <c r="J196" t="n">
-        <v>0.007374429047590217</v>
+        <v>0.004849352798244964</v>
       </c>
     </row>
     <row r="197">
@@ -6739,22 +6739,22 @@
         <v>80</v>
       </c>
       <c r="E197" t="n">
-        <v>0.3480994492269573</v>
+        <v>0.3428038230757692</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0932938435275491</v>
+        <v>0.07644788016512347</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2713321875321947</v>
+        <v>0.2710028416016459</v>
       </c>
       <c r="H197" t="n">
-        <v>0.07796463629729204</v>
+        <v>0.08201250667205194</v>
       </c>
       <c r="I197" t="n">
-        <v>0.9791333201336734</v>
+        <v>0.9790229288789722</v>
       </c>
       <c r="J197" t="n">
-        <v>0.009105473760289015</v>
+        <v>0.008927425956742542</v>
       </c>
     </row>
     <row r="198">
@@ -6771,22 +6771,22 @@
         <v>20</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4622339966543004</v>
+        <v>0.2844792070654255</v>
       </c>
       <c r="F198" t="n">
-        <v>0.311810161406842</v>
+        <v>0.03484172569840947</v>
       </c>
       <c r="G198" t="n">
-        <v>0.3494985011016385</v>
+        <v>0.2123115146131196</v>
       </c>
       <c r="H198" t="n">
-        <v>0.2313979716223078</v>
+        <v>0.02697961107154281</v>
       </c>
       <c r="I198" t="n">
-        <v>0.9373618033298834</v>
+        <v>0.986121352611551</v>
       </c>
       <c r="J198" t="n">
-        <v>0.09423609731518597</v>
+        <v>0.0034788411089789</v>
       </c>
     </row>
     <row r="199">
@@ -6803,22 +6803,22 @@
         <v>30</v>
       </c>
       <c r="E199" t="n">
-        <v>0.3097340644179556</v>
+        <v>0.3191470400302069</v>
       </c>
       <c r="F199" t="n">
-        <v>0.05978787161924239</v>
+        <v>0.07504249088340119</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2280178592020007</v>
+        <v>0.2325702573501065</v>
       </c>
       <c r="H199" t="n">
-        <v>0.05448080559432052</v>
+        <v>0.06639452791161983</v>
       </c>
       <c r="I199" t="n">
-        <v>0.9822760905377919</v>
+        <v>0.9818023611260529</v>
       </c>
       <c r="J199" t="n">
-        <v>0.008954972519284937</v>
+        <v>0.008198639345756095</v>
       </c>
     </row>
     <row r="200">
@@ -6835,22 +6835,22 @@
         <v>40</v>
       </c>
       <c r="E200" t="n">
-        <v>0.3566158452901756</v>
+        <v>0.2921594133424109</v>
       </c>
       <c r="F200" t="n">
-        <v>0.08351576366053616</v>
+        <v>0.02677735825779258</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2916796901337909</v>
+        <v>0.226202034320504</v>
       </c>
       <c r="H200" t="n">
-        <v>0.07130172160685086</v>
+        <v>0.03149618778394005</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9771644974194255</v>
+        <v>0.9851192925684271</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01095295418011955</v>
+        <v>0.004575608563875451</v>
       </c>
     </row>
     <row r="201">
@@ -6867,22 +6867,22 @@
         <v>50</v>
       </c>
       <c r="E201" t="n">
-        <v>0.3261339619341572</v>
+        <v>0.2871002414824964</v>
       </c>
       <c r="F201" t="n">
-        <v>0.06619677512073638</v>
+        <v>0.0474995788614784</v>
       </c>
       <c r="G201" t="n">
-        <v>0.25272751066039</v>
+        <v>0.2109911850232072</v>
       </c>
       <c r="H201" t="n">
-        <v>0.06120091474412939</v>
+        <v>0.04714594473700575</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9810640476140179</v>
+        <v>0.9858641716793125</v>
       </c>
       <c r="J201" t="n">
-        <v>0.00805432888610997</v>
+        <v>0.004140520411751041</v>
       </c>
     </row>
     <row r="202">
@@ -6899,22 +6899,22 @@
         <v>60</v>
       </c>
       <c r="E202" t="n">
-        <v>0.3170920123372055</v>
+        <v>0.392563716100447</v>
       </c>
       <c r="F202" t="n">
-        <v>0.05045179025730741</v>
+        <v>0.09284240523449377</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2442144985246295</v>
+        <v>0.3156582505106033</v>
       </c>
       <c r="H202" t="n">
-        <v>0.05781330743116215</v>
+        <v>0.09946151697398807</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9822732813104029</v>
+        <v>0.9719848793352611</v>
       </c>
       <c r="J202" t="n">
-        <v>0.006980320325614399</v>
+        <v>0.01510284521565051</v>
       </c>
     </row>
     <row r="203">
@@ -6931,22 +6931,22 @@
         <v>70</v>
       </c>
       <c r="E203" t="n">
-        <v>0.3825555237860025</v>
+        <v>0.33182227843186</v>
       </c>
       <c r="F203" t="n">
-        <v>0.1336988006758245</v>
+        <v>0.08665431878396655</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2944405606375584</v>
+        <v>0.26619582010244</v>
       </c>
       <c r="H203" t="n">
-        <v>0.1285708415268808</v>
+        <v>0.09343448983938593</v>
       </c>
       <c r="I203" t="n">
-        <v>0.9725883352621201</v>
+        <v>0.9808259423535525</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01899230301138111</v>
+        <v>0.00879448644464474</v>
       </c>
     </row>
     <row r="204">
@@ -6963,22 +6963,22 @@
         <v>80</v>
       </c>
       <c r="E204" t="n">
-        <v>0.3493347448767904</v>
+        <v>0.3856622479564351</v>
       </c>
       <c r="F204" t="n">
-        <v>0.09267760618852555</v>
+        <v>0.1071132666528197</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2661702971991992</v>
+        <v>0.3274971727018066</v>
       </c>
       <c r="H204" t="n">
-        <v>0.07788365087942357</v>
+        <v>0.1239852899713702</v>
       </c>
       <c r="I204" t="n">
-        <v>0.9788312097350242</v>
+        <v>0.9705109534081865</v>
       </c>
       <c r="J204" t="n">
-        <v>0.009242048710502581</v>
+        <v>0.02133564721290328</v>
       </c>
     </row>
     <row r="205">
@@ -6995,22 +6995,22 @@
         <v>20</v>
       </c>
       <c r="E205" t="n">
-        <v>0.2631100716718491</v>
+        <v>0.3525910580050974</v>
       </c>
       <c r="F205" t="n">
-        <v>0.01403702065243726</v>
+        <v>0.1735651107978176</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1827427823668767</v>
+        <v>0.2836203209453403</v>
       </c>
       <c r="H205" t="n">
-        <v>0.01043125184757817</v>
+        <v>0.1684349459513333</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9883087275012583</v>
+        <v>0.9731319270981429</v>
       </c>
       <c r="J205" t="n">
-        <v>0.001112982109104532</v>
+        <v>0.03021024067065424</v>
       </c>
     </row>
     <row r="206">
@@ -7027,22 +7027,22 @@
         <v>30</v>
       </c>
       <c r="E206" t="n">
-        <v>0.3147533906435239</v>
+        <v>0.2605184393329236</v>
       </c>
       <c r="F206" t="n">
-        <v>0.01650429693328309</v>
+        <v>0.02586408889083123</v>
       </c>
       <c r="G206" t="n">
-        <v>0.235083294909891</v>
+        <v>0.1772761265920898</v>
       </c>
       <c r="H206" t="n">
-        <v>0.02539015865988599</v>
+        <v>0.01048187809876992</v>
       </c>
       <c r="I206" t="n">
-        <v>0.9830929961732207</v>
+        <v>0.9885293949996979</v>
       </c>
       <c r="J206" t="n">
-        <v>0.002834830961501394</v>
+        <v>0.001809909553087387</v>
       </c>
     </row>
     <row r="207">
@@ -7059,22 +7059,22 @@
         <v>40</v>
       </c>
       <c r="E207" t="n">
-        <v>0.3852461145663377</v>
+        <v>0.2986669205766113</v>
       </c>
       <c r="F207" t="n">
-        <v>0.1203090081545669</v>
+        <v>0.03839997502453799</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2966370678225539</v>
+        <v>0.2156968153123839</v>
       </c>
       <c r="H207" t="n">
-        <v>0.1258859181135065</v>
+        <v>0.03630083509203243</v>
       </c>
       <c r="I207" t="n">
-        <v>0.9739831423513214</v>
+        <v>0.984376934712078</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01391126926975837</v>
+        <v>0.004954856510913892</v>
       </c>
     </row>
     <row r="208">
@@ -7091,22 +7091,22 @@
         <v>50</v>
       </c>
       <c r="E208" t="n">
-        <v>0.3294174987912133</v>
+        <v>0.2616250432432225</v>
       </c>
       <c r="F208" t="n">
-        <v>0.149040588498396</v>
+        <v>0.0154257618938932</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2422333645201188</v>
+        <v>0.1877703351987521</v>
       </c>
       <c r="H208" t="n">
-        <v>0.1345128449569606</v>
+        <v>0.02042359460935652</v>
       </c>
       <c r="I208" t="n">
-        <v>0.9794846351852422</v>
+        <v>0.9882990438530509</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01837739607704151</v>
+        <v>0.002115380892066612</v>
       </c>
     </row>
     <row r="209">
@@ -7123,22 +7123,22 @@
         <v>60</v>
       </c>
       <c r="E209" t="n">
-        <v>0.3029736760957847</v>
+        <v>0.2608126959268386</v>
       </c>
       <c r="F209" t="n">
-        <v>0.05653596520507854</v>
+        <v>0.04436309818766606</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2280056535008144</v>
+        <v>0.1878463154175705</v>
       </c>
       <c r="H209" t="n">
-        <v>0.04506910872705543</v>
+        <v>0.03187106261681587</v>
       </c>
       <c r="I209" t="n">
-        <v>0.9844626165094862</v>
+        <v>0.9884739104751763</v>
       </c>
       <c r="J209" t="n">
-        <v>0.004340327467413354</v>
+        <v>0.002929283381887988</v>
       </c>
     </row>
     <row r="210">
@@ -7155,22 +7155,22 @@
         <v>70</v>
       </c>
       <c r="E210" t="n">
-        <v>0.2835559526715724</v>
+        <v>0.342568708988379</v>
       </c>
       <c r="F210" t="n">
-        <v>0.04083619500852152</v>
+        <v>0.05343122037204934</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1999581955901062</v>
+        <v>0.279782452827928</v>
       </c>
       <c r="H210" t="n">
-        <v>0.04662121825671976</v>
+        <v>0.06255033076318185</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9862515167377911</v>
+        <v>0.9802612011996574</v>
       </c>
       <c r="J210" t="n">
-        <v>0.003501381914162331</v>
+        <v>0.004029801990921968</v>
       </c>
     </row>
     <row r="211">
@@ -7187,22 +7187,22 @@
         <v>80</v>
       </c>
       <c r="E211" t="n">
-        <v>0.3661267140737857</v>
+        <v>0.2765948617243178</v>
       </c>
       <c r="F211" t="n">
-        <v>0.07862675202653024</v>
+        <v>0.006704846264458767</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2786358747578475</v>
+        <v>0.1987816827527077</v>
       </c>
       <c r="H211" t="n">
-        <v>0.06755222150078961</v>
+        <v>0.01129858062450458</v>
       </c>
       <c r="I211" t="n">
-        <v>0.9761147756271786</v>
+        <v>0.9870336268942317</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01036119388549924</v>
+        <v>0.001469266703974274</v>
       </c>
     </row>
     <row r="212">
@@ -7219,22 +7219,22 @@
         <v>20</v>
       </c>
       <c r="E212" t="n">
-        <v>0.340459297439034</v>
+        <v>0.281609265754401</v>
       </c>
       <c r="F212" t="n">
-        <v>0.04241945249104346</v>
+        <v>0.03407327452917894</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2630190434451703</v>
+        <v>0.1977253691818248</v>
       </c>
       <c r="H212" t="n">
-        <v>0.02624745214867632</v>
+        <v>0.02965865661852538</v>
       </c>
       <c r="I212" t="n">
-        <v>0.9794661817947834</v>
+        <v>0.9866685692384223</v>
       </c>
       <c r="J212" t="n">
-        <v>0.007889137674549917</v>
+        <v>0.002130166383177415</v>
       </c>
     </row>
     <row r="213">
@@ -7251,22 +7251,22 @@
         <v>30</v>
       </c>
       <c r="E213" t="n">
-        <v>0.3191733276792967</v>
+        <v>0.3432642470021094</v>
       </c>
       <c r="F213" t="n">
-        <v>0.03637560085378688</v>
+        <v>0.12117941469239</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2464585828077828</v>
+        <v>0.2661985905270555</v>
       </c>
       <c r="H213" t="n">
-        <v>0.05383585375714629</v>
+        <v>0.1181437689157682</v>
       </c>
       <c r="I213" t="n">
-        <v>0.9821269192952403</v>
+        <v>0.9784299895363748</v>
       </c>
       <c r="J213" t="n">
-        <v>0.00645852115799455</v>
+        <v>0.01452074402583196</v>
       </c>
     </row>
     <row r="214">
@@ -7283,22 +7283,22 @@
         <v>40</v>
       </c>
       <c r="E214" t="n">
-        <v>0.3017777800931157</v>
+        <v>0.3336856297706104</v>
       </c>
       <c r="F214" t="n">
-        <v>0.04766193645225831</v>
+        <v>0.06016796957510696</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2300769895772353</v>
+        <v>0.2687469045880572</v>
       </c>
       <c r="H214" t="n">
-        <v>0.03182744243812317</v>
+        <v>0.0832211173841554</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9845269599244755</v>
+        <v>0.9799027367443598</v>
       </c>
       <c r="J214" t="n">
-        <v>0.003826270873970166</v>
+        <v>0.009402296446522386</v>
       </c>
     </row>
     <row r="215">
@@ -7315,22 +7315,22 @@
         <v>50</v>
       </c>
       <c r="E215" t="n">
-        <v>0.2718535520781902</v>
+        <v>0.3079684905938312</v>
       </c>
       <c r="F215" t="n">
-        <v>0.01685679538498099</v>
+        <v>0.04152354437263431</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1864422362181555</v>
+        <v>0.2225794939561835</v>
       </c>
       <c r="H215" t="n">
-        <v>0.02618889711211542</v>
+        <v>0.03440865249249214</v>
       </c>
       <c r="I215" t="n">
-        <v>0.9874725755124256</v>
+        <v>0.9833885607139378</v>
       </c>
       <c r="J215" t="n">
-        <v>0.001733406749529719</v>
+        <v>0.00522564761195998</v>
       </c>
     </row>
     <row r="216">
@@ -7347,22 +7347,22 @@
         <v>60</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2780244851201586</v>
+        <v>0.2899110198562349</v>
       </c>
       <c r="F216" t="n">
-        <v>0.04998219797089906</v>
+        <v>0.06399744099189847</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2090457000994548</v>
+        <v>0.2189001973378096</v>
       </c>
       <c r="H216" t="n">
-        <v>0.0444047388175012</v>
+        <v>0.06462324298903294</v>
       </c>
       <c r="I216" t="n">
-        <v>0.9864618241341363</v>
+        <v>0.9855307712903812</v>
       </c>
       <c r="J216" t="n">
-        <v>0.00559325197503836</v>
+        <v>0.00575282002572411</v>
       </c>
     </row>
     <row r="217">
@@ -7379,22 +7379,22 @@
         <v>70</v>
       </c>
       <c r="E217" t="n">
-        <v>0.3145406248791536</v>
+        <v>0.3481178098810067</v>
       </c>
       <c r="F217" t="n">
-        <v>0.05521218495659073</v>
+        <v>0.1019150545111408</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2560959187953835</v>
+        <v>0.2655422318380424</v>
       </c>
       <c r="H217" t="n">
-        <v>0.06338597775991145</v>
+        <v>0.07717228773986802</v>
       </c>
       <c r="I217" t="n">
-        <v>0.9828625849346221</v>
+        <v>0.9783342482181594</v>
       </c>
       <c r="J217" t="n">
-        <v>0.006045673437101317</v>
+        <v>0.01180075428221324</v>
       </c>
     </row>
     <row r="218">
@@ -7411,22 +7411,22 @@
         <v>80</v>
       </c>
       <c r="E218" t="n">
-        <v>0.4019868953222399</v>
+        <v>0.3313908338245727</v>
       </c>
       <c r="F218" t="n">
-        <v>0.09419972376656843</v>
+        <v>0.07596600008344477</v>
       </c>
       <c r="G218" t="n">
-        <v>0.3477392589400783</v>
+        <v>0.2562839591944263</v>
       </c>
       <c r="H218" t="n">
-        <v>0.1031107522389239</v>
+        <v>0.07967335750458057</v>
       </c>
       <c r="I218" t="n">
-        <v>0.9723833791353332</v>
+        <v>0.9796378099733067</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01108730946500723</v>
+        <v>0.01184311487434139</v>
       </c>
     </row>
     <row r="219">
@@ -7443,22 +7443,22 @@
         <v>20</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3834451013565885</v>
+        <v>0.4271777968199479</v>
       </c>
       <c r="F219" t="n">
-        <v>0.1090774109957387</v>
+        <v>0.1256558528012479</v>
       </c>
       <c r="G219" t="n">
-        <v>0.3080622729711092</v>
+        <v>0.3570371277735748</v>
       </c>
       <c r="H219" t="n">
-        <v>0.1132851187886664</v>
+        <v>0.1229770878906551</v>
       </c>
       <c r="I219" t="n">
-        <v>0.9710165889253572</v>
+        <v>0.9637376421752106</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02302916365809602</v>
+        <v>0.02861730022154488</v>
       </c>
     </row>
     <row r="220">
@@ -7475,22 +7475,22 @@
         <v>30</v>
       </c>
       <c r="E220" t="n">
-        <v>0.3287870525439643</v>
+        <v>0.3314642914050924</v>
       </c>
       <c r="F220" t="n">
-        <v>0.06626400102247032</v>
+        <v>0.08114555554885257</v>
       </c>
       <c r="G220" t="n">
-        <v>0.272778602182023</v>
+        <v>0.2704666098381444</v>
       </c>
       <c r="H220" t="n">
-        <v>0.07495370540844086</v>
+        <v>0.08422054259893288</v>
       </c>
       <c r="I220" t="n">
-        <v>0.9814249488464271</v>
+        <v>0.9811039896856872</v>
       </c>
       <c r="J220" t="n">
-        <v>0.006489131135828228</v>
+        <v>0.008048301283457017</v>
       </c>
     </row>
     <row r="221">
@@ -7507,22 +7507,22 @@
         <v>40</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2915331409442026</v>
+        <v>0.3017695729614714</v>
       </c>
       <c r="F221" t="n">
-        <v>0.05142447560402946</v>
+        <v>0.04346706035574484</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2134820167454812</v>
+        <v>0.2421836319529693</v>
       </c>
       <c r="H221" t="n">
-        <v>0.04439552070777193</v>
+        <v>0.05511005801677692</v>
       </c>
       <c r="I221" t="n">
-        <v>0.9848206970514732</v>
+        <v>0.9841873308585756</v>
       </c>
       <c r="J221" t="n">
-        <v>0.006734820548149967</v>
+        <v>0.005003872525259726</v>
       </c>
     </row>
     <row r="222">
@@ -7539,22 +7539,22 @@
         <v>50</v>
       </c>
       <c r="E222" t="n">
-        <v>0.3320974454087909</v>
+        <v>0.3786456836670584</v>
       </c>
       <c r="F222" t="n">
-        <v>0.06634281863668458</v>
+        <v>0.1098406958569531</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2540162031073872</v>
+        <v>0.2985649871137279</v>
       </c>
       <c r="H222" t="n">
-        <v>0.06079269274258256</v>
+        <v>0.1121822474478478</v>
       </c>
       <c r="I222" t="n">
-        <v>0.9810449373322893</v>
+        <v>0.9752303866360015</v>
       </c>
       <c r="J222" t="n">
-        <v>0.00620895353576211</v>
+        <v>0.01210798396465218</v>
       </c>
     </row>
     <row r="223">
@@ -7571,22 +7571,22 @@
         <v>60</v>
       </c>
       <c r="E223" t="n">
-        <v>0.3452576171114738</v>
+        <v>0.3177548198720997</v>
       </c>
       <c r="F223" t="n">
-        <v>0.09886260707450201</v>
+        <v>0.05650949116654885</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2683382390015402</v>
+        <v>0.2483403439348499</v>
       </c>
       <c r="H223" t="n">
-        <v>0.08932353715128351</v>
+        <v>0.0538189252360553</v>
       </c>
       <c r="I223" t="n">
-        <v>0.9789522393680773</v>
+        <v>0.9827456027440423</v>
       </c>
       <c r="J223" t="n">
-        <v>0.009868805935821829</v>
+        <v>0.005298597394404929</v>
       </c>
     </row>
     <row r="224">
@@ -7603,22 +7603,22 @@
         <v>70</v>
       </c>
       <c r="E224" t="n">
-        <v>0.3166200315463493</v>
+        <v>0.2816413468643367</v>
       </c>
       <c r="F224" t="n">
-        <v>0.05356137317446377</v>
+        <v>0.04199158414837348</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2363716193206016</v>
+        <v>0.2113629659723004</v>
       </c>
       <c r="H224" t="n">
-        <v>0.04824978508032036</v>
+        <v>0.03745802286947789</v>
       </c>
       <c r="I224" t="n">
-        <v>0.9830102289893785</v>
+        <v>0.9863833163166722</v>
       </c>
       <c r="J224" t="n">
-        <v>0.004364885790564049</v>
+        <v>0.003935343123282894</v>
       </c>
     </row>
     <row r="225">
@@ -7635,22 +7635,22 @@
         <v>80</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4293227627336467</v>
+        <v>0.2964828890645927</v>
       </c>
       <c r="F225" t="n">
-        <v>0.1251436600778874</v>
+        <v>0.02218897089095366</v>
       </c>
       <c r="G225" t="n">
-        <v>0.3481819651016302</v>
+        <v>0.2317524811037054</v>
       </c>
       <c r="H225" t="n">
-        <v>0.1402598991744901</v>
+        <v>0.02912806853621627</v>
       </c>
       <c r="I225" t="n">
-        <v>0.9635453441122394</v>
+        <v>0.9848507254966098</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02914737172148246</v>
+        <v>0.003523356885049175</v>
       </c>
     </row>
     <row r="226">
@@ -7667,22 +7667,22 @@
         <v>20</v>
       </c>
       <c r="E226" t="n">
-        <v>0.3251689108559491</v>
+        <v>0.3300573945603536</v>
       </c>
       <c r="F226" t="n">
-        <v>0.06928295588318278</v>
+        <v>0.07041990589195814</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2372926027217679</v>
+        <v>0.2412653588417225</v>
       </c>
       <c r="H226" t="n">
-        <v>0.04812357104285896</v>
+        <v>0.0591628201072375</v>
       </c>
       <c r="I226" t="n">
-        <v>0.9820166131699271</v>
+        <v>0.9810304454926314</v>
       </c>
       <c r="J226" t="n">
-        <v>0.006300316759738515</v>
+        <v>0.007282455365506683</v>
       </c>
     </row>
     <row r="227">
@@ -7699,22 +7699,22 @@
         <v>30</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3173714009309042</v>
+        <v>0.272033700471275</v>
       </c>
       <c r="F227" t="n">
-        <v>0.02580261853012586</v>
+        <v>0.03486312234164094</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2261487945599504</v>
+        <v>0.1976074605590462</v>
       </c>
       <c r="H227" t="n">
-        <v>0.03079412272367759</v>
+        <v>0.02503246368250427</v>
       </c>
       <c r="I227" t="n">
-        <v>0.9825198367196274</v>
+        <v>0.987430548707821</v>
       </c>
       <c r="J227" t="n">
-        <v>0.004854752700233834</v>
+        <v>0.002614711487526978</v>
       </c>
     </row>
     <row r="228">
@@ -7731,22 +7731,22 @@
         <v>40</v>
       </c>
       <c r="E228" t="n">
-        <v>0.2802868408452197</v>
+        <v>0.2565187830842885</v>
       </c>
       <c r="F228" t="n">
-        <v>0.06305147707001126</v>
+        <v>0.03554096273074957</v>
       </c>
       <c r="G228" t="n">
-        <v>0.207544787937672</v>
+        <v>0.1875574282813739</v>
       </c>
       <c r="H228" t="n">
-        <v>0.06193396807649385</v>
+        <v>0.02671472767576004</v>
       </c>
       <c r="I228" t="n">
-        <v>0.9867089644260669</v>
+        <v>0.9889938211870417</v>
       </c>
       <c r="J228" t="n">
-        <v>0.004454482399481633</v>
+        <v>0.001721273835486382</v>
       </c>
     </row>
     <row r="229">
@@ -7763,22 +7763,22 @@
         <v>50</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3035420542756611</v>
+        <v>0.298723341108821</v>
       </c>
       <c r="F229" t="n">
-        <v>0.05846197717540897</v>
+        <v>0.03287457178807179</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2279843654559828</v>
+        <v>0.2160699166567361</v>
       </c>
       <c r="H229" t="n">
-        <v>0.0600275009192808</v>
+        <v>0.03728882846237467</v>
       </c>
       <c r="I229" t="n">
-        <v>0.9832237439522217</v>
+        <v>0.9843421198828617</v>
       </c>
       <c r="J229" t="n">
-        <v>0.008938600635266842</v>
+        <v>0.005660068115394447</v>
       </c>
     </row>
     <row r="230">
@@ -7795,22 +7795,22 @@
         <v>60</v>
       </c>
       <c r="E230" t="n">
-        <v>0.3070945531288789</v>
+        <v>0.3121261096750675</v>
       </c>
       <c r="F230" t="n">
-        <v>0.09939723223691035</v>
+        <v>0.03608187673572217</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2342828412822657</v>
+        <v>0.2278823315686014</v>
       </c>
       <c r="H230" t="n">
-        <v>0.100846110395547</v>
+        <v>0.04821048704467158</v>
       </c>
       <c r="I230" t="n">
-        <v>0.9833775811661279</v>
+        <v>0.9826046468407741</v>
       </c>
       <c r="J230" t="n">
-        <v>0.009835626488386607</v>
+        <v>0.007137626129205004</v>
       </c>
     </row>
     <row r="231">
@@ -7827,22 +7827,22 @@
         <v>70</v>
       </c>
       <c r="E231" t="n">
-        <v>0.4051327757165478</v>
+        <v>0.4937660277672217</v>
       </c>
       <c r="F231" t="n">
-        <v>0.1703283672102057</v>
+        <v>0.2873670336523803</v>
       </c>
       <c r="G231" t="n">
-        <v>0.3078614090067618</v>
+        <v>0.4041590942246758</v>
       </c>
       <c r="H231" t="n">
-        <v>0.1696446107326086</v>
+        <v>0.2675268307531116</v>
       </c>
       <c r="I231" t="n">
-        <v>0.9641628662393202</v>
+        <v>0.9476922333957265</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03535550828514607</v>
+        <v>0.06118084072196805</v>
       </c>
     </row>
     <row r="232">
@@ -7859,22 +7859,22 @@
         <v>80</v>
       </c>
       <c r="E232" t="n">
-        <v>0.3048303134917701</v>
+        <v>0.3716829510660513</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0100018830560831</v>
+        <v>0.09823292039468116</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2268392233832408</v>
+        <v>0.3013296165612228</v>
       </c>
       <c r="H232" t="n">
-        <v>0.01234794695106229</v>
+        <v>0.09657985565785332</v>
       </c>
       <c r="I232" t="n">
-        <v>0.9842543769733751</v>
+        <v>0.9730851585670186</v>
       </c>
       <c r="J232" t="n">
-        <v>0.001768712566089758</v>
+        <v>0.01891359235192457</v>
       </c>
     </row>
     <row r="233">
@@ -7891,22 +7891,22 @@
         <v>20</v>
       </c>
       <c r="E233" t="n">
-        <v>0.3093663104322777</v>
+        <v>0.2926848965329607</v>
       </c>
       <c r="F233" t="n">
-        <v>0.03582243231966423</v>
+        <v>0.04976111418056588</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2245860588523345</v>
+        <v>0.2257956248691466</v>
       </c>
       <c r="H233" t="n">
-        <v>0.0334460459969861</v>
+        <v>0.0584612328656423</v>
       </c>
       <c r="I233" t="n">
-        <v>0.9838363639006682</v>
+        <v>0.9850180618813227</v>
       </c>
       <c r="J233" t="n">
-        <v>0.002925525335413616</v>
+        <v>0.005818463096714919</v>
       </c>
     </row>
     <row r="234">
@@ -7923,22 +7923,22 @@
         <v>30</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3042002286079202</v>
+        <v>0.330505395051855</v>
       </c>
       <c r="F234" t="n">
-        <v>0.04262619158010345</v>
+        <v>0.09795368324725469</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2300515410330116</v>
+        <v>0.2514773631503032</v>
       </c>
       <c r="H234" t="n">
-        <v>0.03581409610540567</v>
+        <v>0.08867297793269738</v>
       </c>
       <c r="I234" t="n">
-        <v>0.9837865946443903</v>
+        <v>0.9809828575667885</v>
       </c>
       <c r="J234" t="n">
-        <v>0.005150321891884034</v>
+        <v>0.009493141623434618</v>
       </c>
     </row>
     <row r="235">
@@ -7955,22 +7955,22 @@
         <v>40</v>
       </c>
       <c r="E235" t="n">
-        <v>0.320571267849245</v>
+        <v>0.3607080859816104</v>
       </c>
       <c r="F235" t="n">
-        <v>0.06564403285927591</v>
+        <v>0.08945532434118741</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2605971325205947</v>
+        <v>0.2744012021422438</v>
       </c>
       <c r="H235" t="n">
-        <v>0.0720773830162937</v>
+        <v>0.07579806701026877</v>
       </c>
       <c r="I235" t="n">
-        <v>0.9819042165153371</v>
+        <v>0.9762558743025626</v>
       </c>
       <c r="J235" t="n">
-        <v>0.00755231214637464</v>
+        <v>0.01243826155526214</v>
       </c>
     </row>
     <row r="236">
@@ -7987,22 +7987,22 @@
         <v>50</v>
       </c>
       <c r="E236" t="n">
-        <v>0.3899502164530309</v>
+        <v>0.2569754872463067</v>
       </c>
       <c r="F236" t="n">
-        <v>0.09114682837851117</v>
+        <v>0.01387518595122221</v>
       </c>
       <c r="G236" t="n">
-        <v>0.3112487481370054</v>
+        <v>0.1845151160488797</v>
       </c>
       <c r="H236" t="n">
-        <v>0.08924555615157263</v>
+        <v>0.01257665047192243</v>
       </c>
       <c r="I236" t="n">
-        <v>0.9733216599207635</v>
+        <v>0.9888576876399275</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01158989076677226</v>
+        <v>0.0009534364061979131</v>
       </c>
     </row>
     <row r="237">
@@ -8019,22 +8019,22 @@
         <v>60</v>
       </c>
       <c r="E237" t="n">
-        <v>0.4547367021413946</v>
+        <v>0.3090004466005877</v>
       </c>
       <c r="F237" t="n">
-        <v>0.1791761756280648</v>
+        <v>0.05150778905832952</v>
       </c>
       <c r="G237" t="n">
-        <v>0.3562349751488387</v>
+        <v>0.2284396395181582</v>
       </c>
       <c r="H237" t="n">
-        <v>0.1554088182817216</v>
+        <v>0.05303327064678057</v>
       </c>
       <c r="I237" t="n">
-        <v>0.9592530788471845</v>
+        <v>0.9825772754153093</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03571042904863841</v>
+        <v>0.008345720546081384</v>
       </c>
     </row>
     <row r="238">
@@ -8051,22 +8051,22 @@
         <v>70</v>
       </c>
       <c r="E238" t="n">
-        <v>0.3590907351993738</v>
+        <v>0.3609201899624153</v>
       </c>
       <c r="F238" t="n">
-        <v>0.06392689659626936</v>
+        <v>0.06917131748454408</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2888693080805915</v>
+        <v>0.2571540708890886</v>
       </c>
       <c r="H238" t="n">
-        <v>0.07012230517058253</v>
+        <v>0.05164024314514469</v>
       </c>
       <c r="I238" t="n">
-        <v>0.9780764001152683</v>
+        <v>0.9773829769284854</v>
       </c>
       <c r="J238" t="n">
-        <v>0.006488887990810517</v>
+        <v>0.007309644866625853</v>
       </c>
     </row>
     <row r="239">
@@ -8083,22 +8083,22 @@
         <v>80</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3473350249073796</v>
+        <v>0.3258741017377188</v>
       </c>
       <c r="F239" t="n">
-        <v>0.05229274495647603</v>
+        <v>0.06896290119459057</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2742971555995065</v>
+        <v>0.2409000295492636</v>
       </c>
       <c r="H239" t="n">
-        <v>0.05609854526145057</v>
+        <v>0.06258576356000395</v>
       </c>
       <c r="I239" t="n">
-        <v>0.9785643949585386</v>
+        <v>0.9805238883813063</v>
       </c>
       <c r="J239" t="n">
-        <v>0.008595749068671565</v>
+        <v>0.01088738140281871</v>
       </c>
     </row>
     <row r="240">
@@ -8115,22 +8115,22 @@
         <v>20</v>
       </c>
       <c r="E240" t="n">
-        <v>0.2889294467038394</v>
+        <v>0.2798585663513012</v>
       </c>
       <c r="F240" t="n">
-        <v>0.07215419325434434</v>
+        <v>0.04011444839968763</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2318734392080933</v>
+        <v>0.2004772545151658</v>
       </c>
       <c r="H240" t="n">
-        <v>0.07719648501855274</v>
+        <v>0.03315515198514785</v>
       </c>
       <c r="I240" t="n">
-        <v>0.9857032672068515</v>
+        <v>0.9868540796548443</v>
       </c>
       <c r="J240" t="n">
-        <v>0.00552600158104714</v>
+        <v>0.002417179491051058</v>
       </c>
     </row>
     <row r="241">
@@ -8147,22 +8147,22 @@
         <v>30</v>
       </c>
       <c r="E241" t="n">
-        <v>0.3330314257798604</v>
+        <v>0.319871479455887</v>
       </c>
       <c r="F241" t="n">
-        <v>0.1006349965339471</v>
+        <v>0.07508497732496527</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2686144719184271</v>
+        <v>0.2329749322995164</v>
       </c>
       <c r="H241" t="n">
-        <v>0.1120728763215496</v>
+        <v>0.07376368732227702</v>
       </c>
       <c r="I241" t="n">
-        <v>0.9788844967307764</v>
+        <v>0.9810261971561539</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01487576174564887</v>
+        <v>0.009975535462957371</v>
       </c>
     </row>
     <row r="242">
@@ -8179,22 +8179,22 @@
         <v>40</v>
       </c>
       <c r="E242" t="n">
-        <v>0.3388088915916325</v>
+        <v>0.2986529768405336</v>
       </c>
       <c r="F242" t="n">
-        <v>0.07620541482747673</v>
+        <v>0.01437187880174257</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2547106963037675</v>
+        <v>0.2213088217060447</v>
       </c>
       <c r="H242" t="n">
-        <v>0.07885534391297333</v>
+        <v>0.01494463806761015</v>
       </c>
       <c r="I242" t="n">
-        <v>0.9802733475017167</v>
+        <v>0.9847268791743671</v>
       </c>
       <c r="J242" t="n">
-        <v>0.006909954598452932</v>
+        <v>0.002873097621141953</v>
       </c>
     </row>
     <row r="243">
@@ -8211,22 +8211,22 @@
         <v>50</v>
       </c>
       <c r="E243" t="n">
-        <v>0.3449489515297655</v>
+        <v>0.3736245285046589</v>
       </c>
       <c r="F243" t="n">
-        <v>0.07808140319204115</v>
+        <v>0.08809382822960388</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2770885657053072</v>
+        <v>0.2962600585783598</v>
       </c>
       <c r="H243" t="n">
-        <v>0.0756149660350169</v>
+        <v>0.0793858658616967</v>
       </c>
       <c r="I243" t="n">
-        <v>0.9796318521896488</v>
+        <v>0.975706339518967</v>
       </c>
       <c r="J243" t="n">
-        <v>0.007942084656558414</v>
+        <v>0.01016893556262178</v>
       </c>
     </row>
     <row r="244">
@@ -8243,22 +8243,22 @@
         <v>60</v>
       </c>
       <c r="E244" t="n">
-        <v>0.3035596669712343</v>
+        <v>0.3239349834743452</v>
       </c>
       <c r="F244" t="n">
-        <v>0.04637031098729739</v>
+        <v>0.05191521883439875</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2254562503755003</v>
+        <v>0.2519958829763276</v>
       </c>
       <c r="H244" t="n">
-        <v>0.05758611018320731</v>
+        <v>0.06451628040295244</v>
       </c>
       <c r="I244" t="n">
-        <v>0.9832450720317076</v>
+        <v>0.9813245512805409</v>
       </c>
       <c r="J244" t="n">
-        <v>0.008374925705026027</v>
+        <v>0.007231889794172304</v>
       </c>
     </row>
     <row r="245">
@@ -8275,22 +8275,22 @@
         <v>70</v>
       </c>
       <c r="E245" t="n">
-        <v>0.3356632564134913</v>
+        <v>0.4097662445329097</v>
       </c>
       <c r="F245" t="n">
-        <v>0.05618058649873808</v>
+        <v>0.1611066246890814</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2546710754515669</v>
+        <v>0.3387688079515129</v>
       </c>
       <c r="H245" t="n">
-        <v>0.06688474567819777</v>
+        <v>0.1593150283223956</v>
       </c>
       <c r="I245" t="n">
-        <v>0.980775830992962</v>
+        <v>0.9679296305502477</v>
       </c>
       <c r="J245" t="n">
-        <v>0.005146489261839259</v>
+        <v>0.02332576677742378</v>
       </c>
     </row>
     <row r="246">
@@ -8307,22 +8307,22 @@
         <v>80</v>
       </c>
       <c r="E246" t="n">
-        <v>0.3580175017289229</v>
+        <v>0.4139009271558953</v>
       </c>
       <c r="F246" t="n">
-        <v>0.08616091847000511</v>
+        <v>0.2349470677221852</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2877505701276267</v>
+        <v>0.3270866736138504</v>
       </c>
       <c r="H246" t="n">
-        <v>0.06433041352839025</v>
+        <v>0.2291683679815113</v>
       </c>
       <c r="I246" t="n">
-        <v>0.9768502691759375</v>
+        <v>0.9640191672708536</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01255108901760284</v>
+        <v>0.04109143617289508</v>
       </c>
     </row>
     <row r="247">
@@ -8339,22 +8339,22 @@
         <v>20</v>
       </c>
       <c r="E247" t="n">
-        <v>0.390087228309891</v>
+        <v>0.3601961171422285</v>
       </c>
       <c r="F247" t="n">
-        <v>0.1022093902350387</v>
+        <v>0.1219466328121507</v>
       </c>
       <c r="G247" t="n">
-        <v>0.305549545808078</v>
+        <v>0.2859981179851798</v>
       </c>
       <c r="H247" t="n">
-        <v>0.1135096789167866</v>
+        <v>0.1242426163250858</v>
       </c>
       <c r="I247" t="n">
-        <v>0.9701323585654166</v>
+        <v>0.9733100566606255</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02118676341320673</v>
+        <v>0.02328063712327344</v>
       </c>
     </row>
     <row r="248">
@@ -8371,22 +8371,22 @@
         <v>30</v>
       </c>
       <c r="E248" t="n">
-        <v>0.343283735031419</v>
+        <v>0.3547120942250343</v>
       </c>
       <c r="F248" t="n">
-        <v>0.1054456892644762</v>
+        <v>0.06948277879333657</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2629614725202223</v>
+        <v>0.2564150280157161</v>
       </c>
       <c r="H248" t="n">
-        <v>0.08488037588016988</v>
+        <v>0.0520057752641243</v>
       </c>
       <c r="I248" t="n">
-        <v>0.9787654551202085</v>
+        <v>0.9788118991482715</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01111163741975031</v>
+        <v>0.00571781243675201</v>
       </c>
     </row>
     <row r="249">
@@ -8403,22 +8403,22 @@
         <v>40</v>
       </c>
       <c r="E249" t="n">
-        <v>0.355542869225863</v>
+        <v>0.305790307069946</v>
       </c>
       <c r="F249" t="n">
-        <v>0.05740155662378384</v>
+        <v>0.06978519319022641</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2886074427786697</v>
+        <v>0.2252639929026491</v>
       </c>
       <c r="H249" t="n">
-        <v>0.06642057060174623</v>
+        <v>0.06935760509228653</v>
       </c>
       <c r="I249" t="n">
-        <v>0.9786525933658685</v>
+        <v>0.98368220481142</v>
       </c>
       <c r="J249" t="n">
-        <v>0.005040546926082177</v>
+        <v>0.007102938992736505</v>
       </c>
     </row>
     <row r="250">
@@ -8435,22 +8435,22 @@
         <v>50</v>
       </c>
       <c r="E250" t="n">
-        <v>0.2898530664868182</v>
+        <v>0.2890427801086797</v>
       </c>
       <c r="F250" t="n">
-        <v>0.06862300523123468</v>
+        <v>0.04047219163825722</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2122304639831193</v>
+        <v>0.2090695632459674</v>
       </c>
       <c r="H250" t="n">
-        <v>0.06478560940711149</v>
+        <v>0.04380123484434884</v>
       </c>
       <c r="I250" t="n">
-        <v>0.9850693164702629</v>
+        <v>0.9855808651754268</v>
       </c>
       <c r="J250" t="n">
-        <v>0.00714257898943596</v>
+        <v>0.004196448846881033</v>
       </c>
     </row>
     <row r="251">
@@ -8467,22 +8467,22 @@
         <v>60</v>
       </c>
       <c r="E251" t="n">
-        <v>0.2806692386570958</v>
+        <v>0.3408652198349131</v>
       </c>
       <c r="F251" t="n">
-        <v>0.04604151009574349</v>
+        <v>0.06491849538998928</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2053793295814346</v>
+        <v>0.247683284601885</v>
       </c>
       <c r="H251" t="n">
-        <v>0.05745403571241477</v>
+        <v>0.04198322278134506</v>
       </c>
       <c r="I251" t="n">
-        <v>0.9866010646578731</v>
+        <v>0.9798431013051531</v>
       </c>
       <c r="J251" t="n">
-        <v>0.003639565427293399</v>
+        <v>0.007692649561304275</v>
       </c>
     </row>
     <row r="252">
@@ -8499,22 +8499,22 @@
         <v>70</v>
       </c>
       <c r="E252" t="n">
-        <v>0.2769491513025746</v>
+        <v>0.3553362491987281</v>
       </c>
       <c r="F252" t="n">
-        <v>0.02674845601230133</v>
+        <v>0.1125815702369661</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1972874011138722</v>
+        <v>0.2841279037816227</v>
       </c>
       <c r="H252" t="n">
-        <v>0.02245986889577183</v>
+        <v>0.1317901249736623</v>
       </c>
       <c r="I252" t="n">
-        <v>0.986832768452461</v>
+        <v>0.9746708515537797</v>
       </c>
       <c r="J252" t="n">
-        <v>0.003048022574313974</v>
+        <v>0.02067786157119341</v>
       </c>
     </row>
     <row r="253">
@@ -8531,22 +8531,22 @@
         <v>80</v>
       </c>
       <c r="E253" t="n">
-        <v>0.3651945457946028</v>
+        <v>0.2826283949489296</v>
       </c>
       <c r="F253" t="n">
-        <v>0.1073609313351804</v>
+        <v>0.06681754124256503</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2876366123619985</v>
+        <v>0.2144221465424423</v>
       </c>
       <c r="H253" t="n">
-        <v>0.1121652203720647</v>
+        <v>0.06997548041121675</v>
       </c>
       <c r="I253" t="n">
-        <v>0.9735064595376001</v>
+        <v>0.9860668609366764</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01992584110664842</v>
+        <v>0.00640008365170561</v>
       </c>
     </row>
     <row r="254">
@@ -8563,22 +8563,22 @@
         <v>20</v>
       </c>
       <c r="E254" t="n">
-        <v>0.3574175996501734</v>
+        <v>0.3348169298357216</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0429403711047787</v>
+        <v>0.05653358869300416</v>
       </c>
       <c r="G254" t="n">
-        <v>0.2766167969151905</v>
+        <v>0.2640710319716083</v>
       </c>
       <c r="H254" t="n">
-        <v>0.0338520099714987</v>
+        <v>0.07075323893952579</v>
       </c>
       <c r="I254" t="n">
-        <v>0.9778038507758936</v>
+        <v>0.9794269417356418</v>
       </c>
       <c r="J254" t="n">
-        <v>0.006311623788506114</v>
+        <v>0.01056399017865738</v>
       </c>
     </row>
     <row r="255">
@@ -8595,22 +8595,22 @@
         <v>30</v>
       </c>
       <c r="E255" t="n">
-        <v>0.3454850999770093</v>
+        <v>0.3909795077885369</v>
       </c>
       <c r="F255" t="n">
-        <v>0.05773213275632197</v>
+        <v>0.0652219337420912</v>
       </c>
       <c r="G255" t="n">
-        <v>0.2632653819554294</v>
+        <v>0.2982911090569528</v>
       </c>
       <c r="H255" t="n">
-        <v>0.06041440213081618</v>
+        <v>0.05227435812579363</v>
       </c>
       <c r="I255" t="n">
-        <v>0.9784334587293489</v>
+        <v>0.9730610698380765</v>
       </c>
       <c r="J255" t="n">
-        <v>0.009028599413106946</v>
+        <v>0.01046769449379036</v>
       </c>
     </row>
     <row r="256">
@@ -8627,22 +8627,22 @@
         <v>40</v>
       </c>
       <c r="E256" t="n">
-        <v>0.2845931753213906</v>
+        <v>0.2525688842500881</v>
       </c>
       <c r="F256" t="n">
-        <v>0.02742970640820023</v>
+        <v>0.01234519869638837</v>
       </c>
       <c r="G256" t="n">
-        <v>0.2007207092960275</v>
+        <v>0.1761139182763901</v>
       </c>
       <c r="H256" t="n">
-        <v>0.0237281810233944</v>
+        <v>0.007759780355995913</v>
       </c>
       <c r="I256" t="n">
-        <v>0.9859259868066935</v>
+        <v>0.9892373372117532</v>
       </c>
       <c r="J256" t="n">
-        <v>0.003847551508803802</v>
+        <v>0.0008762218314383428</v>
       </c>
     </row>
     <row r="257">
@@ -8659,22 +8659,22 @@
         <v>50</v>
       </c>
       <c r="E257" t="n">
-        <v>0.3860798442914795</v>
+        <v>0.3103664755722885</v>
       </c>
       <c r="F257" t="n">
-        <v>0.1019272541175103</v>
+        <v>0.07214027755641422</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3117304802738519</v>
+        <v>0.2280056299653745</v>
       </c>
       <c r="H257" t="n">
-        <v>0.1124592105934432</v>
+        <v>0.05876629321534557</v>
       </c>
       <c r="I257" t="n">
-        <v>0.9715693415501173</v>
+        <v>0.9834030686048528</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01929202975648556</v>
+        <v>0.00618783999879515</v>
       </c>
     </row>
     <row r="258">
@@ -8691,22 +8691,22 @@
         <v>60</v>
       </c>
       <c r="E258" t="n">
-        <v>0.3783766536891137</v>
+        <v>0.3321869415420119</v>
       </c>
       <c r="F258" t="n">
-        <v>0.1209845411538189</v>
+        <v>0.03662611002595224</v>
       </c>
       <c r="G258" t="n">
-        <v>0.2905979756277942</v>
+        <v>0.2474842467114987</v>
       </c>
       <c r="H258" t="n">
-        <v>0.1100486504443277</v>
+        <v>0.03748210021677637</v>
       </c>
       <c r="I258" t="n">
-        <v>0.9712248402117067</v>
+        <v>0.9809055297340791</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02202325335497314</v>
+        <v>0.00515159507035512</v>
       </c>
     </row>
     <row r="259">
@@ -8723,22 +8723,22 @@
         <v>70</v>
       </c>
       <c r="E259" t="n">
-        <v>0.2654123560515239</v>
+        <v>0.2699531401472751</v>
       </c>
       <c r="F259" t="n">
-        <v>0.03437411438558767</v>
+        <v>0.02489241462818771</v>
       </c>
       <c r="G259" t="n">
-        <v>0.2000422661495725</v>
+        <v>0.1962977785926672</v>
       </c>
       <c r="H259" t="n">
-        <v>0.04224817342217593</v>
+        <v>0.03105600435312158</v>
       </c>
       <c r="I259" t="n">
-        <v>0.9881053449835434</v>
+        <v>0.9875805176508156</v>
       </c>
       <c r="J259" t="n">
-        <v>0.002128589200621638</v>
+        <v>0.002502850306428162</v>
       </c>
     </row>
     <row r="260">
@@ -8755,22 +8755,22 @@
         <v>80</v>
       </c>
       <c r="E260" t="n">
-        <v>0.3109822028080647</v>
+        <v>0.3224620529349448</v>
       </c>
       <c r="F260" t="n">
-        <v>0.03965378773604458</v>
+        <v>0.08153832467517692</v>
       </c>
       <c r="G260" t="n">
-        <v>0.2338951988081709</v>
+        <v>0.2440553509334077</v>
       </c>
       <c r="H260" t="n">
-        <v>0.03483586009462539</v>
+        <v>0.07461540238950405</v>
       </c>
       <c r="I260" t="n">
-        <v>0.9828153113035614</v>
+        <v>0.9815985934385255</v>
       </c>
       <c r="J260" t="n">
-        <v>0.006395988060469482</v>
+        <v>0.008945022922115912</v>
       </c>
     </row>
     <row r="261">
@@ -8787,22 +8787,22 @@
         <v>20</v>
       </c>
       <c r="E261" t="n">
-        <v>0.3708164463297711</v>
+        <v>0.3023191895945992</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1710566438134877</v>
+        <v>0.03384041576520944</v>
       </c>
       <c r="G261" t="n">
-        <v>0.2946584055095928</v>
+        <v>0.2261135837530708</v>
       </c>
       <c r="H261" t="n">
-        <v>0.157455049334914</v>
+        <v>0.04490993343043461</v>
       </c>
       <c r="I261" t="n">
-        <v>0.9722537379607499</v>
+        <v>0.9841180408230651</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02538965468412448</v>
+        <v>0.004534138881524655</v>
       </c>
     </row>
     <row r="262">
@@ -8819,22 +8819,22 @@
         <v>30</v>
       </c>
       <c r="E262" t="n">
-        <v>0.35703499304615</v>
+        <v>0.3546843531674891</v>
       </c>
       <c r="F262" t="n">
-        <v>0.127772200057122</v>
+        <v>0.03967234111580014</v>
       </c>
       <c r="G262" t="n">
-        <v>0.2942159552218871</v>
+        <v>0.2678121658750831</v>
       </c>
       <c r="H262" t="n">
-        <v>0.1501376032129606</v>
+        <v>0.02350774111196786</v>
       </c>
       <c r="I262" t="n">
-        <v>0.9739459683156264</v>
+        <v>0.9788229819502433</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02139171443891671</v>
+        <v>0.003019701923365327</v>
       </c>
     </row>
     <row r="263">
@@ -8851,22 +8851,22 @@
         <v>40</v>
       </c>
       <c r="E263" t="n">
-        <v>0.3006645914581557</v>
+        <v>0.3835889465513608</v>
       </c>
       <c r="F263" t="n">
-        <v>0.02254166048503674</v>
+        <v>0.1339466096570776</v>
       </c>
       <c r="G263" t="n">
-        <v>0.2267949944826638</v>
+        <v>0.3185303837626171</v>
       </c>
       <c r="H263" t="n">
-        <v>0.03186819636312865</v>
+        <v>0.1341047386116048</v>
       </c>
       <c r="I263" t="n">
-        <v>0.9845043637553077</v>
+        <v>0.9722388078376604</v>
       </c>
       <c r="J263" t="n">
-        <v>0.003166865567738885</v>
+        <v>0.01917110718740845</v>
       </c>
     </row>
     <row r="264">
@@ -8883,22 +8883,22 @@
         <v>50</v>
       </c>
       <c r="E264" t="n">
-        <v>0.3293243335544064</v>
+        <v>0.2788556927188313</v>
       </c>
       <c r="F264" t="n">
-        <v>0.09567840744173413</v>
+        <v>0.0404849408477132</v>
       </c>
       <c r="G264" t="n">
-        <v>0.2650936900751625</v>
+        <v>0.2129204000513808</v>
       </c>
       <c r="H264" t="n">
-        <v>0.1000308797030957</v>
+        <v>0.04774713971821543</v>
       </c>
       <c r="I264" t="n">
-        <v>0.980608145548152</v>
+        <v>0.9866044089013863</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01046814716121128</v>
+        <v>0.003669950935896083</v>
       </c>
     </row>
     <row r="265">
@@ -8915,22 +8915,22 @@
         <v>60</v>
       </c>
       <c r="E265" t="n">
-        <v>0.2955988750352171</v>
+        <v>0.2964191572284861</v>
       </c>
       <c r="F265" t="n">
-        <v>0.04943632019539954</v>
+        <v>0.0600992292779501</v>
       </c>
       <c r="G265" t="n">
-        <v>0.2190590090272655</v>
+        <v>0.2308195297906401</v>
       </c>
       <c r="H265" t="n">
-        <v>0.03245279356060544</v>
+        <v>0.06691861272839711</v>
       </c>
       <c r="I265" t="n">
-        <v>0.9853431267083137</v>
+        <v>0.9850303791775857</v>
       </c>
       <c r="J265" t="n">
-        <v>0.003265886370464061</v>
+        <v>0.005042321093138332</v>
       </c>
     </row>
     <row r="266">
@@ -8947,22 +8947,22 @@
         <v>70</v>
       </c>
       <c r="E266" t="n">
-        <v>0.2760581664050365</v>
+        <v>0.3104272838418002</v>
       </c>
       <c r="F266" t="n">
-        <v>0.04626062095648382</v>
+        <v>0.07711815413743943</v>
       </c>
       <c r="G266" t="n">
-        <v>0.2084193768949256</v>
+        <v>0.2229228644805277</v>
       </c>
       <c r="H266" t="n">
-        <v>0.05568783333465066</v>
+        <v>0.05522239469189152</v>
       </c>
       <c r="I266" t="n">
-        <v>0.9869670102503976</v>
+        <v>0.9822562805322151</v>
       </c>
       <c r="J266" t="n">
-        <v>0.003920386131393561</v>
+        <v>0.01001173823687591</v>
       </c>
     </row>
     <row r="267">
@@ -8979,22 +8979,22 @@
         <v>80</v>
       </c>
       <c r="E267" t="n">
-        <v>0.3436901714511088</v>
+        <v>0.3456896738281105</v>
       </c>
       <c r="F267" t="n">
-        <v>0.09166922072184502</v>
+        <v>0.04555529179941926</v>
       </c>
       <c r="G267" t="n">
-        <v>0.2661713623043312</v>
+        <v>0.2611473235693488</v>
       </c>
       <c r="H267" t="n">
-        <v>0.09913332527983469</v>
+        <v>0.01471055563625082</v>
       </c>
       <c r="I267" t="n">
-        <v>0.9771503919562893</v>
+        <v>0.979466543204517</v>
       </c>
       <c r="J267" t="n">
-        <v>0.01645696827043343</v>
+        <v>0.005316038702894194</v>
       </c>
     </row>
     <row r="268">
@@ -9011,22 +9011,22 @@
         <v>20</v>
       </c>
       <c r="E268" t="n">
-        <v>0.3324885146740758</v>
+        <v>0.3098648424890308</v>
       </c>
       <c r="F268" t="n">
-        <v>0.1218311837223541</v>
+        <v>0.04708686845450254</v>
       </c>
       <c r="G268" t="n">
-        <v>0.253430779496829</v>
+        <v>0.2322216239951943</v>
       </c>
       <c r="H268" t="n">
-        <v>0.1212286657092375</v>
+        <v>0.04103918812606575</v>
       </c>
       <c r="I268" t="n">
-        <v>0.9801287849623813</v>
+        <v>0.9828134340160402</v>
       </c>
       <c r="J268" t="n">
-        <v>0.01355101832965064</v>
+        <v>0.006710916716430539</v>
       </c>
     </row>
     <row r="269">
@@ -9043,22 +9043,22 @@
         <v>30</v>
       </c>
       <c r="E269" t="n">
-        <v>0.3141866046539884</v>
+        <v>0.3396218500424565</v>
       </c>
       <c r="F269" t="n">
-        <v>0.05053808665418907</v>
+        <v>0.03059669302068566</v>
       </c>
       <c r="G269" t="n">
-        <v>0.2439803826666867</v>
+        <v>0.2593278234209387</v>
       </c>
       <c r="H269" t="n">
-        <v>0.05527679707231654</v>
+        <v>0.02933778387299841</v>
       </c>
       <c r="I269" t="n">
-        <v>0.9828673577662459</v>
+        <v>0.9801926772665233</v>
       </c>
       <c r="J269" t="n">
-        <v>0.005464606973635478</v>
+        <v>0.004377305977867466</v>
       </c>
     </row>
     <row r="270">
@@ -9075,22 +9075,22 @@
         <v>40</v>
       </c>
       <c r="E270" t="n">
-        <v>0.3015858053948687</v>
+        <v>0.2936988608924406</v>
       </c>
       <c r="F270" t="n">
-        <v>0.03481272580459228</v>
+        <v>0.03527910555583484</v>
       </c>
       <c r="G270" t="n">
-        <v>0.2175938961975755</v>
+        <v>0.2157906674632642</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03666922094030104</v>
+        <v>0.03684075541361533</v>
       </c>
       <c r="I270" t="n">
-        <v>0.9843690774377514</v>
+        <v>0.9848853075973795</v>
       </c>
       <c r="J270" t="n">
-        <v>0.003643872174878354</v>
+        <v>0.004700623077248329</v>
       </c>
     </row>
     <row r="271">
@@ -9107,22 +9107,22 @@
         <v>50</v>
       </c>
       <c r="E271" t="n">
-        <v>0.3575968434105606</v>
+        <v>0.2957099280551913</v>
       </c>
       <c r="F271" t="n">
-        <v>0.06216758625835856</v>
+        <v>0.04991125842736091</v>
       </c>
       <c r="G271" t="n">
-        <v>0.2923560679544567</v>
+        <v>0.2289366552617283</v>
       </c>
       <c r="H271" t="n">
-        <v>0.07511377530214253</v>
+        <v>0.05423742283708059</v>
       </c>
       <c r="I271" t="n">
-        <v>0.9774008810675652</v>
+        <v>0.9851875476375296</v>
       </c>
       <c r="J271" t="n">
-        <v>0.008094177287521579</v>
+        <v>0.003881999630553999</v>
       </c>
     </row>
     <row r="272">
@@ -9139,22 +9139,22 @@
         <v>60</v>
       </c>
       <c r="E272" t="n">
-        <v>0.3049270242992901</v>
+        <v>0.3228331954477679</v>
       </c>
       <c r="F272" t="n">
-        <v>0.07613834536722926</v>
+        <v>0.05446407161064722</v>
       </c>
       <c r="G272" t="n">
-        <v>0.2405648912297118</v>
+        <v>0.2485227826870526</v>
       </c>
       <c r="H272" t="n">
-        <v>0.07527360654824199</v>
+        <v>0.07214801476802947</v>
       </c>
       <c r="I272" t="n">
-        <v>0.9840623609722551</v>
+        <v>0.9809809833277063</v>
       </c>
       <c r="J272" t="n">
-        <v>0.006351121678923217</v>
+        <v>0.009458009286079436</v>
       </c>
     </row>
     <row r="273">
@@ -9171,22 +9171,22 @@
         <v>70</v>
       </c>
       <c r="E273" t="n">
-        <v>0.3160475440006706</v>
+        <v>0.3616201295668741</v>
       </c>
       <c r="F273" t="n">
-        <v>0.08348618188151381</v>
+        <v>0.04856310175027764</v>
       </c>
       <c r="G273" t="n">
-        <v>0.244815624328153</v>
+        <v>0.273837266896552</v>
       </c>
       <c r="H273" t="n">
-        <v>0.09764364406338157</v>
+        <v>0.05247078269521863</v>
       </c>
       <c r="I273" t="n">
-        <v>0.9816086139439602</v>
+        <v>0.9778131191295689</v>
       </c>
       <c r="J273" t="n">
-        <v>0.0117871744046509</v>
+        <v>0.004903417251627263</v>
       </c>
     </row>
     <row r="274">
@@ -9203,22 +9203,22 @@
         <v>80</v>
       </c>
       <c r="E274" t="n">
-        <v>0.3071109551260341</v>
+        <v>0.3163565693559391</v>
       </c>
       <c r="F274" t="n">
-        <v>0.04633398313772569</v>
+        <v>0.06069243303218724</v>
       </c>
       <c r="G274" t="n">
-        <v>0.2277652019887222</v>
+        <v>0.2414216331310006</v>
       </c>
       <c r="H274" t="n">
-        <v>0.03856950149610953</v>
+        <v>0.06028629246868621</v>
       </c>
       <c r="I274" t="n">
-        <v>0.9835112337049366</v>
+        <v>0.982395989442133</v>
       </c>
       <c r="J274" t="n">
-        <v>0.005887025937896124</v>
+        <v>0.006912011802005113</v>
       </c>
     </row>
     <row r="275">
@@ -9235,22 +9235,22 @@
         <v>20</v>
       </c>
       <c r="E275" t="n">
-        <v>0.3303359181767968</v>
+        <v>0.3751424816619482</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0778476879533696</v>
+        <v>0.1465000464386474</v>
       </c>
       <c r="G275" t="n">
-        <v>0.2557364364960409</v>
+        <v>0.3089911850442301</v>
       </c>
       <c r="H275" t="n">
-        <v>0.0817145593966583</v>
+        <v>0.1378249905255227</v>
       </c>
       <c r="I275" t="n">
-        <v>0.9815226831439812</v>
+        <v>0.9740285277783427</v>
       </c>
       <c r="J275" t="n">
-        <v>0.00604561258622412</v>
+        <v>0.01991807789110947</v>
       </c>
     </row>
     <row r="276">
@@ -9267,22 +9267,22 @@
         <v>30</v>
       </c>
       <c r="E276" t="n">
-        <v>0.2997235622531594</v>
+        <v>0.3017330474418714</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0643031738382073</v>
+        <v>0.06043667721657547</v>
       </c>
       <c r="G276" t="n">
-        <v>0.2255424788389766</v>
+        <v>0.2158971213847751</v>
       </c>
       <c r="H276" t="n">
-        <v>0.07442866897792312</v>
+        <v>0.05184996080490469</v>
       </c>
       <c r="I276" t="n">
-        <v>0.9839126450893602</v>
+        <v>0.9841906525111377</v>
       </c>
       <c r="J276" t="n">
-        <v>0.006940633848378122</v>
+        <v>0.005897077574125464</v>
       </c>
     </row>
     <row r="277">
@@ -9299,22 +9299,22 @@
         <v>40</v>
       </c>
       <c r="E277" t="n">
-        <v>0.4094862756248553</v>
+        <v>0.3275209575415317</v>
       </c>
       <c r="F277" t="n">
-        <v>0.228933836613976</v>
+        <v>0.08075010276407801</v>
       </c>
       <c r="G277" t="n">
-        <v>0.3454541333157086</v>
+        <v>0.2501253575724042</v>
       </c>
       <c r="H277" t="n">
-        <v>0.2394879991633078</v>
+        <v>0.08494737723387062</v>
       </c>
       <c r="I277" t="n">
-        <v>0.9569414602010182</v>
+        <v>0.9798849377537919</v>
       </c>
       <c r="J277" t="n">
-        <v>0.05764184836398847</v>
+        <v>0.01273933652137904</v>
       </c>
     </row>
     <row r="278">
@@ -9331,22 +9331,22 @@
         <v>50</v>
       </c>
       <c r="E278" t="n">
-        <v>0.3469835934146351</v>
+        <v>0.3390166010206606</v>
       </c>
       <c r="F278" t="n">
-        <v>0.09652823112459928</v>
+        <v>0.05055383926407785</v>
       </c>
       <c r="G278" t="n">
-        <v>0.2607422327214229</v>
+        <v>0.2619326414734724</v>
       </c>
       <c r="H278" t="n">
-        <v>0.08202154014836024</v>
+        <v>0.04826826119316071</v>
       </c>
       <c r="I278" t="n">
-        <v>0.9782159737133185</v>
+        <v>0.980560595887724</v>
       </c>
       <c r="J278" t="n">
-        <v>0.0115698187976568</v>
+        <v>0.004398559743228181</v>
       </c>
     </row>
     <row r="279">
@@ -9363,22 +9363,22 @@
         <v>60</v>
       </c>
       <c r="E279" t="n">
-        <v>0.3380787468033346</v>
+        <v>0.3404478571262896</v>
       </c>
       <c r="F279" t="n">
-        <v>0.09971108638664326</v>
+        <v>0.05144786426620164</v>
       </c>
       <c r="G279" t="n">
-        <v>0.2628017311913817</v>
+        <v>0.2696617088384238</v>
       </c>
       <c r="H279" t="n">
-        <v>0.1163568729924618</v>
+        <v>0.04998080286682749</v>
       </c>
       <c r="I279" t="n">
-        <v>0.9770578539536178</v>
+        <v>0.9797496330817737</v>
       </c>
       <c r="J279" t="n">
-        <v>0.0194220542792365</v>
+        <v>0.006775306660069625</v>
       </c>
     </row>
     <row r="280">
@@ -9395,22 +9395,22 @@
         <v>70</v>
       </c>
       <c r="E280" t="n">
-        <v>0.3365424601716516</v>
+        <v>0.3620191988472132</v>
       </c>
       <c r="F280" t="n">
-        <v>0.07004170927769239</v>
+        <v>0.1420387791234813</v>
       </c>
       <c r="G280" t="n">
-        <v>0.2615124427614417</v>
+        <v>0.2761551533889252</v>
       </c>
       <c r="H280" t="n">
-        <v>0.05815596995176209</v>
+        <v>0.1299594973383932</v>
       </c>
       <c r="I280" t="n">
-        <v>0.9804965510790309</v>
+        <v>0.9756925876190445</v>
       </c>
       <c r="J280" t="n">
-        <v>0.007045561820176575</v>
+        <v>0.01740747720122906</v>
       </c>
     </row>
     <row r="281">
@@ -9427,22 +9427,22 @@
         <v>80</v>
       </c>
       <c r="E281" t="n">
-        <v>0.2871726975098529</v>
+        <v>0.3037650418496337</v>
       </c>
       <c r="F281" t="n">
-        <v>0.03172254006897142</v>
+        <v>0.03643404853783925</v>
       </c>
       <c r="G281" t="n">
-        <v>0.2057001161829119</v>
+        <v>0.2222015230804572</v>
       </c>
       <c r="H281" t="n">
-        <v>0.03430905782134934</v>
+        <v>0.04766298470038349</v>
       </c>
       <c r="I281" t="n">
-        <v>0.9856094311131512</v>
+        <v>0.9836176372144505</v>
       </c>
       <c r="J281" t="n">
-        <v>0.004147289430018066</v>
+        <v>0.006129348111569932</v>
       </c>
     </row>
     <row r="282">
@@ -9459,22 +9459,22 @@
         <v>20</v>
       </c>
       <c r="E282" t="n">
-        <v>0.3005450919395692</v>
+        <v>0.3372352236035533</v>
       </c>
       <c r="F282" t="n">
-        <v>0.01823448217979527</v>
+        <v>0.08906433712615136</v>
       </c>
       <c r="G282" t="n">
-        <v>0.2156380639504144</v>
+        <v>0.272990628667199</v>
       </c>
       <c r="H282" t="n">
-        <v>0.0209533990305543</v>
+        <v>0.09557945917341373</v>
       </c>
       <c r="I282" t="n">
-        <v>0.9847254676144892</v>
+        <v>0.9779814922004884</v>
       </c>
       <c r="J282" t="n">
-        <v>0.001680461204725451</v>
+        <v>0.01628187697930102</v>
       </c>
     </row>
     <row r="283">
@@ -9491,22 +9491,22 @@
         <v>30</v>
       </c>
       <c r="E283" t="n">
-        <v>0.3723063609443916</v>
+        <v>0.3178924087476128</v>
       </c>
       <c r="F283" t="n">
-        <v>0.1106172741586046</v>
+        <v>0.05148685180204685</v>
       </c>
       <c r="G283" t="n">
-        <v>0.3074636128336069</v>
+        <v>0.2533165201798033</v>
       </c>
       <c r="H283" t="n">
-        <v>0.1171277268515269</v>
+        <v>0.05855242687704771</v>
       </c>
       <c r="I283" t="n">
-        <v>0.9742254857866273</v>
+        <v>0.98279224198972</v>
       </c>
       <c r="J283" t="n">
-        <v>0.01798187235300434</v>
+        <v>0.004627979752161308</v>
       </c>
     </row>
     <row r="284">
@@ -9523,22 +9523,22 @@
         <v>40</v>
       </c>
       <c r="E284" t="n">
-        <v>0.3100705386340012</v>
+        <v>0.3186640554286365</v>
       </c>
       <c r="F284" t="n">
-        <v>0.03194320564805693</v>
+        <v>0.05919222319730812</v>
       </c>
       <c r="G284" t="n">
-        <v>0.2388217121990915</v>
+        <v>0.2347255285559511</v>
       </c>
       <c r="H284" t="n">
-        <v>0.03980599928116267</v>
+        <v>0.06639774084268632</v>
       </c>
       <c r="I284" t="n">
-        <v>0.9831461202472246</v>
+        <v>0.9819005221581522</v>
       </c>
       <c r="J284" t="n">
-        <v>0.005532800621588928</v>
+        <v>0.007878521433812787</v>
       </c>
     </row>
     <row r="285">
@@ -9555,22 +9555,22 @@
         <v>50</v>
       </c>
       <c r="E285" t="n">
-        <v>0.3172309014719258</v>
+        <v>0.3113390291933746</v>
       </c>
       <c r="F285" t="n">
-        <v>0.1085102968276183</v>
+        <v>0.05915784027741797</v>
       </c>
       <c r="G285" t="n">
-        <v>0.2434709662052423</v>
+        <v>0.2301999923455363</v>
       </c>
       <c r="H285" t="n">
-        <v>0.1221168601545967</v>
+        <v>0.05817678014962289</v>
       </c>
       <c r="I285" t="n">
-        <v>0.9790774803219344</v>
+        <v>0.98218872911191</v>
       </c>
       <c r="J285" t="n">
-        <v>0.01961086385008685</v>
+        <v>0.009380155520403494</v>
       </c>
     </row>
     <row r="286">
@@ -9587,22 +9587,22 @@
         <v>60</v>
       </c>
       <c r="E286" t="n">
-        <v>0.3399503527294345</v>
+        <v>0.3415664150073784</v>
       </c>
       <c r="F286" t="n">
-        <v>0.1109248496959185</v>
+        <v>0.04090808045440073</v>
       </c>
       <c r="G286" t="n">
-        <v>0.2689107190296518</v>
+        <v>0.2665736314611415</v>
       </c>
       <c r="H286" t="n">
-        <v>0.1138452692746344</v>
+        <v>0.04669863947684293</v>
       </c>
       <c r="I286" t="n">
-        <v>0.9761241649905479</v>
+        <v>0.9791944630002352</v>
       </c>
       <c r="J286" t="n">
-        <v>0.01974911566553594</v>
+        <v>0.008003870103418123</v>
       </c>
     </row>
     <row r="287">
@@ -9619,22 +9619,22 @@
         <v>70</v>
       </c>
       <c r="E287" t="n">
-        <v>0.3294095915634211</v>
+        <v>0.3151138753252885</v>
       </c>
       <c r="F287" t="n">
-        <v>0.06837941922210533</v>
+        <v>0.0672752812779832</v>
       </c>
       <c r="G287" t="n">
-        <v>0.2495260245626851</v>
+        <v>0.2297728624772055</v>
       </c>
       <c r="H287" t="n">
-        <v>0.05905070683271717</v>
+        <v>0.05037108718271314</v>
       </c>
       <c r="I287" t="n">
-        <v>0.9813861304388448</v>
+        <v>0.9820774120324529</v>
       </c>
       <c r="J287" t="n">
-        <v>0.006233047103664041</v>
+        <v>0.009181455273171225</v>
       </c>
     </row>
     <row r="288">
@@ -9651,22 +9651,22 @@
         <v>80</v>
       </c>
       <c r="E288" t="n">
-        <v>0.3002858627155119</v>
+        <v>0.305559901619825</v>
       </c>
       <c r="F288" t="n">
-        <v>0.08245996381725811</v>
+        <v>0.0755515835763563</v>
       </c>
       <c r="G288" t="n">
-        <v>0.2271309322295832</v>
+        <v>0.2381802078164626</v>
       </c>
       <c r="H288" t="n">
-        <v>0.09252429314837296</v>
+        <v>0.07307401380573739</v>
       </c>
       <c r="I288" t="n">
-        <v>0.9844277093652943</v>
+        <v>0.983285700691979</v>
       </c>
       <c r="J288" t="n">
-        <v>0.007246200885733966</v>
+        <v>0.008086393092283562</v>
       </c>
     </row>
     <row r="289">
@@ -9683,22 +9683,22 @@
         <v>20</v>
       </c>
       <c r="E289" t="n">
-        <v>0.3305326238808554</v>
+        <v>0.316234020069816</v>
       </c>
       <c r="F289" t="n">
-        <v>0.07423637092261862</v>
+        <v>0.05474201254978583</v>
       </c>
       <c r="G289" t="n">
-        <v>0.2575129935886992</v>
+        <v>0.2402823909179988</v>
       </c>
       <c r="H289" t="n">
-        <v>0.06932334950120009</v>
+        <v>0.05131491117852058</v>
       </c>
       <c r="I289" t="n">
-        <v>0.9808406280140209</v>
+        <v>0.981734625214256</v>
       </c>
       <c r="J289" t="n">
-        <v>0.007967131161255974</v>
+        <v>0.009791180169544424</v>
       </c>
     </row>
     <row r="290">
@@ -9715,22 +9715,22 @@
         <v>30</v>
       </c>
       <c r="E290" t="n">
-        <v>0.3359393089543475</v>
+        <v>0.363198929265279</v>
       </c>
       <c r="F290" t="n">
-        <v>0.06488652882165545</v>
+        <v>0.05293170761490722</v>
       </c>
       <c r="G290" t="n">
-        <v>0.2532201323892157</v>
+        <v>0.289464835451133</v>
       </c>
       <c r="H290" t="n">
-        <v>0.05275121169989268</v>
+        <v>0.04524495368340663</v>
       </c>
       <c r="I290" t="n">
-        <v>0.9801512504561792</v>
+        <v>0.9777654570183241</v>
       </c>
       <c r="J290" t="n">
-        <v>0.007897813780585719</v>
+        <v>0.004684655619858562</v>
       </c>
     </row>
     <row r="291">
@@ -9747,22 +9747,22 @@
         <v>40</v>
       </c>
       <c r="E291" t="n">
-        <v>0.4086731896909837</v>
+        <v>0.3318842840374232</v>
       </c>
       <c r="F291" t="n">
-        <v>0.06651945378964697</v>
+        <v>0.074048924289558</v>
       </c>
       <c r="G291" t="n">
-        <v>0.3229044947289141</v>
+        <v>0.2617074731687388</v>
       </c>
       <c r="H291" t="n">
-        <v>0.07480793081409995</v>
+        <v>0.07509933525997339</v>
       </c>
       <c r="I291" t="n">
-        <v>0.9710834083976216</v>
+        <v>0.9799818204552248</v>
       </c>
       <c r="J291" t="n">
-        <v>0.009050120663457364</v>
+        <v>0.009629514494406299</v>
       </c>
     </row>
     <row r="292">
@@ -9779,22 +9779,22 @@
         <v>50</v>
       </c>
       <c r="E292" t="n">
-        <v>0.2904883669734117</v>
+        <v>0.3585520982656835</v>
       </c>
       <c r="F292" t="n">
-        <v>0.05767560690309587</v>
+        <v>0.1420647627756381</v>
       </c>
       <c r="G292" t="n">
-        <v>0.2135291782886161</v>
+        <v>0.2805655660308378</v>
       </c>
       <c r="H292" t="n">
-        <v>0.05573603311102204</v>
+        <v>0.1379127457102587</v>
       </c>
       <c r="I292" t="n">
-        <v>0.985383140220172</v>
+        <v>0.9759438496563586</v>
       </c>
       <c r="J292" t="n">
-        <v>0.005545868357363619</v>
+        <v>0.01773441102200534</v>
       </c>
     </row>
     <row r="293">
@@ -9811,22 +9811,22 @@
         <v>60</v>
       </c>
       <c r="E293" t="n">
-        <v>0.3733538438146791</v>
+        <v>0.30516447441615</v>
       </c>
       <c r="F293" t="n">
-        <v>0.1361585518716732</v>
+        <v>0.03017491324178425</v>
       </c>
       <c r="G293" t="n">
-        <v>0.2952276291217779</v>
+        <v>0.2146959272652299</v>
       </c>
       <c r="H293" t="n">
-        <v>0.1304104190054955</v>
+        <v>0.02717164107967817</v>
       </c>
       <c r="I293" t="n">
-        <v>0.9709752863547358</v>
+        <v>0.9839830370182522</v>
       </c>
       <c r="J293" t="n">
-        <v>0.02548521330146919</v>
+        <v>0.003788431535374042</v>
       </c>
     </row>
     <row r="294">
@@ -9843,22 +9843,22 @@
         <v>70</v>
       </c>
       <c r="E294" t="n">
-        <v>0.3156332827198811</v>
+        <v>0.2914998252678309</v>
       </c>
       <c r="F294" t="n">
-        <v>0.03794571862891801</v>
+        <v>0.0502295555706025</v>
       </c>
       <c r="G294" t="n">
-        <v>0.2362877565158985</v>
+        <v>0.2207986669085752</v>
       </c>
       <c r="H294" t="n">
-        <v>0.02292462771642007</v>
+        <v>0.05001809781908582</v>
       </c>
       <c r="I294" t="n">
-        <v>0.9832969356035308</v>
+        <v>0.9851825870580105</v>
       </c>
       <c r="J294" t="n">
-        <v>0.002370953847931643</v>
+        <v>0.005016606679874532</v>
       </c>
     </row>
     <row r="295">
@@ -9875,22 +9875,22 @@
         <v>80</v>
       </c>
       <c r="E295" t="n">
-        <v>0.2739304882787329</v>
+        <v>0.3052110655058626</v>
       </c>
       <c r="F295" t="n">
-        <v>0.01519968163848904</v>
+        <v>0.03877521403337442</v>
       </c>
       <c r="G295" t="n">
-        <v>0.1968665482541582</v>
+        <v>0.2097998201746952</v>
       </c>
       <c r="H295" t="n">
-        <v>0.01684663272871466</v>
+        <v>0.04419035388328818</v>
       </c>
       <c r="I295" t="n">
-        <v>0.9872555887903767</v>
+        <v>0.9840590787376046</v>
       </c>
       <c r="J295" t="n">
-        <v>0.001800120098783382</v>
+        <v>0.003713834252317988</v>
       </c>
     </row>
     <row r="296">
@@ -9907,22 +9907,22 @@
         <v>20</v>
       </c>
       <c r="E296" t="n">
-        <v>0.3351908532396508</v>
+        <v>0.2942518677996703</v>
       </c>
       <c r="F296" t="n">
-        <v>0.03731438586083271</v>
+        <v>0.07653151955888426</v>
       </c>
       <c r="G296" t="n">
-        <v>0.2610205897358392</v>
+        <v>0.2201498128283891</v>
       </c>
       <c r="H296" t="n">
-        <v>0.03152669355615718</v>
+        <v>0.07137066792089636</v>
       </c>
       <c r="I296" t="n">
-        <v>0.980974775637921</v>
+        <v>0.9851083357432054</v>
       </c>
       <c r="J296" t="n">
-        <v>0.003417808203625735</v>
+        <v>0.006488782513320731</v>
       </c>
     </row>
     <row r="297">
@@ -9939,22 +9939,22 @@
         <v>30</v>
       </c>
       <c r="E297" t="n">
-        <v>0.342376613148285</v>
+        <v>0.3606224150572135</v>
       </c>
       <c r="F297" t="n">
-        <v>0.10275199907793</v>
+        <v>0.08459196871928362</v>
       </c>
       <c r="G297" t="n">
-        <v>0.2662208892070295</v>
+        <v>0.2868044248631952</v>
       </c>
       <c r="H297" t="n">
-        <v>0.1180304893575263</v>
+        <v>0.0945574629019168</v>
       </c>
       <c r="I297" t="n">
-        <v>0.9791741756966829</v>
+        <v>0.9770703876378208</v>
       </c>
       <c r="J297" t="n">
-        <v>0.01244752050764617</v>
+        <v>0.01094684794322016</v>
       </c>
     </row>
     <row r="298">
@@ -9971,22 +9971,22 @@
         <v>40</v>
       </c>
       <c r="E298" t="n">
-        <v>0.281586402260223</v>
+        <v>0.4032314394841289</v>
       </c>
       <c r="F298" t="n">
-        <v>0.04055242287744287</v>
+        <v>0.1308126125087882</v>
       </c>
       <c r="G298" t="n">
-        <v>0.2087924103616793</v>
+        <v>0.3215975821181442</v>
       </c>
       <c r="H298" t="n">
-        <v>0.03145414033367342</v>
+        <v>0.1337998473803469</v>
       </c>
       <c r="I298" t="n">
-        <v>0.9865767373500709</v>
+        <v>0.9708508659631392</v>
       </c>
       <c r="J298" t="n">
-        <v>0.003088320699504683</v>
+        <v>0.01659516861024718</v>
       </c>
     </row>
     <row r="299">
@@ -10003,22 +10003,22 @@
         <v>50</v>
       </c>
       <c r="E299" t="n">
-        <v>0.3589028366688064</v>
+        <v>0.3006150030543944</v>
       </c>
       <c r="F299" t="n">
-        <v>0.109102945814427</v>
+        <v>0.05262022396937029</v>
       </c>
       <c r="G299" t="n">
-        <v>0.2811782530416201</v>
+        <v>0.2269587776716327</v>
       </c>
       <c r="H299" t="n">
-        <v>0.102918364261745</v>
+        <v>0.05438906323955747</v>
       </c>
       <c r="I299" t="n">
-        <v>0.9775950553442607</v>
+        <v>0.9847702151369161</v>
       </c>
       <c r="J299" t="n">
-        <v>0.01121322998551859</v>
+        <v>0.003791928401427084</v>
       </c>
     </row>
     <row r="300">
@@ -10035,22 +10035,22 @@
         <v>60</v>
       </c>
       <c r="E300" t="n">
-        <v>0.3179312731313836</v>
+        <v>0.2894829694288479</v>
       </c>
       <c r="F300" t="n">
-        <v>0.06574250044533585</v>
+        <v>0.0477596121461411</v>
       </c>
       <c r="G300" t="n">
-        <v>0.2385764704785105</v>
+        <v>0.2039712146210811</v>
       </c>
       <c r="H300" t="n">
-        <v>0.06901793031590862</v>
+        <v>0.03083072251259585</v>
       </c>
       <c r="I300" t="n">
-        <v>0.982072126603137</v>
+        <v>0.985818811058038</v>
       </c>
       <c r="J300" t="n">
-        <v>0.007181648254233632</v>
+        <v>0.003499129144431476</v>
       </c>
     </row>
     <row r="301">
@@ -10067,22 +10067,22 @@
         <v>70</v>
       </c>
       <c r="E301" t="n">
-        <v>0.3406496790569114</v>
+        <v>0.3145876271461762</v>
       </c>
       <c r="F301" t="n">
-        <v>0.06600198443797196</v>
+        <v>0.02524736865667916</v>
       </c>
       <c r="G301" t="n">
-        <v>0.2767782258946304</v>
+        <v>0.2351014801410631</v>
       </c>
       <c r="H301" t="n">
-        <v>0.08256111108645514</v>
+        <v>0.02652326337985001</v>
       </c>
       <c r="I301" t="n">
-        <v>0.9802238021917802</v>
+        <v>0.9828517229360527</v>
       </c>
       <c r="J301" t="n">
-        <v>0.006513149241041229</v>
+        <v>0.004726005242281494</v>
       </c>
     </row>
     <row r="302">
@@ -10099,22 +10099,22 @@
         <v>80</v>
       </c>
       <c r="E302" t="n">
-        <v>0.306642624537063</v>
+        <v>0.3514025015246703</v>
       </c>
       <c r="F302" t="n">
-        <v>0.08342896318669617</v>
+        <v>0.09010010176055047</v>
       </c>
       <c r="G302" t="n">
-        <v>0.2330863279566543</v>
+        <v>0.2670166756505892</v>
       </c>
       <c r="H302" t="n">
-        <v>0.07777468910544851</v>
+        <v>0.08356809762614607</v>
       </c>
       <c r="I302" t="n">
-        <v>0.9834561672447851</v>
+        <v>0.9773681551315889</v>
       </c>
       <c r="J302" t="n">
-        <v>0.008587595684790479</v>
+        <v>0.01221845697890208</v>
       </c>
     </row>
     <row r="303">
@@ -10131,22 +10131,22 @@
         <v>20</v>
       </c>
       <c r="E303" t="n">
-        <v>0.3347737500237097</v>
+        <v>0.2841188452791754</v>
       </c>
       <c r="F303" t="n">
-        <v>0.1152771198186051</v>
+        <v>0.03727397914503107</v>
       </c>
       <c r="G303" t="n">
-        <v>0.2653046794573238</v>
+        <v>0.2007214043117441</v>
       </c>
       <c r="H303" t="n">
-        <v>0.115196246577081</v>
+        <v>0.03476182299285982</v>
       </c>
       <c r="I303" t="n">
-        <v>0.9799536189694059</v>
+        <v>0.9859378246337833</v>
       </c>
       <c r="J303" t="n">
-        <v>0.01179513503423144</v>
+        <v>0.004370312271797223</v>
       </c>
     </row>
     <row r="304">
@@ -10163,22 +10163,22 @@
         <v>30</v>
       </c>
       <c r="E304" t="n">
-        <v>0.3096968280635382</v>
+        <v>0.3010145044759101</v>
       </c>
       <c r="F304" t="n">
-        <v>0.06195505014339366</v>
+        <v>0.01275475706931375</v>
       </c>
       <c r="G304" t="n">
-        <v>0.240225334</v>
+        <v>0.2165022673061242</v>
       </c>
       <c r="H304" t="n">
-        <v>0.07858316522506187</v>
+        <v>0.0210690704899371</v>
       </c>
       <c r="I304" t="n">
-        <v>0.9826152060956945</v>
+        <v>0.9843793991601647</v>
       </c>
       <c r="J304" t="n">
-        <v>0.008715537785673697</v>
+        <v>0.00357376019797113</v>
       </c>
     </row>
     <row r="305">
@@ -10195,22 +10195,22 @@
         <v>40</v>
       </c>
       <c r="E305" t="n">
-        <v>0.3439767379830525</v>
+        <v>0.2796577488968535</v>
       </c>
       <c r="F305" t="n">
-        <v>0.08334448601272884</v>
+        <v>0.0257227541198455</v>
       </c>
       <c r="G305" t="n">
-        <v>0.2477693879397918</v>
+        <v>0.2118449962601103</v>
       </c>
       <c r="H305" t="n">
-        <v>0.07726478070383039</v>
+        <v>0.03525069099915241</v>
       </c>
       <c r="I305" t="n">
-        <v>0.9784574550152912</v>
+        <v>0.9864131744644323</v>
       </c>
       <c r="J305" t="n">
-        <v>0.01123869941269886</v>
+        <v>0.003628636288944154</v>
       </c>
     </row>
     <row r="306">
@@ -10227,22 +10227,22 @@
         <v>50</v>
       </c>
       <c r="E306" t="n">
-        <v>0.376635918830295</v>
+        <v>0.2825415912893446</v>
       </c>
       <c r="F306" t="n">
-        <v>0.07571049528168571</v>
+        <v>0.04273873936144271</v>
       </c>
       <c r="G306" t="n">
-        <v>0.2993597349181253</v>
+        <v>0.2055194816818537</v>
       </c>
       <c r="H306" t="n">
-        <v>0.08356039412108786</v>
+        <v>0.0450464269225896</v>
       </c>
       <c r="I306" t="n">
-        <v>0.9760554216612366</v>
+        <v>0.9864662101082102</v>
       </c>
       <c r="J306" t="n">
-        <v>0.006972585058765279</v>
+        <v>0.003064847473608478</v>
       </c>
     </row>
     <row r="307">
@@ -10259,22 +10259,22 @@
         <v>60</v>
       </c>
       <c r="E307" t="n">
-        <v>0.3850354601515709</v>
+        <v>0.2954449480700526</v>
       </c>
       <c r="F307" t="n">
-        <v>0.1094142745906545</v>
+        <v>0.1073858471026738</v>
       </c>
       <c r="G307" t="n">
-        <v>0.3193789782587004</v>
+        <v>0.2352727310458302</v>
       </c>
       <c r="H307" t="n">
-        <v>0.1160436003103862</v>
+        <v>0.1120355837427846</v>
       </c>
       <c r="I307" t="n">
-        <v>0.9728128262826979</v>
+        <v>0.9840972066947169</v>
       </c>
       <c r="J307" t="n">
-        <v>0.0145844192866918</v>
+        <v>0.01115769189589965</v>
       </c>
     </row>
     <row r="308">
@@ -10291,22 +10291,22 @@
         <v>70</v>
       </c>
       <c r="E308" t="n">
-        <v>0.3570723402996294</v>
+        <v>0.3503119164001906</v>
       </c>
       <c r="F308" t="n">
-        <v>0.1101809504069682</v>
+        <v>0.05526235382958478</v>
       </c>
       <c r="G308" t="n">
-        <v>0.3014179040017038</v>
+        <v>0.2624801757242102</v>
       </c>
       <c r="H308" t="n">
-        <v>0.1025929904380144</v>
+        <v>0.04899706102174145</v>
       </c>
       <c r="I308" t="n">
-        <v>0.9774513381845104</v>
+        <v>0.978610898067811</v>
       </c>
       <c r="J308" t="n">
-        <v>0.01313927656834142</v>
+        <v>0.006364941139260563</v>
       </c>
     </row>
     <row r="309">
@@ -10323,22 +10323,22 @@
         <v>80</v>
       </c>
       <c r="E309" t="n">
-        <v>0.3388885646717565</v>
+        <v>0.3353683081981275</v>
       </c>
       <c r="F309" t="n">
-        <v>0.03260815145380921</v>
+        <v>0.06222309075635565</v>
       </c>
       <c r="G309" t="n">
-        <v>0.2395850392277804</v>
+        <v>0.2614094817833789</v>
       </c>
       <c r="H309" t="n">
-        <v>0.02299068152585983</v>
+        <v>0.0687000085683329</v>
       </c>
       <c r="I309" t="n">
-        <v>0.9804374997711139</v>
+        <v>0.9804645558353687</v>
       </c>
       <c r="J309" t="n">
-        <v>0.003566566304089383</v>
+        <v>0.006632514561320959</v>
       </c>
     </row>
     <row r="310">
@@ -10355,22 +10355,22 @@
         <v>20</v>
       </c>
       <c r="E310" t="n">
-        <v>0.494649871295014</v>
+        <v>0.263042071865106</v>
       </c>
       <c r="F310" t="n">
-        <v>0.08428869045396896</v>
+        <v>0.02242369962862219</v>
       </c>
       <c r="G310" t="n">
-        <v>0.4013566582021103</v>
+        <v>0.1838988636003879</v>
       </c>
       <c r="H310" t="n">
-        <v>0.07111881596320827</v>
+        <v>0.02061068674679798</v>
       </c>
       <c r="I310" t="n">
-        <v>0.9566338465979174</v>
+        <v>0.9879785736758558</v>
       </c>
       <c r="J310" t="n">
-        <v>0.01706454136808784</v>
+        <v>0.003346067120596154</v>
       </c>
     </row>
     <row r="311">
@@ -10387,22 +10387,22 @@
         <v>30</v>
       </c>
       <c r="E311" t="n">
-        <v>0.2974009068520514</v>
+        <v>0.3015180399085718</v>
       </c>
       <c r="F311" t="n">
-        <v>0.03598316501517481</v>
+        <v>0.04853951016335976</v>
       </c>
       <c r="G311" t="n">
-        <v>0.2319114633222619</v>
+        <v>0.2281598381115234</v>
       </c>
       <c r="H311" t="n">
-        <v>0.04166299041538921</v>
+        <v>0.03647143204481352</v>
       </c>
       <c r="I311" t="n">
-        <v>0.9850691354450427</v>
+        <v>0.9845476646307558</v>
       </c>
       <c r="J311" t="n">
-        <v>0.002607790497596816</v>
+        <v>0.004166584477170725</v>
       </c>
     </row>
     <row r="312">
@@ -10419,22 +10419,22 @@
         <v>40</v>
       </c>
       <c r="E312" t="n">
-        <v>0.376915769702065</v>
+        <v>0.306550238199048</v>
       </c>
       <c r="F312" t="n">
-        <v>0.06601737071741855</v>
+        <v>0.04938769333588926</v>
       </c>
       <c r="G312" t="n">
-        <v>0.3074707085243117</v>
+        <v>0.2295447817740062</v>
       </c>
       <c r="H312" t="n">
-        <v>0.06788284950367979</v>
+        <v>0.05346285825809763</v>
       </c>
       <c r="I312" t="n">
-        <v>0.9750548330763487</v>
+        <v>0.9834068365129234</v>
       </c>
       <c r="J312" t="n">
-        <v>0.00774126430471552</v>
+        <v>0.006448368792090747</v>
       </c>
     </row>
     <row r="313">
@@ -10451,22 +10451,22 @@
         <v>50</v>
       </c>
       <c r="E313" t="n">
-        <v>0.2950138183449637</v>
+        <v>0.3540437171375727</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0430612288842859</v>
+        <v>0.08263934146588875</v>
       </c>
       <c r="G313" t="n">
-        <v>0.2191414955988504</v>
+        <v>0.2673606324441057</v>
       </c>
       <c r="H313" t="n">
-        <v>0.04139907320556906</v>
+        <v>0.0837378237823888</v>
       </c>
       <c r="I313" t="n">
-        <v>0.9850692418672971</v>
+        <v>0.9778201124264042</v>
       </c>
       <c r="J313" t="n">
-        <v>0.004067120691919251</v>
+        <v>0.009880757106961275</v>
       </c>
     </row>
     <row r="314">
@@ -10483,22 +10483,22 @@
         <v>60</v>
       </c>
       <c r="E314" t="n">
-        <v>0.3759174186323989</v>
+        <v>0.3511611995319686</v>
       </c>
       <c r="F314" t="n">
-        <v>0.1196246135303971</v>
+        <v>0.08774281217185156</v>
       </c>
       <c r="G314" t="n">
-        <v>0.287743999257439</v>
+        <v>0.2853759993672643</v>
       </c>
       <c r="H314" t="n">
-        <v>0.09867338515889031</v>
+        <v>0.07553568155960858</v>
       </c>
       <c r="I314" t="n">
-        <v>0.9748252322393119</v>
+        <v>0.9785725373794211</v>
       </c>
       <c r="J314" t="n">
-        <v>0.01470114657857546</v>
+        <v>0.009841431352043186</v>
       </c>
     </row>
     <row r="315">
@@ -10515,22 +10515,22 @@
         <v>70</v>
       </c>
       <c r="E315" t="n">
-        <v>0.339207299237261</v>
+        <v>0.2941802697094481</v>
       </c>
       <c r="F315" t="n">
-        <v>0.04654416286608255</v>
+        <v>0.04232463364038801</v>
       </c>
       <c r="G315" t="n">
-        <v>0.2546438651968518</v>
+        <v>0.2189692761961916</v>
       </c>
       <c r="H315" t="n">
-        <v>0.05381416610645325</v>
+        <v>0.05391582757812958</v>
       </c>
       <c r="I315" t="n">
-        <v>0.9801632907190154</v>
+        <v>0.9843306084212131</v>
       </c>
       <c r="J315" t="n">
-        <v>0.005671360799414532</v>
+        <v>0.007340350407838122</v>
       </c>
     </row>
     <row r="316">
@@ -10547,22 +10547,22 @@
         <v>80</v>
       </c>
       <c r="E316" t="n">
-        <v>0.2780940048835921</v>
+        <v>0.4200171976719025</v>
       </c>
       <c r="F316" t="n">
-        <v>0.02715996343317037</v>
+        <v>0.2698286905884774</v>
       </c>
       <c r="G316" t="n">
-        <v>0.1935078061621357</v>
+        <v>0.3332550962997164</v>
       </c>
       <c r="H316" t="n">
-        <v>0.03106016703552315</v>
+        <v>0.2564618173054699</v>
       </c>
       <c r="I316" t="n">
-        <v>0.9863930937956857</v>
+        <v>0.9604105739088518</v>
       </c>
       <c r="J316" t="n">
-        <v>0.004865421977310278</v>
+        <v>0.05060443845500542</v>
       </c>
     </row>
     <row r="317">
@@ -10579,22 +10579,22 @@
         <v>20</v>
       </c>
       <c r="E317" t="n">
-        <v>0.305264883823872</v>
+        <v>0.3202987153352451</v>
       </c>
       <c r="F317" t="n">
-        <v>0.02485022761944256</v>
+        <v>0.06532651887506562</v>
       </c>
       <c r="G317" t="n">
-        <v>0.2341423522021801</v>
+        <v>0.2382984661603959</v>
       </c>
       <c r="H317" t="n">
-        <v>0.02937640470386213</v>
+        <v>0.05657039270915187</v>
       </c>
       <c r="I317" t="n">
-        <v>0.984062675841486</v>
+        <v>0.9824182618021075</v>
       </c>
       <c r="J317" t="n">
-        <v>0.002964965334672428</v>
+        <v>0.006326801132466307</v>
       </c>
     </row>
     <row r="318">
@@ -10611,22 +10611,22 @@
         <v>30</v>
       </c>
       <c r="E318" t="n">
-        <v>0.3559170071657962</v>
+        <v>0.3399346438055587</v>
       </c>
       <c r="F318" t="n">
-        <v>0.1784938493965547</v>
+        <v>0.06519989314485163</v>
       </c>
       <c r="G318" t="n">
-        <v>0.2866037752773742</v>
+        <v>0.266403856003799</v>
       </c>
       <c r="H318" t="n">
-        <v>0.1814386363157605</v>
+        <v>0.06858175225607516</v>
       </c>
       <c r="I318" t="n">
-        <v>0.9750096743531284</v>
+        <v>0.980461127121092</v>
       </c>
       <c r="J318" t="n">
-        <v>0.02414802489834689</v>
+        <v>0.005356232241286736</v>
       </c>
     </row>
     <row r="319">
@@ -10643,22 +10643,22 @@
         <v>40</v>
       </c>
       <c r="E319" t="n">
-        <v>0.4094089975275447</v>
+        <v>0.3228279653635255</v>
       </c>
       <c r="F319" t="n">
-        <v>0.09782269157696276</v>
+        <v>0.09914898415821702</v>
       </c>
       <c r="G319" t="n">
-        <v>0.3475369698781968</v>
+        <v>0.2613958266050114</v>
       </c>
       <c r="H319" t="n">
-        <v>0.1069244062259495</v>
+        <v>0.1070912506279002</v>
       </c>
       <c r="I319" t="n">
-        <v>0.9700084371474116</v>
+        <v>0.9816060730133515</v>
       </c>
       <c r="J319" t="n">
-        <v>0.01257707719710151</v>
+        <v>0.01060208098283131</v>
       </c>
     </row>
     <row r="320">
@@ -10675,22 +10675,22 @@
         <v>50</v>
       </c>
       <c r="E320" t="n">
-        <v>0.3035821777632099</v>
+        <v>0.2910373601287987</v>
       </c>
       <c r="F320" t="n">
-        <v>0.03181082144187811</v>
+        <v>0.05314156510217315</v>
       </c>
       <c r="G320" t="n">
-        <v>0.2399529193200133</v>
+        <v>0.2222535776709378</v>
       </c>
       <c r="H320" t="n">
-        <v>0.03059592014949599</v>
+        <v>0.05935404841883535</v>
       </c>
       <c r="I320" t="n">
-        <v>0.9842823299950814</v>
+        <v>0.9854432345676901</v>
       </c>
       <c r="J320" t="n">
-        <v>0.00331121598138583</v>
+        <v>0.004800868107251011</v>
       </c>
     </row>
     <row r="321">
@@ -10707,22 +10707,22 @@
         <v>60</v>
       </c>
       <c r="E321" t="n">
-        <v>0.323727972837776</v>
+        <v>0.3906031248655446</v>
       </c>
       <c r="F321" t="n">
-        <v>0.08602348800423772</v>
+        <v>0.0912110781913356</v>
       </c>
       <c r="G321" t="n">
-        <v>0.2559325828322118</v>
+        <v>0.3135715053010197</v>
       </c>
       <c r="H321" t="n">
-        <v>0.08749514589373293</v>
+        <v>0.0959219673933738</v>
       </c>
       <c r="I321" t="n">
-        <v>0.9814407043070006</v>
+        <v>0.9730198354869186</v>
       </c>
       <c r="J321" t="n">
-        <v>0.009807822273195304</v>
+        <v>0.01296129735562868</v>
       </c>
     </row>
     <row r="322">
@@ -10739,22 +10739,22 @@
         <v>70</v>
       </c>
       <c r="E322" t="n">
-        <v>0.4067971280409946</v>
+        <v>0.3326742994164005</v>
       </c>
       <c r="F322" t="n">
-        <v>0.1764856843194373</v>
+        <v>0.05435235419379938</v>
       </c>
       <c r="G322" t="n">
-        <v>0.3308966405901749</v>
+        <v>0.2604824815879146</v>
       </c>
       <c r="H322" t="n">
-        <v>0.1734258682054442</v>
+        <v>0.06556275032624145</v>
       </c>
       <c r="I322" t="n">
-        <v>0.9681275824211717</v>
+        <v>0.9806949168684117</v>
       </c>
       <c r="J322" t="n">
-        <v>0.02815643052581265</v>
+        <v>0.006606861209132489</v>
       </c>
     </row>
     <row r="323">
@@ -10771,22 +10771,22 @@
         <v>80</v>
       </c>
       <c r="E323" t="n">
-        <v>0.3212346260946196</v>
+        <v>0.4035952598860545</v>
       </c>
       <c r="F323" t="n">
-        <v>0.04333387950590743</v>
+        <v>0.1673536776412358</v>
       </c>
       <c r="G323" t="n">
-        <v>0.2337324035897825</v>
+        <v>0.3351840382201964</v>
       </c>
       <c r="H323" t="n">
-        <v>0.03400303127262817</v>
+        <v>0.1706577600446901</v>
       </c>
       <c r="I323" t="n">
-        <v>0.9825388998390772</v>
+        <v>0.9700529711170391</v>
       </c>
       <c r="J323" t="n">
-        <v>0.00352207793741585</v>
+        <v>0.02159657517147128</v>
       </c>
     </row>
     <row r="324">
@@ -10803,22 +10803,22 @@
         <v>20</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2952804396910143</v>
+        <v>0.3245121332220962</v>
       </c>
       <c r="F324" t="n">
-        <v>0.09035527792896353</v>
+        <v>0.06363792091436581</v>
       </c>
       <c r="G324" t="n">
-        <v>0.2132489157084502</v>
+        <v>0.2429036573973002</v>
       </c>
       <c r="H324" t="n">
-        <v>0.0805843128586617</v>
+        <v>0.05035963455102831</v>
       </c>
       <c r="I324" t="n">
-        <v>0.9837843787453361</v>
+        <v>0.9819698657273304</v>
       </c>
       <c r="J324" t="n">
-        <v>0.01150434575007755</v>
+        <v>0.006202617081048455</v>
       </c>
     </row>
     <row r="325">
@@ -10835,22 +10835,22 @@
         <v>30</v>
       </c>
       <c r="E325" t="n">
-        <v>0.278282892244162</v>
+        <v>0.3878905582492173</v>
       </c>
       <c r="F325" t="n">
-        <v>0.04572627557429827</v>
+        <v>0.1002563372927372</v>
       </c>
       <c r="G325" t="n">
-        <v>0.1982341546607788</v>
+        <v>0.3165946529553987</v>
       </c>
       <c r="H325" t="n">
-        <v>0.03663990787586556</v>
+        <v>0.1078651004773433</v>
       </c>
       <c r="I325" t="n">
-        <v>0.9869516209231689</v>
+        <v>0.9735114134300942</v>
       </c>
       <c r="J325" t="n">
-        <v>0.003137136249428728</v>
+        <v>0.01266758914531085</v>
       </c>
     </row>
     <row r="326">
@@ -10867,22 +10867,22 @@
         <v>40</v>
       </c>
       <c r="E326" t="n">
-        <v>0.3112359330788967</v>
+        <v>0.3177607588393176</v>
       </c>
       <c r="F326" t="n">
-        <v>0.04500003314332619</v>
+        <v>0.03948831560769938</v>
       </c>
       <c r="G326" t="n">
-        <v>0.2361115282488054</v>
+        <v>0.2479974721642987</v>
       </c>
       <c r="H326" t="n">
-        <v>0.04528023165683851</v>
+        <v>0.02834009732920593</v>
       </c>
       <c r="I326" t="n">
-        <v>0.983457060371015</v>
+        <v>0.9827141155436969</v>
       </c>
       <c r="J326" t="n">
-        <v>0.004010532722939456</v>
+        <v>0.004430868444810414</v>
       </c>
     </row>
     <row r="327">
@@ -10899,22 +10899,22 @@
         <v>50</v>
       </c>
       <c r="E327" t="n">
-        <v>0.3334687183226106</v>
+        <v>0.3198633447508267</v>
       </c>
       <c r="F327" t="n">
-        <v>0.08790230117279109</v>
+        <v>0.04638218372235499</v>
       </c>
       <c r="G327" t="n">
-        <v>0.2492462639165441</v>
+        <v>0.2310173936983588</v>
       </c>
       <c r="H327" t="n">
-        <v>0.09397575877076439</v>
+        <v>0.04300698940994181</v>
       </c>
       <c r="I327" t="n">
-        <v>0.9806368961335638</v>
+        <v>0.9824994475289263</v>
       </c>
       <c r="J327" t="n">
-        <v>0.009682680375272786</v>
+        <v>0.004326760823087742</v>
       </c>
     </row>
     <row r="328">
@@ -10931,22 +10931,22 @@
         <v>60</v>
       </c>
       <c r="E328" t="n">
-        <v>0.3225374890134758</v>
+        <v>0.3581113799129209</v>
       </c>
       <c r="F328" t="n">
-        <v>0.02049916316588805</v>
+        <v>0.07516141763290603</v>
       </c>
       <c r="G328" t="n">
-        <v>0.2463485000019097</v>
+        <v>0.2711806517409279</v>
       </c>
       <c r="H328" t="n">
-        <v>0.009476964588277948</v>
+        <v>0.08849014510039498</v>
       </c>
       <c r="I328" t="n">
-        <v>0.9823325027606715</v>
+        <v>0.9764555958003085</v>
       </c>
       <c r="J328" t="n">
-        <v>0.002517023817304108</v>
+        <v>0.01220767848699065</v>
       </c>
     </row>
     <row r="329">
@@ -10963,22 +10963,22 @@
         <v>70</v>
       </c>
       <c r="E329" t="n">
-        <v>0.4213563602763425</v>
+        <v>0.3038365834680694</v>
       </c>
       <c r="F329" t="n">
-        <v>0.07415486071909458</v>
+        <v>0.05263078833357624</v>
       </c>
       <c r="G329" t="n">
-        <v>0.3394605608781393</v>
+        <v>0.2226322316762722</v>
       </c>
       <c r="H329" t="n">
-        <v>0.07721758102277934</v>
+        <v>0.04934475469780555</v>
       </c>
       <c r="I329" t="n">
-        <v>0.9689779212648068</v>
+        <v>0.9842984926627993</v>
       </c>
       <c r="J329" t="n">
-        <v>0.01046193794822359</v>
+        <v>0.004484165644152608</v>
       </c>
     </row>
     <row r="330">
@@ -10995,22 +10995,22 @@
         <v>80</v>
       </c>
       <c r="E330" t="n">
-        <v>0.3394235077603205</v>
+        <v>0.2708502394891276</v>
       </c>
       <c r="F330" t="n">
-        <v>0.08348988907248919</v>
+        <v>0.04325362528387897</v>
       </c>
       <c r="G330" t="n">
-        <v>0.2649927797454312</v>
+        <v>0.1994084451426488</v>
       </c>
       <c r="H330" t="n">
-        <v>0.08805939613150443</v>
+        <v>0.04250612624944353</v>
       </c>
       <c r="I330" t="n">
-        <v>0.9782386659826512</v>
+        <v>0.9868370978168233</v>
       </c>
       <c r="J330" t="n">
-        <v>0.01256992453786868</v>
+        <v>0.005574483468518068</v>
       </c>
     </row>
     <row r="331">
@@ -11027,22 +11027,22 @@
         <v>20</v>
       </c>
       <c r="E331" t="n">
-        <v>0.3363160204041596</v>
+        <v>0.3159560566238156</v>
       </c>
       <c r="F331" t="n">
-        <v>0.1120802065788516</v>
+        <v>0.05668724441627949</v>
       </c>
       <c r="G331" t="n">
-        <v>0.2487657724827702</v>
+        <v>0.2443991618040547</v>
       </c>
       <c r="H331" t="n">
-        <v>0.1050333600637722</v>
+        <v>0.05396771769962182</v>
       </c>
       <c r="I331" t="n">
-        <v>0.9785593703838261</v>
+        <v>0.9829964534540829</v>
       </c>
       <c r="J331" t="n">
-        <v>0.01512080892475736</v>
+        <v>0.004634907483444799</v>
       </c>
     </row>
     <row r="332">
@@ -11059,22 +11059,22 @@
         <v>30</v>
       </c>
       <c r="E332" t="n">
-        <v>0.2934755636056</v>
+        <v>0.3149898632614115</v>
       </c>
       <c r="F332" t="n">
-        <v>0.05852382011758443</v>
+        <v>0.118266125532045</v>
       </c>
       <c r="G332" t="n">
-        <v>0.21265962981008</v>
+        <v>0.2479239947546429</v>
       </c>
       <c r="H332" t="n">
-        <v>0.05448249557453001</v>
+        <v>0.118973683300769</v>
       </c>
       <c r="I332" t="n">
-        <v>0.9852345813186284</v>
+        <v>0.9818589865180293</v>
       </c>
       <c r="J332" t="n">
-        <v>0.00496382867849722</v>
+        <v>0.01353103011160193</v>
       </c>
     </row>
     <row r="333">
@@ -11091,22 +11091,22 @@
         <v>40</v>
       </c>
       <c r="E333" t="n">
-        <v>0.3094329091057472</v>
+        <v>0.3280915049114982</v>
       </c>
       <c r="F333" t="n">
-        <v>0.07258010459193874</v>
+        <v>0.1080062803778386</v>
       </c>
       <c r="G333" t="n">
-        <v>0.236984186388062</v>
+        <v>0.2572319417004191</v>
       </c>
       <c r="H333" t="n">
-        <v>0.07141941570323111</v>
+        <v>0.112635234558627</v>
       </c>
       <c r="I333" t="n">
-        <v>0.9834789556752052</v>
+        <v>0.9808560604143137</v>
       </c>
       <c r="J333" t="n">
-        <v>0.006267099977271353</v>
+        <v>0.01080821146240705</v>
       </c>
     </row>
     <row r="334">
@@ -11123,22 +11123,22 @@
         <v>50</v>
       </c>
       <c r="E334" t="n">
-        <v>0.3641111097449231</v>
+        <v>0.2935069958048582</v>
       </c>
       <c r="F334" t="n">
-        <v>0.1301999814101652</v>
+        <v>0.0310327210646521</v>
       </c>
       <c r="G334" t="n">
-        <v>0.2870732760362164</v>
+        <v>0.2210333250252349</v>
       </c>
       <c r="H334" t="n">
-        <v>0.1374307889781118</v>
+        <v>0.04006014889577331</v>
       </c>
       <c r="I334" t="n">
-        <v>0.973807304467232</v>
+        <v>0.9848858466216578</v>
       </c>
       <c r="J334" t="n">
-        <v>0.02195628838264446</v>
+        <v>0.005300496591831414</v>
       </c>
     </row>
     <row r="335">
@@ -11155,22 +11155,22 @@
         <v>60</v>
       </c>
       <c r="E335" t="n">
-        <v>0.3572046290965971</v>
+        <v>0.2759321951255392</v>
       </c>
       <c r="F335" t="n">
-        <v>0.1272004119757889</v>
+        <v>0.03753346181642582</v>
       </c>
       <c r="G335" t="n">
-        <v>0.2751718578410417</v>
+        <v>0.2023104172327044</v>
       </c>
       <c r="H335" t="n">
-        <v>0.117273402898677</v>
+        <v>0.02539366050455107</v>
       </c>
       <c r="I335" t="n">
-        <v>0.9766102605484127</v>
+        <v>0.9871445723206005</v>
       </c>
       <c r="J335" t="n">
-        <v>0.01461365595120629</v>
+        <v>0.002410946212085723</v>
       </c>
     </row>
     <row r="336">
@@ -11187,22 +11187,22 @@
         <v>70</v>
       </c>
       <c r="E336" t="n">
-        <v>0.3577211640491826</v>
+        <v>0.2949521706612445</v>
       </c>
       <c r="F336" t="n">
-        <v>0.1141973917661925</v>
+        <v>0.03856002540729384</v>
       </c>
       <c r="G336" t="n">
-        <v>0.2722234638593535</v>
+        <v>0.2105334422143799</v>
       </c>
       <c r="H336" t="n">
-        <v>0.1238851337897808</v>
+        <v>0.03899504390332346</v>
       </c>
       <c r="I336" t="n">
-        <v>0.9739919614685695</v>
+        <v>0.9846994353029194</v>
       </c>
       <c r="J336" t="n">
-        <v>0.02277286617835874</v>
+        <v>0.004969389359149103</v>
       </c>
     </row>
     <row r="337">
@@ -11219,22 +11219,22 @@
         <v>80</v>
       </c>
       <c r="E337" t="n">
-        <v>0.2964854538037932</v>
+        <v>0.337542109935868</v>
       </c>
       <c r="F337" t="n">
-        <v>0.08767159557851928</v>
+        <v>0.08445732303063067</v>
       </c>
       <c r="G337" t="n">
-        <v>0.2373040472832532</v>
+        <v>0.263962682669712</v>
       </c>
       <c r="H337" t="n">
-        <v>0.09787127022061257</v>
+        <v>0.09505708243410577</v>
       </c>
       <c r="I337" t="n">
-        <v>0.9835030536051305</v>
+        <v>0.9781559613781061</v>
       </c>
       <c r="J337" t="n">
-        <v>0.01174354981293655</v>
+        <v>0.01532470954303128</v>
       </c>
     </row>
     <row r="338">
@@ -11251,22 +11251,22 @@
         <v>20</v>
       </c>
       <c r="E338" t="n">
-        <v>0.3151359229337366</v>
+        <v>0.2885055243181723</v>
       </c>
       <c r="F338" t="n">
-        <v>0.04116956241143814</v>
+        <v>0.01579940337335615</v>
       </c>
       <c r="G338" t="n">
-        <v>0.2408425450134737</v>
+        <v>0.2072435719931224</v>
       </c>
       <c r="H338" t="n">
-        <v>0.04174076372684576</v>
+        <v>0.02432645599205425</v>
       </c>
       <c r="I338" t="n">
-        <v>0.9826078868010393</v>
+        <v>0.9857975610769092</v>
       </c>
       <c r="J338" t="n">
-        <v>0.005880989566939757</v>
+        <v>0.002610935879035305</v>
       </c>
     </row>
     <row r="339">
@@ -11283,22 +11283,22 @@
         <v>30</v>
       </c>
       <c r="E339" t="n">
-        <v>0.3133399012209532</v>
+        <v>0.3080351839706633</v>
       </c>
       <c r="F339" t="n">
-        <v>0.05820987717225967</v>
+        <v>0.08429634907999466</v>
       </c>
       <c r="G339" t="n">
-        <v>0.2332453015238438</v>
+        <v>0.2285567737821411</v>
       </c>
       <c r="H339" t="n">
-        <v>0.04470976136590748</v>
+        <v>0.07156313800015542</v>
       </c>
       <c r="I339" t="n">
-        <v>0.9833805092808319</v>
+        <v>0.9833448195719943</v>
       </c>
       <c r="J339" t="n">
-        <v>0.004653849623106833</v>
+        <v>0.007895798161552597</v>
       </c>
     </row>
     <row r="340">
@@ -11315,22 +11315,22 @@
         <v>40</v>
       </c>
       <c r="E340" t="n">
-        <v>0.3866089586119593</v>
+        <v>0.3044304559871637</v>
       </c>
       <c r="F340" t="n">
-        <v>0.05400630550641253</v>
+        <v>0.03537488892858051</v>
       </c>
       <c r="G340" t="n">
-        <v>0.3075012670067359</v>
+        <v>0.231185718434617</v>
       </c>
       <c r="H340" t="n">
-        <v>0.03078678956125269</v>
+        <v>0.03247978410586284</v>
       </c>
       <c r="I340" t="n">
-        <v>0.9745246889388343</v>
+        <v>0.9840305532203025</v>
       </c>
       <c r="J340" t="n">
-        <v>0.006042846525152166</v>
+        <v>0.004369488136293265</v>
       </c>
     </row>
     <row r="341">
@@ -11347,22 +11347,22 @@
         <v>50</v>
       </c>
       <c r="E341" t="n">
-        <v>0.3914672839619009</v>
+        <v>0.3698194582084103</v>
       </c>
       <c r="F341" t="n">
-        <v>0.115388085366972</v>
+        <v>0.07879513421991564</v>
       </c>
       <c r="G341" t="n">
-        <v>0.3135633996235877</v>
+        <v>0.2930637204075769</v>
       </c>
       <c r="H341" t="n">
-        <v>0.117651794719654</v>
+        <v>0.08114301109944543</v>
       </c>
       <c r="I341" t="n">
-        <v>0.9705798385419275</v>
+        <v>0.9751125041365679</v>
       </c>
       <c r="J341" t="n">
-        <v>0.0169452291384962</v>
+        <v>0.01144691955759641</v>
       </c>
     </row>
     <row r="342">
@@ -11379,22 +11379,22 @@
         <v>60</v>
       </c>
       <c r="E342" t="n">
-        <v>0.3155095684115771</v>
+        <v>0.3655115488025902</v>
       </c>
       <c r="F342" t="n">
-        <v>0.04272321516138745</v>
+        <v>0.03269962692346973</v>
       </c>
       <c r="G342" t="n">
-        <v>0.2329260369858728</v>
+        <v>0.2850038653122512</v>
       </c>
       <c r="H342" t="n">
-        <v>0.04759269285907381</v>
+        <v>0.03342751945425149</v>
       </c>
       <c r="I342" t="n">
-        <v>0.9830766685688384</v>
+        <v>0.9770678266957855</v>
       </c>
       <c r="J342" t="n">
-        <v>0.004195742489610054</v>
+        <v>0.005320430564739283</v>
       </c>
     </row>
     <row r="343">
@@ -11411,22 +11411,22 @@
         <v>70</v>
       </c>
       <c r="E343" t="n">
-        <v>0.3529980494819392</v>
+        <v>0.3051801062655285</v>
       </c>
       <c r="F343" t="n">
-        <v>0.1118985325280225</v>
+        <v>0.0282116294983924</v>
       </c>
       <c r="G343" t="n">
-        <v>0.2738046284563466</v>
+        <v>0.2200473732030208</v>
       </c>
       <c r="H343" t="n">
-        <v>0.1142314663997618</v>
+        <v>0.02903685777534442</v>
       </c>
       <c r="I343" t="n">
-        <v>0.9767508099389793</v>
+        <v>0.9839243614852163</v>
       </c>
       <c r="J343" t="n">
-        <v>0.01501724259410132</v>
+        <v>0.004355433831419426</v>
       </c>
     </row>
     <row r="344">
@@ -11443,22 +11443,22 @@
         <v>80</v>
       </c>
       <c r="E344" t="n">
-        <v>0.3025731028888015</v>
+        <v>0.4497331664812633</v>
       </c>
       <c r="F344" t="n">
-        <v>0.04969583092575628</v>
+        <v>0.1600198514472168</v>
       </c>
       <c r="G344" t="n">
-        <v>0.2209058644504173</v>
+        <v>0.368601060108115</v>
       </c>
       <c r="H344" t="n">
-        <v>0.04095146531985119</v>
+        <v>0.1539364562514448</v>
       </c>
       <c r="I344" t="n">
-        <v>0.9842617132674093</v>
+        <v>0.9640108874913935</v>
       </c>
       <c r="J344" t="n">
-        <v>0.004789746029322118</v>
+        <v>0.02184347564352061</v>
       </c>
     </row>
   </sheetData>
